--- a/file/temp/ExcelTableToMarkDownSample.xlsx
+++ b/file/temp/ExcelTableToMarkDownSample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29022"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\D_SSD2TB\R.DAPC\file\temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R.IAMB\file\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F061B12C-C08D-46A4-974B-5D8622357D4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD37A582-276C-4E51-8DC9-8A37773CC772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5100" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{D94F812B-BC61-4A22-9692-634766FE0D40}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" activeTab="1" xr2:uid="{D94F812B-BC61-4A22-9692-634766FE0D40}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="105">
   <si>
     <t>Creación de tablas en formato .md</t>
   </si>
@@ -174,192 +174,6 @@
     <t>Proyecto</t>
   </si>
   <si>
-    <t>Arquitectura</t>
-  </si>
-  <si>
-    <t>Civil</t>
-  </si>
-  <si>
-    <t>Electricidad</t>
-  </si>
-  <si>
-    <t>Protección contra incendios</t>
-  </si>
-  <si>
-    <t>Estructura</t>
-  </si>
-  <si>
-    <t>Topografía / Cartografía</t>
-  </si>
-  <si>
-    <t>Área</t>
-  </si>
-  <si>
-    <t>Sistemas auxiliares</t>
-  </si>
-  <si>
-    <t>Vigas</t>
-  </si>
-  <si>
-    <t>Edificios y estructuras primarias</t>
-  </si>
-  <si>
-    <t>Límites políticos</t>
-  </si>
-  <si>
-    <t>Perforaciones</t>
-  </si>
-  <si>
-    <t>Arriostramiento</t>
-  </si>
-  <si>
-    <t>Sistemas de cable</t>
-  </si>
-  <si>
-    <t>Techo</t>
-  </si>
-  <si>
-    <t>Columnas</t>
-  </si>
-  <si>
-    <t>Controles e instrumentación</t>
-  </si>
-  <si>
-    <t>Puntos de control</t>
-  </si>
-  <si>
-    <t>Cubierta</t>
-  </si>
-  <si>
-    <t>Detalle</t>
-  </si>
-  <si>
-    <t>Diagramas</t>
-  </si>
-  <si>
-    <t>Puertas</t>
-  </si>
-  <si>
-    <t>Equipo</t>
-  </si>
-  <si>
-    <t>Servidumbres</t>
-  </si>
-  <si>
-    <t>Cercas</t>
-  </si>
-  <si>
-    <t>Piso</t>
-  </si>
-  <si>
-    <t>Cimentación</t>
-  </si>
-  <si>
-    <t>Mobiliario</t>
-  </si>
-  <si>
-    <t>Rejillas</t>
-  </si>
-  <si>
-    <t>Viguetas</t>
-  </si>
-  <si>
-    <t>Iluminación</t>
-  </si>
-  <si>
-    <t>Dinteles</t>
-  </si>
-  <si>
-    <t>Sistema de protección contra rayos</t>
-  </si>
-  <si>
-    <t>Sistemas de gas natural</t>
-  </si>
-  <si>
-    <t>Nodo</t>
-  </si>
-  <si>
-    <t>Energía</t>
-  </si>
-  <si>
-    <t>Estacionamientos</t>
-  </si>
-  <si>
-    <t>Propiedad</t>
-  </si>
-  <si>
-    <t>Río</t>
-  </si>
-  <si>
-    <t>Carreteras</t>
-  </si>
-  <si>
-    <t>Escalones</t>
-  </si>
-  <si>
-    <t>Características del sitio</t>
-  </si>
-  <si>
-    <t>Losa</t>
-  </si>
-  <si>
-    <t>Suelos</t>
-  </si>
-  <si>
-    <t>Alcantarillado sanitario</t>
-  </si>
-  <si>
-    <t>Refuerzo</t>
-  </si>
-  <si>
-    <t>Alcantarillado pluvial</t>
-  </si>
-  <si>
-    <t>Escaleras</t>
-  </si>
-  <si>
-    <t>Aceras</t>
-  </si>
-  <si>
-    <t>Característica topográfica</t>
-  </si>
-  <si>
-    <t>Senderos o caminos</t>
-  </si>
-  <si>
-    <t>Cerchas</t>
-  </si>
-  <si>
-    <t>Objetos no identificados del sitio</t>
-  </si>
-  <si>
-    <t>Muros</t>
-  </si>
-  <si>
-    <t>Suministro de agua</t>
-  </si>
-  <si>
-    <t>Piso: cambios de nivel (rampas, fosos, depresiones)</t>
-  </si>
-  <si>
-    <t>Paredes</t>
-  </si>
-  <si>
-    <t>Edificios y estructuras principales</t>
-  </si>
-  <si>
-    <t>Accesos vehiculares</t>
-  </si>
-  <si>
-    <t>Red irregular triangulada</t>
-  </si>
-  <si>
-    <t>Layer - name</t>
-  </si>
-  <si>
-    <t>Disciplina</t>
-  </si>
-  <si>
     <t>Capa - Descripción</t>
   </si>
   <si>
@@ -372,298 +186,175 @@
     <t>CAD Lineweight</t>
   </si>
   <si>
-    <t>A-AREA</t>
+    <t>a</t>
   </si>
   <si>
-    <t>white</t>
+    <t>Tema general o medio</t>
   </si>
   <si>
-    <t>Continuous</t>
+    <t>Imagen de Satélite Regional</t>
   </si>
   <si>
-    <t>A-CLNG</t>
+    <t>Imagen de Satélite Alta Resolución</t>
   </si>
   <si>
-    <t>A-COLS</t>
+    <t>Ortofotografía Aérea</t>
   </si>
   <si>
-    <t>red</t>
+    <t>Modelo Digital del Terreno DTM</t>
   </si>
   <si>
-    <t>A-DOOR</t>
+    <t>Modelo Digital de Superficie DSM</t>
   </si>
   <si>
-    <t>A-EQPM</t>
+    <t>Modelo Digital de Pendientes</t>
   </si>
   <si>
-    <t>A-FLOR</t>
+    <t>Modelo Hidrogeológico</t>
   </si>
   <si>
-    <t>A-FLOR-LEVL</t>
+    <t>Modelo Digital de Precipitación</t>
   </si>
   <si>
-    <t>A-FURN</t>
+    <t>Modelo Digital de Temperatura</t>
   </si>
   <si>
-    <t>A-GLAZ</t>
+    <t>Modelo de Dispersión de PST Diario</t>
   </si>
   <si>
-    <t>Acristalamiento (muros transparentes y ventanas)</t>
+    <t>Modelo de Dispersión de PST Anual</t>
   </si>
   <si>
-    <t>yellow</t>
+    <t>Modelo de Dispersión de PM10 Diario</t>
   </si>
   <si>
-    <t>A-ROOF</t>
+    <t>Modelo de Dispersión de PM10 Anual</t>
   </si>
   <si>
-    <t>Tejado</t>
+    <t>Modelo de Dispersión de PM2.5 Diario</t>
   </si>
   <si>
-    <t>A-WALL</t>
+    <t>Modelo de Dispersión de PM2.5 Anual</t>
   </si>
   <si>
-    <t>C-BLDG</t>
+    <t>Modelo de Dispersión de SO2 Anual</t>
   </si>
   <si>
-    <t>C-CTRL</t>
+    <t>Modelo de Dispersión de SO2 Diario</t>
   </si>
   <si>
-    <t>C-DRIV</t>
+    <t>Modelo de Dispersión de SO2 a 3 horas</t>
   </si>
   <si>
-    <t>cyan</t>
+    <t>Modelo de Dispersión de NO2 Anual</t>
   </si>
   <si>
-    <t>C-ESMT</t>
+    <t>Modelo de Dispersión de NO2 Diario</t>
   </si>
   <si>
-    <t>C-FENC</t>
+    <t>Modelo de Dispersión de NO2 a 1 hora</t>
   </si>
   <si>
-    <t>C-FIRE</t>
+    <t>Modelo de Dispersión de O3 a 8 horas</t>
   </si>
   <si>
-    <t>C-NGAS</t>
+    <t>Modelo de Dispersión de O3 a 1 hora</t>
   </si>
   <si>
-    <t>C-POWR</t>
+    <t>Modelo de Dispersión de CO a 8 horas</t>
   </si>
   <si>
-    <t>DASHED</t>
+    <t>Modelo de Dispersión de CO a 1 hora</t>
   </si>
   <si>
-    <t>C-PROP</t>
+    <t>Modelo de Vibraciones</t>
   </si>
   <si>
-    <t>Magenta</t>
+    <t>Modelo de Sobrepresión de Aire</t>
   </si>
   <si>
-    <t>C-RIVR</t>
+    <t>Corresponde al mosaico de fotografías aéreas ortocorregido y/o georeferenciado, modo pancromático o multiespectral.</t>
   </si>
   <si>
-    <t>C-ROAD</t>
+    <t>Corresponde al mosaico de imágenes de satélite con resolucion espacial menor a 10 metros, ortocorregido y/o georeferenciado, modo pancromático, multiespectral o hiperespectral.</t>
   </si>
   <si>
-    <t>C-SOIL</t>
+    <t>Corresponde al mosaico de imágenes de satélite con resolucion espacial mayor o igual a 10 metros, ortocorregido y/o georeferenciado, modo pancromático, multiespectral o hiperespectral.</t>
   </si>
   <si>
-    <t>C-SSWR</t>
+    <t>Corresponde al DTM en escala de grises, donde cada celda o pixel contiene el valor de elevación en metros sobre el nivel del mar.</t>
   </si>
   <si>
-    <t>green</t>
+    <t>Corresponde al Modelo Digital de Superficie (incluye elementos de la cobertura terrestre como por ejemplo cobertura vegetal, edificaciones, etc), en escala de grises, donde cada celda o pixel contiene el valor de elevación en metros sobre el nivel del mar.</t>
   </si>
   <si>
-    <t>C-STRM</t>
+    <t>Corresponde a la superficie o Modelo Digital de Pendientes, en escala de grises, donde cada celda o pixel contiene el valor de pendiente en porcentaje.</t>
   </si>
   <si>
-    <t>C-SWLK</t>
+    <t>Corresponde al Modelo Hidrogeológico.</t>
   </si>
   <si>
-    <t>C-TINN</t>
+    <t>Corresponde a la superficie o Modelo Digital de Precipitación, en escala de grises, donde cada celda o pixel contiene el valor de precipitación media multianual en mm/año.</t>
   </si>
   <si>
-    <t>C-TOPO</t>
+    <t>Corresponde a la superficie o Modelo Digital de Temperatura, en escala de grises, donde cada celda o pixel contiene el valor de temperatura media multianual en °C/año.</t>
   </si>
   <si>
-    <t>C-TRAL</t>
+    <t>Corresponde a la superficie o Modelo Digital de Dispersión de PST diario, en escala de grises, donde cada celda o pixel contiene el valor de concentración de PST.</t>
   </si>
   <si>
-    <t>C-WALL</t>
+    <t>Corresponde a la superficie o Modelo Digital de Dispersión de PST anual, en escala de grises, donde cada celda o pixel contiene el valor de concentración de PST.</t>
   </si>
   <si>
-    <t>C-WATR</t>
+    <t>Corresponde a la superficie o Modelo Digital de Dispersión de PM10 diario, en escala de grises, donde cada celda o pixel contiene el valor de concentración de PM10.</t>
   </si>
   <si>
-    <t>E-AREA</t>
+    <t>Corresponde a la superficie o Modelo Digital de Dispersión de PM10 anual, en escala de grises, donde cada celda o pixel contiene el valor de concentración de PM10.</t>
   </si>
   <si>
-    <t>E-AUXL</t>
+    <t>Corresponde a la superficie o Modelo Digital de Dispersión de PM2.5 diario, en escala de grises, donde cada celda o pixel contiene el valor de concentración de PM2.5.</t>
   </si>
   <si>
-    <t>E-CABL</t>
+    <t>Corresponde a la superficie o Modelo Digital de Dispersión de PM2.5 anual, en escala de grises, donde cada celda o pixel contiene el valor de concentración de PM2.5.</t>
   </si>
   <si>
-    <t>HIDDEN2</t>
+    <t>Corresponde a la superficie o Modelo Digital de Dispersión de SO2 anual, en escala de grises, donde cada celda o pixel contiene el valor de concentración de SO2.</t>
   </si>
   <si>
-    <t>E-CONT</t>
+    <t>Corresponde a la superficie o Modelo Digital de Dispersión de SO2 diario, en escala de grises, donde cada celda o pixel contiene el valor de concentración de SO2.</t>
   </si>
   <si>
-    <t>E-DIAG</t>
+    <t>Corresponde a la superficie o Modelo Digital de Dispersión de SO2 a tres horas, en escala de grises, donde cada celda o pixel contiene el valor de concentración de SO2.</t>
   </si>
   <si>
-    <t>E-FIRE</t>
+    <t>Corresponde a la superficie o Modelo Digital de Dispersión de NO2 anual, en escala de grises, donde cada celda o pixel contiene el valor de concentración de NO2.</t>
   </si>
   <si>
-    <t>E-GRND</t>
+    <t>Corresponde a la superficie o Modelo Digital de Dispersión de NO2 diario, en escala de grises, donde cada celda o pixel contiene el valor de concentración de NO2.</t>
   </si>
   <si>
-    <t>Sistema de tierra</t>
+    <t>Corresponde a la superficie o Modelo Digital de Dispersión de NO2 a 1 hora, en escala de grises, donde cada celda o pixel contiene el valor de concentración de NO2.</t>
   </si>
   <si>
-    <t>E-INST</t>
+    <t>Corresponde a la superficie o Modelo Digital de Dispersión de O3 a 8 horas, en escala de grises, donde cada celda o pixel contiene el valor de concentración de O3.</t>
   </si>
   <si>
-    <t>Instrumentación Sistema</t>
+    <t>Corresponde a la superficie o Modelo Digital de Dispersión de O3 a 1 hora, en escala de grises, donde cada celda o pixel contiene el valor de concentración de O3.</t>
   </si>
   <si>
-    <t>E-LITE</t>
+    <t>Corresponde a la superficie o Modelo Digital de Dispersión de CO a 8 horas, en escala de grises, donde cada celda o pixel contiene el valor de concentración de CO.</t>
   </si>
   <si>
-    <t>E-LTNG</t>
+    <t>Corresponde a la superficie o Modelo Digital de Dispersión de CO a 1 hora, en escala de grises, donde cada celda o pixel contiene el valor de concentración de CO.</t>
   </si>
   <si>
-    <t>E-POWR</t>
+    <t>Corresponde a la superficie o Modelo Digital de vibraciones producidas por la actividad de las voladuras en mm/sg.</t>
   </si>
   <si>
-    <t>Alimentación</t>
+    <t>Corresponde a la superficie o Modelo Digital de la sobre presión del aire producidas por la actividad de las voladuras en db/L.</t>
   </si>
   <si>
-    <t>S-BEAM</t>
-  </si>
-  <si>
-    <t>S-BRCG</t>
-  </si>
-  <si>
-    <t>S-COLS</t>
-  </si>
-  <si>
-    <t>S-DECK</t>
-  </si>
-  <si>
-    <t>S-DETL</t>
-  </si>
-  <si>
-    <t>S-FNDN</t>
-  </si>
-  <si>
-    <t>S-GATE</t>
-  </si>
-  <si>
-    <t>Puerta</t>
-  </si>
-  <si>
-    <t>S-GRID</t>
-  </si>
-  <si>
-    <t>S-JOIS</t>
-  </si>
-  <si>
-    <t>S-LNTL</t>
-  </si>
-  <si>
-    <t>S-PLAT</t>
-  </si>
-  <si>
-    <t>Plataforma</t>
-  </si>
-  <si>
-    <t>S-SLAB</t>
-  </si>
-  <si>
-    <t>S-STIF</t>
-  </si>
-  <si>
-    <t>S-STRS</t>
-  </si>
-  <si>
-    <t>S-TRUS</t>
-  </si>
-  <si>
-    <t>S-WALL</t>
-  </si>
-  <si>
-    <t>V-BLDG</t>
-  </si>
-  <si>
-    <t>V-BNDY</t>
-  </si>
-  <si>
-    <t>V-BORE</t>
-  </si>
-  <si>
-    <t>V-CTRL</t>
-  </si>
-  <si>
-    <t>V-DRIV</t>
-  </si>
-  <si>
-    <t>V-DTCH</t>
-  </si>
-  <si>
-    <t>Cunetas o arroyos</t>
-  </si>
-  <si>
-    <t>V-ESMT</t>
-  </si>
-  <si>
-    <t>V-NODE</t>
-  </si>
-  <si>
-    <t>V-POWR</t>
-  </si>
-  <si>
-    <t>V-PRKG</t>
-  </si>
-  <si>
-    <t>V-PROP</t>
-  </si>
-  <si>
-    <t>V-RIVR</t>
-  </si>
-  <si>
-    <t>V-ROAD</t>
-  </si>
-  <si>
-    <t>V-RRAP</t>
-  </si>
-  <si>
-    <t>V-SITE</t>
-  </si>
-  <si>
-    <t>V-SSWR</t>
-  </si>
-  <si>
-    <t>V-STRM</t>
-  </si>
-  <si>
-    <t>V-SURV</t>
-  </si>
-  <si>
-    <t>Levantamiento</t>
-  </si>
-  <si>
-    <t>V-SWLK</t>
-  </si>
-  <si>
-    <t>V-TOPO</t>
-  </si>
-  <si>
-    <t>V-UNID</t>
-  </si>
-  <si>
-    <t>V-WATR</t>
+    <t>Ráster</t>
   </si>
 </sst>
 </file>
@@ -5504,9 +5195,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC757EDD-9C70-4ED2-9CDC-202F9E2122A1}">
   <dimension ref="B1:V320"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="R1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T3" sqref="T3:T84"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -5605,24 +5296,24 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:22" ht="30.75" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>105</v>
-      </c>
       <c r="D3" s="4" t="s">
-        <v>106</v>
+        <v>44</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>107</v>
+        <v>45</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>108</v>
+        <v>46</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>109</v>
+        <v>47</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>14</v>
@@ -5636,31 +5327,31 @@
       <c r="O3" s="4"/>
       <c r="P3" s="5" t="str">
         <f>_xlfn.CONCAT("| ",B3," | ",C3," |")</f>
-        <v>| Layer - name | Disciplina |</v>
+        <v>| Tema general o medio | Ráster |</v>
       </c>
       <c r="Q3" s="5" t="str">
         <f>_xlfn.CONCAT("| ",B3," | ",C3," | ",D3," |")</f>
-        <v>| Layer - name | Disciplina | Capa - Descripción |</v>
+        <v>| Tema general o medio | Ráster | Capa - Descripción |</v>
       </c>
       <c r="R3" s="5" t="str">
         <f>_xlfn.CONCAT("| ",B3," | ",C3," | ",D3," | ",E3," |")</f>
-        <v>| Layer - name | Disciplina | Capa - Descripción | CAD Color |</v>
+        <v>| Tema general o medio | Ráster | Capa - Descripción | CAD Color |</v>
       </c>
       <c r="S3" s="5" t="str">
         <f>_xlfn.CONCAT("| ",B3," | ",C3," | ",D3," | ",E3," |",F3," |")</f>
-        <v>| Layer - name | Disciplina | Capa - Descripción | CAD Color |CAD Linetype |</v>
+        <v>| Tema general o medio | Ráster | Capa - Descripción | CAD Color |CAD Linetype |</v>
       </c>
       <c r="T3" s="5" t="str">
         <f>_xlfn.CONCAT("| ",B3," | ",C3," | ",D3," | ",E3," |",F3," |",G3," |")</f>
-        <v>| Layer - name | Disciplina | Capa - Descripción | CAD Color |CAD Linetype |CAD Lineweight |</v>
+        <v>| Tema general o medio | Ráster | Capa - Descripción | CAD Color |CAD Linetype |CAD Lineweight |</v>
       </c>
       <c r="U3" s="5" t="str">
         <f>_xlfn.CONCAT("| ",B3," | ",C3," | ",D3," | ",E3," | ",F3," | ",G3," | ",H3," |")</f>
-        <v>| Layer - name | Disciplina | Capa - Descripción | CAD Color | CAD Linetype | CAD Lineweight | D |</v>
+        <v>| Tema general o medio | Ráster | Capa - Descripción | CAD Color | CAD Linetype | CAD Lineweight | D |</v>
       </c>
       <c r="V3" s="5" t="str">
-        <f t="shared" ref="V3:V14" si="0">_xlfn.CONCAT("| ",B3," | ",C3," | ",D3," | ",E3," |",F3," |",G3," |",H3," |",I3," |",J3," |",K3," |",L3," |",M3," |",N3," |")</f>
-        <v>| Layer - name | Disciplina | Capa - Descripción | CAD Color |CAD Linetype |CAD Lineweight |D | | | | | | |</v>
+        <f t="shared" ref="V3:V28" si="0">_xlfn.CONCAT("| ",B3," | ",C3," | ",D3," | ",E3," |",F3," |",G3," |",H3," |",I3," |",J3," |",K3," |",L3," |",M3," |",N3," |")</f>
+        <v>| Tema general o medio | Ráster | Capa - Descripción | CAD Color |CAD Linetype |CAD Lineweight |D | | | | | | |</v>
       </c>
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.55000000000000004">
@@ -5725,7 +5416,7 @@
         <v>| --- | --- | --- | --- |--- |--- |</v>
       </c>
       <c r="U4" s="5" t="str">
-        <f t="shared" ref="U4:U11" si="2">_xlfn.CONCAT("| ",B4," | ",C4," | ",D4," | ",E4," | ",F4," | ",G4," | ",H4," |")</f>
+        <f t="shared" ref="U4:U28" si="2">_xlfn.CONCAT("| ",B4," | ",C4," | ",D4," | ",E4," | ",F4," | ",G4," | ",H4," |")</f>
         <v>| --- | --- | --- | --- | --- | --- | --- |</v>
       </c>
       <c r="V4" s="5" t="str">
@@ -5733,24 +5424,24 @@
         <v>| --- | --- | --- | --- |--- |--- |--- |--- |--- |--- |--- |--- |--- |</v>
       </c>
     </row>
-    <row r="5" spans="2:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:22" ht="76.900000000000006" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="5" t="s">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>111</v>
+        <v>48</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="G5" s="5">
-        <v>0.05</v>
+        <v>48</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
@@ -5762,51 +5453,51 @@
       <c r="O5" s="5"/>
       <c r="P5" s="5" t="str">
         <f>_xlfn.CONCAT("| ",B5," | ",C5," |")</f>
-        <v>| A-AREA | Arquitectura |</v>
+        <v>| Imagen de Satélite Regional | Corresponde al mosaico de imágenes de satélite con resolucion espacial mayor o igual a 10 metros, ortocorregido y/o georeferenciado, modo pancromático, multiespectral o hiperespectral. |</v>
       </c>
       <c r="Q5" s="5" t="str">
         <f t="shared" ref="Q5:Q68" si="3">_xlfn.CONCAT("| ",B5," | ",C5," | ",D5," |")</f>
-        <v>| A-AREA | Arquitectura | Área |</v>
+        <v>| Imagen de Satélite Regional | Corresponde al mosaico de imágenes de satélite con resolucion espacial mayor o igual a 10 metros, ortocorregido y/o georeferenciado, modo pancromático, multiespectral o hiperespectral. | a |</v>
       </c>
       <c r="R5" s="5" t="str">
         <f>_xlfn.CONCAT("| ",B5," | ",C5," | ",D5," | ",E5," |")</f>
-        <v>| A-AREA | Arquitectura | Área | white |</v>
+        <v>| Imagen de Satélite Regional | Corresponde al mosaico de imágenes de satélite con resolucion espacial mayor o igual a 10 metros, ortocorregido y/o georeferenciado, modo pancromático, multiespectral o hiperespectral. | a | a |</v>
       </c>
       <c r="S5" s="5" t="str">
         <f>_xlfn.CONCAT("| ",B5," | ",C5," | ",D5," | ",E5," |",F5," |")</f>
-        <v>| A-AREA | Arquitectura | Área | white |Continuous |</v>
+        <v>| Imagen de Satélite Regional | Corresponde al mosaico de imágenes de satélite con resolucion espacial mayor o igual a 10 metros, ortocorregido y/o georeferenciado, modo pancromático, multiespectral o hiperespectral. | a | a |a |</v>
       </c>
       <c r="T5" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| A-AREA | Arquitectura | Área | white |Continuous |0.05 |</v>
+        <v>| Imagen de Satélite Regional | Corresponde al mosaico de imágenes de satélite con resolucion espacial mayor o igual a 10 metros, ortocorregido y/o georeferenciado, modo pancromático, multiespectral o hiperespectral. | a | a |a |a |</v>
       </c>
       <c r="U5" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>| A-AREA | Arquitectura | Área | white | Continuous | 0.05 |  |</v>
+        <v>| Imagen de Satélite Regional | Corresponde al mosaico de imágenes de satélite con resolucion espacial mayor o igual a 10 metros, ortocorregido y/o georeferenciado, modo pancromático, multiespectral o hiperespectral. | a | a | a | a |  |</v>
       </c>
       <c r="V5" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| A-AREA | Arquitectura | Área | white |Continuous |0.05 | | | | | | | |</v>
-      </c>
-    </row>
-    <row r="6" spans="2:22" ht="30.75" x14ac:dyDescent="0.55000000000000004">
+        <v>| Imagen de Satélite Regional | Corresponde al mosaico de imágenes de satélite con resolucion espacial mayor o igual a 10 metros, ortocorregido y/o georeferenciado, modo pancromático, multiespectral o hiperespectral. | a | a |a |a | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="6" spans="2:22" ht="76.900000000000006" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="5" t="s">
-        <v>113</v>
+        <v>51</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E6" s="5">
-        <v>226</v>
+        <v>48</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="G6" s="5">
-        <v>0.25</v>
+        <v>48</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
@@ -5817,52 +5508,52 @@
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="5" t="str">
-        <f t="shared" ref="P6:P14" si="4">_xlfn.CONCAT("| ",B6," | ",C6," |")</f>
-        <v>| A-CLNG | Arquitectura |</v>
+        <f t="shared" ref="P6:P69" si="4">_xlfn.CONCAT("| ",B6," | ",C6," |")</f>
+        <v>| Imagen de Satélite Alta Resolución | Corresponde al mosaico de imágenes de satélite con resolucion espacial menor a 10 metros, ortocorregido y/o georeferenciado, modo pancromático, multiespectral o hiperespectral. |</v>
       </c>
       <c r="Q6" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>| A-CLNG | Arquitectura | Techo |</v>
+        <v>| Imagen de Satélite Alta Resolución | Corresponde al mosaico de imágenes de satélite con resolucion espacial menor a 10 metros, ortocorregido y/o georeferenciado, modo pancromático, multiespectral o hiperespectral. | a |</v>
       </c>
       <c r="R6" s="5" t="str">
         <f t="shared" ref="R6:R69" si="5">_xlfn.CONCAT("| ",B6," | ",C6," | ",D6," | ",E6," |")</f>
-        <v>| A-CLNG | Arquitectura | Techo | 226 |</v>
+        <v>| Imagen de Satélite Alta Resolución | Corresponde al mosaico de imágenes de satélite con resolucion espacial menor a 10 metros, ortocorregido y/o georeferenciado, modo pancromático, multiespectral o hiperespectral. | a | a |</v>
       </c>
       <c r="S6" s="5" t="str">
         <f t="shared" ref="S6:S69" si="6">_xlfn.CONCAT("| ",B6," | ",C6," | ",D6," | ",E6," |",F6," |")</f>
-        <v>| A-CLNG | Arquitectura | Techo | 226 |Continuous |</v>
+        <v>| Imagen de Satélite Alta Resolución | Corresponde al mosaico de imágenes de satélite con resolucion espacial menor a 10 metros, ortocorregido y/o georeferenciado, modo pancromático, multiespectral o hiperespectral. | a | a |a |</v>
       </c>
       <c r="T6" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| A-CLNG | Arquitectura | Techo | 226 |Continuous |0.25 |</v>
+        <v>| Imagen de Satélite Alta Resolución | Corresponde al mosaico de imágenes de satélite con resolucion espacial menor a 10 metros, ortocorregido y/o georeferenciado, modo pancromático, multiespectral o hiperespectral. | a | a |a |a |</v>
       </c>
       <c r="U6" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>| A-CLNG | Arquitectura | Techo | 226 | Continuous | 0.25 |  |</v>
+        <v>| Imagen de Satélite Alta Resolución | Corresponde al mosaico de imágenes de satélite con resolucion espacial menor a 10 metros, ortocorregido y/o georeferenciado, modo pancromático, multiespectral o hiperespectral. | a | a | a | a |  |</v>
       </c>
       <c r="V6" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| A-CLNG | Arquitectura | Techo | 226 |Continuous |0.25 | | | | | | | |</v>
-      </c>
-    </row>
-    <row r="7" spans="2:22" ht="30.75" x14ac:dyDescent="0.55000000000000004">
+        <v>| Imagen de Satélite Alta Resolución | Corresponde al mosaico de imágenes de satélite con resolucion espacial menor a 10 metros, ortocorregido y/o georeferenciado, modo pancromático, multiespectral o hiperespectral. | a | a |a |a | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="7" spans="2:22" ht="46.15" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="5" t="s">
-        <v>114</v>
+        <v>52</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>115</v>
+        <v>48</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="G7" s="5">
-        <v>0.5</v>
+        <v>48</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
@@ -5874,51 +5565,51 @@
       <c r="O7" s="5"/>
       <c r="P7" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>| A-COLS | Arquitectura |</v>
+        <v>| Ortofotografía Aérea | Corresponde al mosaico de fotografías aéreas ortocorregido y/o georeferenciado, modo pancromático o multiespectral. |</v>
       </c>
       <c r="Q7" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>| A-COLS | Arquitectura | Columnas |</v>
+        <v>| Ortofotografía Aérea | Corresponde al mosaico de fotografías aéreas ortocorregido y/o georeferenciado, modo pancromático o multiespectral. | a |</v>
       </c>
       <c r="R7" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>| A-COLS | Arquitectura | Columnas | red |</v>
+        <v>| Ortofotografía Aérea | Corresponde al mosaico de fotografías aéreas ortocorregido y/o georeferenciado, modo pancromático o multiespectral. | a | a |</v>
       </c>
       <c r="S7" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>| A-COLS | Arquitectura | Columnas | red |Continuous |</v>
+        <v>| Ortofotografía Aérea | Corresponde al mosaico de fotografías aéreas ortocorregido y/o georeferenciado, modo pancromático o multiespectral. | a | a |a |</v>
       </c>
       <c r="T7" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| A-COLS | Arquitectura | Columnas | red |Continuous |0.5 |</v>
+        <v>| Ortofotografía Aérea | Corresponde al mosaico de fotografías aéreas ortocorregido y/o georeferenciado, modo pancromático o multiespectral. | a | a |a |a |</v>
       </c>
       <c r="U7" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>| A-COLS | Arquitectura | Columnas | red | Continuous | 0.5 |  |</v>
+        <v>| Ortofotografía Aérea | Corresponde al mosaico de fotografías aéreas ortocorregido y/o georeferenciado, modo pancromático o multiespectral. | a | a | a | a |  |</v>
       </c>
       <c r="V7" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| A-COLS | Arquitectura | Columnas | red |Continuous |0.5 | | | | | | | |</v>
-      </c>
-    </row>
-    <row r="8" spans="2:22" ht="30.75" x14ac:dyDescent="0.55000000000000004">
+        <v>| Ortofotografía Aérea | Corresponde al mosaico de fotografías aéreas ortocorregido y/o georeferenciado, modo pancromático o multiespectral. | a | a |a |a | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="8" spans="2:22" ht="46.15" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="5" t="s">
-        <v>116</v>
+        <v>53</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E8" s="5">
-        <v>251</v>
+        <v>48</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="G8" s="5">
-        <v>0.18</v>
+        <v>48</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
@@ -5930,51 +5621,51 @@
       <c r="O8" s="5"/>
       <c r="P8" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>| A-DOOR | Arquitectura |</v>
+        <v>| Modelo Digital del Terreno DTM | Corresponde al DTM en escala de grises, donde cada celda o pixel contiene el valor de elevación en metros sobre el nivel del mar. |</v>
       </c>
       <c r="Q8" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>| A-DOOR | Arquitectura | Puertas |</v>
+        <v>| Modelo Digital del Terreno DTM | Corresponde al DTM en escala de grises, donde cada celda o pixel contiene el valor de elevación en metros sobre el nivel del mar. | a |</v>
       </c>
       <c r="R8" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>| A-DOOR | Arquitectura | Puertas | 251 |</v>
+        <v>| Modelo Digital del Terreno DTM | Corresponde al DTM en escala de grises, donde cada celda o pixel contiene el valor de elevación en metros sobre el nivel del mar. | a | a |</v>
       </c>
       <c r="S8" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>| A-DOOR | Arquitectura | Puertas | 251 |Continuous |</v>
+        <v>| Modelo Digital del Terreno DTM | Corresponde al DTM en escala de grises, donde cada celda o pixel contiene el valor de elevación en metros sobre el nivel del mar. | a | a |a |</v>
       </c>
       <c r="T8" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| A-DOOR | Arquitectura | Puertas | 251 |Continuous |0.18 |</v>
+        <v>| Modelo Digital del Terreno DTM | Corresponde al DTM en escala de grises, donde cada celda o pixel contiene el valor de elevación en metros sobre el nivel del mar. | a | a |a |a |</v>
       </c>
       <c r="U8" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>| A-DOOR | Arquitectura | Puertas | 251 | Continuous | 0.18 |  |</v>
+        <v>| Modelo Digital del Terreno DTM | Corresponde al DTM en escala de grises, donde cada celda o pixel contiene el valor de elevación en metros sobre el nivel del mar. | a | a | a | a |  |</v>
       </c>
       <c r="V8" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| A-DOOR | Arquitectura | Puertas | 251 |Continuous |0.18 | | | | | | | |</v>
-      </c>
-    </row>
-    <row r="9" spans="2:22" ht="30.75" x14ac:dyDescent="0.55000000000000004">
+        <v>| Modelo Digital del Terreno DTM | Corresponde al DTM en escala de grises, donde cada celda o pixel contiene el valor de elevación en metros sobre el nivel del mar. | a | a |a |a | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="9" spans="2:22" ht="76.900000000000006" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="5" t="s">
-        <v>117</v>
+        <v>54</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E9" s="5">
-        <v>46</v>
+        <v>48</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="G9" s="5">
-        <v>0.18</v>
+        <v>48</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
@@ -5986,51 +5677,51 @@
       <c r="O9" s="5"/>
       <c r="P9" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>| A-EQPM | Arquitectura |</v>
+        <v>| Modelo Digital de Superficie DSM | Corresponde al Modelo Digital de Superficie (incluye elementos de la cobertura terrestre como por ejemplo cobertura vegetal, edificaciones, etc), en escala de grises, donde cada celda o pixel contiene el valor de elevación en metros sobre el nivel del mar. |</v>
       </c>
       <c r="Q9" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>| A-EQPM | Arquitectura | Equipo |</v>
+        <v>| Modelo Digital de Superficie DSM | Corresponde al Modelo Digital de Superficie (incluye elementos de la cobertura terrestre como por ejemplo cobertura vegetal, edificaciones, etc), en escala de grises, donde cada celda o pixel contiene el valor de elevación en metros sobre el nivel del mar. | a |</v>
       </c>
       <c r="R9" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>| A-EQPM | Arquitectura | Equipo | 46 |</v>
+        <v>| Modelo Digital de Superficie DSM | Corresponde al Modelo Digital de Superficie (incluye elementos de la cobertura terrestre como por ejemplo cobertura vegetal, edificaciones, etc), en escala de grises, donde cada celda o pixel contiene el valor de elevación en metros sobre el nivel del mar. | a | a |</v>
       </c>
       <c r="S9" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>| A-EQPM | Arquitectura | Equipo | 46 |Continuous |</v>
+        <v>| Modelo Digital de Superficie DSM | Corresponde al Modelo Digital de Superficie (incluye elementos de la cobertura terrestre como por ejemplo cobertura vegetal, edificaciones, etc), en escala de grises, donde cada celda o pixel contiene el valor de elevación en metros sobre el nivel del mar. | a | a |a |</v>
       </c>
       <c r="T9" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| A-EQPM | Arquitectura | Equipo | 46 |Continuous |0.18 |</v>
+        <v>| Modelo Digital de Superficie DSM | Corresponde al Modelo Digital de Superficie (incluye elementos de la cobertura terrestre como por ejemplo cobertura vegetal, edificaciones, etc), en escala de grises, donde cada celda o pixel contiene el valor de elevación en metros sobre el nivel del mar. | a | a |a |a |</v>
       </c>
       <c r="U9" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>| A-EQPM | Arquitectura | Equipo | 46 | Continuous | 0.18 |  |</v>
+        <v>| Modelo Digital de Superficie DSM | Corresponde al Modelo Digital de Superficie (incluye elementos de la cobertura terrestre como por ejemplo cobertura vegetal, edificaciones, etc), en escala de grises, donde cada celda o pixel contiene el valor de elevación en metros sobre el nivel del mar. | a | a | a | a |  |</v>
       </c>
       <c r="V9" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| A-EQPM | Arquitectura | Equipo | 46 |Continuous |0.18 | | | | | | | |</v>
+        <v>| Modelo Digital de Superficie DSM | Corresponde al Modelo Digital de Superficie (incluye elementos de la cobertura terrestre como por ejemplo cobertura vegetal, edificaciones, etc), en escala de grises, donde cada celda o pixel contiene el valor de elevación en metros sobre el nivel del mar. | a | a |a |a | | | | | | | |</v>
       </c>
     </row>
     <row r="10" spans="2:22" ht="46.15" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="5" t="s">
-        <v>118</v>
+        <v>55</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E10" s="5">
-        <v>252</v>
+        <v>48</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="G10" s="5">
-        <v>0.35</v>
+        <v>48</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
@@ -6042,51 +5733,51 @@
       <c r="O10" s="5"/>
       <c r="P10" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>| A-FLOR | Arquitectura |</v>
+        <v>| Modelo Digital de Pendientes | Corresponde a la superficie o Modelo Digital de Pendientes, en escala de grises, donde cada celda o pixel contiene el valor de pendiente en porcentaje. |</v>
       </c>
       <c r="Q10" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>| A-FLOR | Arquitectura | Piso |</v>
+        <v>| Modelo Digital de Pendientes | Corresponde a la superficie o Modelo Digital de Pendientes, en escala de grises, donde cada celda o pixel contiene el valor de pendiente en porcentaje. | a |</v>
       </c>
       <c r="R10" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>| A-FLOR | Arquitectura | Piso | 252 |</v>
+        <v>| Modelo Digital de Pendientes | Corresponde a la superficie o Modelo Digital de Pendientes, en escala de grises, donde cada celda o pixel contiene el valor de pendiente en porcentaje. | a | a |</v>
       </c>
       <c r="S10" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>| A-FLOR | Arquitectura | Piso | 252 |Continuous |</v>
+        <v>| Modelo Digital de Pendientes | Corresponde a la superficie o Modelo Digital de Pendientes, en escala de grises, donde cada celda o pixel contiene el valor de pendiente en porcentaje. | a | a |a |</v>
       </c>
       <c r="T10" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| A-FLOR | Arquitectura | Piso | 252 |Continuous |0.35 |</v>
+        <v>| Modelo Digital de Pendientes | Corresponde a la superficie o Modelo Digital de Pendientes, en escala de grises, donde cada celda o pixel contiene el valor de pendiente en porcentaje. | a | a |a |a |</v>
       </c>
       <c r="U10" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>| A-FLOR | Arquitectura | Piso | 252 | Continuous | 0.35 |  |</v>
+        <v>| Modelo Digital de Pendientes | Corresponde a la superficie o Modelo Digital de Pendientes, en escala de grises, donde cada celda o pixel contiene el valor de pendiente en porcentaje. | a | a | a | a |  |</v>
       </c>
       <c r="V10" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| A-FLOR | Arquitectura | Piso | 252 |Continuous |0.35 | | | | | | | |</v>
-      </c>
-    </row>
-    <row r="11" spans="2:22" ht="30.75" x14ac:dyDescent="0.55000000000000004">
+        <v>| Modelo Digital de Pendientes | Corresponde a la superficie o Modelo Digital de Pendientes, en escala de grises, donde cada celda o pixel contiene el valor de pendiente en porcentaje. | a | a |a |a | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="11" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="5" t="s">
-        <v>119</v>
+        <v>56</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="E11" s="5">
-        <v>145</v>
+        <v>48</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="G11" s="5">
-        <v>0.18</v>
+        <v>48</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
@@ -6098,51 +5789,51 @@
       <c r="O11" s="5"/>
       <c r="P11" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>| A-FLOR-LEVL | Arquitectura |</v>
+        <v>| Modelo Hidrogeológico | Corresponde al Modelo Hidrogeológico. |</v>
       </c>
       <c r="Q11" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>| A-FLOR-LEVL | Arquitectura | Piso: cambios de nivel (rampas, fosos, depresiones) |</v>
+        <v>| Modelo Hidrogeológico | Corresponde al Modelo Hidrogeológico. | a |</v>
       </c>
       <c r="R11" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>| A-FLOR-LEVL | Arquitectura | Piso: cambios de nivel (rampas, fosos, depresiones) | 145 |</v>
+        <v>| Modelo Hidrogeológico | Corresponde al Modelo Hidrogeológico. | a | a |</v>
       </c>
       <c r="S11" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>| A-FLOR-LEVL | Arquitectura | Piso: cambios de nivel (rampas, fosos, depresiones) | 145 |Continuous |</v>
+        <v>| Modelo Hidrogeológico | Corresponde al Modelo Hidrogeológico. | a | a |a |</v>
       </c>
       <c r="T11" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| A-FLOR-LEVL | Arquitectura | Piso: cambios de nivel (rampas, fosos, depresiones) | 145 |Continuous |0.18 |</v>
+        <v>| Modelo Hidrogeológico | Corresponde al Modelo Hidrogeológico. | a | a |a |a |</v>
       </c>
       <c r="U11" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>| A-FLOR-LEVL | Arquitectura | Piso: cambios de nivel (rampas, fosos, depresiones) | 145 | Continuous | 0.18 |  |</v>
+        <v>| Modelo Hidrogeológico | Corresponde al Modelo Hidrogeológico. | a | a | a | a |  |</v>
       </c>
       <c r="V11" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| A-FLOR-LEVL | Arquitectura | Piso: cambios de nivel (rampas, fosos, depresiones) | 145 |Continuous |0.18 | | | | | | | |</v>
-      </c>
-    </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.55000000000000004">
+        <v>| Modelo Hidrogeológico | Corresponde al Modelo Hidrogeológico. | a | a |a |a | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="12" spans="2:22" ht="61.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="5" t="s">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E12" s="5">
-        <v>46</v>
+        <v>48</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="G12" s="5">
-        <v>0.18</v>
+        <v>48</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
@@ -6154,48 +5845,51 @@
       <c r="O12" s="5"/>
       <c r="P12" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>| A-FURN | Arquitectura |</v>
+        <v>| Modelo Digital de Precipitación | Corresponde a la superficie o Modelo Digital de Precipitación, en escala de grises, donde cada celda o pixel contiene el valor de precipitación media multianual en mm/año. |</v>
       </c>
       <c r="Q12" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>| A-FURN | Arquitectura | Mobiliario |</v>
+        <v>| Modelo Digital de Precipitación | Corresponde a la superficie o Modelo Digital de Precipitación, en escala de grises, donde cada celda o pixel contiene el valor de precipitación media multianual en mm/año. | a |</v>
       </c>
       <c r="R12" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>| A-FURN | Arquitectura | Mobiliario | 46 |</v>
+        <v>| Modelo Digital de Precipitación | Corresponde a la superficie o Modelo Digital de Precipitación, en escala de grises, donde cada celda o pixel contiene el valor de precipitación media multianual en mm/año. | a | a |</v>
       </c>
       <c r="S12" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>| A-FURN | Arquitectura | Mobiliario | 46 |Continuous |</v>
+        <v>| Modelo Digital de Precipitación | Corresponde a la superficie o Modelo Digital de Precipitación, en escala de grises, donde cada celda o pixel contiene el valor de precipitación media multianual en mm/año. | a | a |a |</v>
       </c>
       <c r="T12" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| A-FURN | Arquitectura | Mobiliario | 46 |Continuous |0.18 |</v>
-      </c>
-      <c r="U12" s="5"/>
+        <v>| Modelo Digital de Precipitación | Corresponde a la superficie o Modelo Digital de Precipitación, en escala de grises, donde cada celda o pixel contiene el valor de precipitación media multianual en mm/año. | a | a |a |a |</v>
+      </c>
+      <c r="U12" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>| Modelo Digital de Precipitación | Corresponde a la superficie o Modelo Digital de Precipitación, en escala de grises, donde cada celda o pixel contiene el valor de precipitación media multianual en mm/año. | a | a | a | a |  |</v>
+      </c>
       <c r="V12" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| A-FURN | Arquitectura | Mobiliario | 46 |Continuous |0.18 | | | | | | | |</v>
-      </c>
-    </row>
-    <row r="13" spans="2:22" ht="30.75" x14ac:dyDescent="0.55000000000000004">
+        <v>| Modelo Digital de Precipitación | Corresponde a la superficie o Modelo Digital de Precipitación, en escala de grises, donde cada celda o pixel contiene el valor de precipitación media multianual en mm/año. | a | a |a |a | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="13" spans="2:22" ht="61.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="5" t="s">
-        <v>121</v>
+        <v>58</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>122</v>
+        <v>48</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>123</v>
+        <v>48</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="G13" s="5">
-        <v>0.18</v>
+        <v>48</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
@@ -6207,48 +5901,51 @@
       <c r="O13" s="5"/>
       <c r="P13" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>| A-GLAZ | Arquitectura |</v>
+        <v>| Modelo Digital de Temperatura | Corresponde a la superficie o Modelo Digital de Temperatura, en escala de grises, donde cada celda o pixel contiene el valor de temperatura media multianual en °C/año. |</v>
       </c>
       <c r="Q13" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>| A-GLAZ | Arquitectura | Acristalamiento (muros transparentes y ventanas) |</v>
+        <v>| Modelo Digital de Temperatura | Corresponde a la superficie o Modelo Digital de Temperatura, en escala de grises, donde cada celda o pixel contiene el valor de temperatura media multianual en °C/año. | a |</v>
       </c>
       <c r="R13" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>| A-GLAZ | Arquitectura | Acristalamiento (muros transparentes y ventanas) | yellow |</v>
+        <v>| Modelo Digital de Temperatura | Corresponde a la superficie o Modelo Digital de Temperatura, en escala de grises, donde cada celda o pixel contiene el valor de temperatura media multianual en °C/año. | a | a |</v>
       </c>
       <c r="S13" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>| A-GLAZ | Arquitectura | Acristalamiento (muros transparentes y ventanas) | yellow |Continuous |</v>
+        <v>| Modelo Digital de Temperatura | Corresponde a la superficie o Modelo Digital de Temperatura, en escala de grises, donde cada celda o pixel contiene el valor de temperatura media multianual en °C/año. | a | a |a |</v>
       </c>
       <c r="T13" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| A-GLAZ | Arquitectura | Acristalamiento (muros transparentes y ventanas) | yellow |Continuous |0.18 |</v>
-      </c>
-      <c r="U13" s="5"/>
+        <v>| Modelo Digital de Temperatura | Corresponde a la superficie o Modelo Digital de Temperatura, en escala de grises, donde cada celda o pixel contiene el valor de temperatura media multianual en °C/año. | a | a |a |a |</v>
+      </c>
+      <c r="U13" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>| Modelo Digital de Temperatura | Corresponde a la superficie o Modelo Digital de Temperatura, en escala de grises, donde cada celda o pixel contiene el valor de temperatura media multianual en °C/año. | a | a | a | a |  |</v>
+      </c>
       <c r="V13" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| A-GLAZ | Arquitectura | Acristalamiento (muros transparentes y ventanas) | yellow |Continuous |0.18 | | | | | | | |</v>
-      </c>
-    </row>
-    <row r="14" spans="2:22" x14ac:dyDescent="0.55000000000000004">
+        <v>| Modelo Digital de Temperatura | Corresponde a la superficie o Modelo Digital de Temperatura, en escala de grises, donde cada celda o pixel contiene el valor de temperatura media multianual en °C/año. | a | a |a |a | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="14" spans="2:22" ht="61.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="5" t="s">
-        <v>124</v>
+        <v>59</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="E14" s="5">
-        <v>226</v>
+        <v>48</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="G14" s="5">
-        <v>0.53</v>
+        <v>48</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
@@ -6260,48 +5957,51 @@
       <c r="O14" s="5"/>
       <c r="P14" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>| A-ROOF | Arquitectura |</v>
+        <v>| Modelo de Dispersión de PST Diario | Corresponde a la superficie o Modelo Digital de Dispersión de PST diario, en escala de grises, donde cada celda o pixel contiene el valor de concentración de PST. |</v>
       </c>
       <c r="Q14" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>| A-ROOF | Arquitectura | Tejado |</v>
+        <v>| Modelo de Dispersión de PST Diario | Corresponde a la superficie o Modelo Digital de Dispersión de PST diario, en escala de grises, donde cada celda o pixel contiene el valor de concentración de PST. | a |</v>
       </c>
       <c r="R14" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>| A-ROOF | Arquitectura | Tejado | 226 |</v>
+        <v>| Modelo de Dispersión de PST Diario | Corresponde a la superficie o Modelo Digital de Dispersión de PST diario, en escala de grises, donde cada celda o pixel contiene el valor de concentración de PST. | a | a |</v>
       </c>
       <c r="S14" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>| A-ROOF | Arquitectura | Tejado | 226 |Continuous |</v>
+        <v>| Modelo de Dispersión de PST Diario | Corresponde a la superficie o Modelo Digital de Dispersión de PST diario, en escala de grises, donde cada celda o pixel contiene el valor de concentración de PST. | a | a |a |</v>
       </c>
       <c r="T14" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| A-ROOF | Arquitectura | Tejado | 226 |Continuous |0.53 |</v>
-      </c>
-      <c r="U14" s="5"/>
+        <v>| Modelo de Dispersión de PST Diario | Corresponde a la superficie o Modelo Digital de Dispersión de PST diario, en escala de grises, donde cada celda o pixel contiene el valor de concentración de PST. | a | a |a |a |</v>
+      </c>
+      <c r="U14" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>| Modelo de Dispersión de PST Diario | Corresponde a la superficie o Modelo Digital de Dispersión de PST diario, en escala de grises, donde cada celda o pixel contiene el valor de concentración de PST. | a | a | a | a |  |</v>
+      </c>
       <c r="V14" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| A-ROOF | Arquitectura | Tejado | 226 |Continuous |0.53 | | | | | | | |</v>
-      </c>
-    </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.55000000000000004">
+        <v>| Modelo de Dispersión de PST Diario | Corresponde a la superficie o Modelo Digital de Dispersión de PST diario, en escala de grises, donde cada celda o pixel contiene el valor de concentración de PST. | a | a |a |a | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="15" spans="2:22" ht="61.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="5" t="s">
-        <v>126</v>
+        <v>60</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>100</v>
+        <v>48</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>111</v>
+        <v>48</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="G15" s="5">
-        <v>0.6</v>
+        <v>48</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
@@ -6311,33 +6011,54 @@
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
+      <c r="P15" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>| Modelo de Dispersión de PST Anual | Corresponde a la superficie o Modelo Digital de Dispersión de PST anual, en escala de grises, donde cada celda o pixel contiene el valor de concentración de PST. |</v>
+      </c>
       <c r="Q15" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>| A-WALL | Arquitectura | Paredes |</v>
-      </c>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
+        <v>| Modelo de Dispersión de PST Anual | Corresponde a la superficie o Modelo Digital de Dispersión de PST anual, en escala de grises, donde cada celda o pixel contiene el valor de concentración de PST. | a |</v>
+      </c>
+      <c r="R15" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>| Modelo de Dispersión de PST Anual | Corresponde a la superficie o Modelo Digital de Dispersión de PST anual, en escala de grises, donde cada celda o pixel contiene el valor de concentración de PST. | a | a |</v>
+      </c>
+      <c r="S15" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>| Modelo de Dispersión de PST Anual | Corresponde a la superficie o Modelo Digital de Dispersión de PST anual, en escala de grises, donde cada celda o pixel contiene el valor de concentración de PST. | a | a |a |</v>
+      </c>
       <c r="T15" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| A-WALL | Arquitectura | Paredes | white |Continuous |0.6 |</v>
-      </c>
-      <c r="U15" s="5"/>
-      <c r="V15" s="5"/>
-    </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.55000000000000004">
+        <v>| Modelo de Dispersión de PST Anual | Corresponde a la superficie o Modelo Digital de Dispersión de PST anual, en escala de grises, donde cada celda o pixel contiene el valor de concentración de PST. | a | a |a |a |</v>
+      </c>
+      <c r="U15" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>| Modelo de Dispersión de PST Anual | Corresponde a la superficie o Modelo Digital de Dispersión de PST anual, en escala de grises, donde cada celda o pixel contiene el valor de concentración de PST. | a | a | a | a |  |</v>
+      </c>
+      <c r="V15" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>| Modelo de Dispersión de PST Anual | Corresponde a la superficie o Modelo Digital de Dispersión de PST anual, en escala de grises, donde cada celda o pixel contiene el valor de concentración de PST. | a | a |a |a | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="16" spans="2:22" ht="61.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="5" t="s">
-        <v>127</v>
+        <v>61</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
+        <v>48</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
@@ -6346,33 +6067,54 @@
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
+      <c r="P16" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>| Modelo de Dispersión de PM10 Diario | Corresponde a la superficie o Modelo Digital de Dispersión de PM10 diario, en escala de grises, donde cada celda o pixel contiene el valor de concentración de PM10. |</v>
+      </c>
       <c r="Q16" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>| C-BLDG | Civil | Edificios y estructuras principales |</v>
-      </c>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
+        <v>| Modelo de Dispersión de PM10 Diario | Corresponde a la superficie o Modelo Digital de Dispersión de PM10 diario, en escala de grises, donde cada celda o pixel contiene el valor de concentración de PM10. | a |</v>
+      </c>
+      <c r="R16" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>| Modelo de Dispersión de PM10 Diario | Corresponde a la superficie o Modelo Digital de Dispersión de PM10 diario, en escala de grises, donde cada celda o pixel contiene el valor de concentración de PM10. | a | a |</v>
+      </c>
+      <c r="S16" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>| Modelo de Dispersión de PM10 Diario | Corresponde a la superficie o Modelo Digital de Dispersión de PM10 diario, en escala de grises, donde cada celda o pixel contiene el valor de concentración de PM10. | a | a |a |</v>
+      </c>
       <c r="T16" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| C-BLDG | Civil | Edificios y estructuras principales |  | | |</v>
-      </c>
-      <c r="U16" s="5"/>
-      <c r="V16" s="5"/>
-    </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.55000000000000004">
+        <v>| Modelo de Dispersión de PM10 Diario | Corresponde a la superficie o Modelo Digital de Dispersión de PM10 diario, en escala de grises, donde cada celda o pixel contiene el valor de concentración de PM10. | a | a |a |a |</v>
+      </c>
+      <c r="U16" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>| Modelo de Dispersión de PM10 Diario | Corresponde a la superficie o Modelo Digital de Dispersión de PM10 diario, en escala de grises, donde cada celda o pixel contiene el valor de concentración de PM10. | a | a | a | a |  |</v>
+      </c>
+      <c r="V16" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>| Modelo de Dispersión de PM10 Diario | Corresponde a la superficie o Modelo Digital de Dispersión de PM10 diario, en escala de grises, donde cada celda o pixel contiene el valor de concentración de PM10. | a | a |a |a | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="17" spans="2:22" ht="61.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="5" t="s">
-        <v>128</v>
+        <v>62</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
+        <v>48</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
@@ -6381,38 +6123,53 @@
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
+      <c r="P17" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>| Modelo de Dispersión de PM10 Anual | Corresponde a la superficie o Modelo Digital de Dispersión de PM10 anual, en escala de grises, donde cada celda o pixel contiene el valor de concentración de PM10. |</v>
+      </c>
       <c r="Q17" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>| C-CTRL | Civil | Puntos de control |</v>
-      </c>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
+        <v>| Modelo de Dispersión de PM10 Anual | Corresponde a la superficie o Modelo Digital de Dispersión de PM10 anual, en escala de grises, donde cada celda o pixel contiene el valor de concentración de PM10. | a |</v>
+      </c>
+      <c r="R17" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>| Modelo de Dispersión de PM10 Anual | Corresponde a la superficie o Modelo Digital de Dispersión de PM10 anual, en escala de grises, donde cada celda o pixel contiene el valor de concentración de PM10. | a | a |</v>
+      </c>
+      <c r="S17" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>| Modelo de Dispersión de PM10 Anual | Corresponde a la superficie o Modelo Digital de Dispersión de PM10 anual, en escala de grises, donde cada celda o pixel contiene el valor de concentración de PM10. | a | a |a |</v>
+      </c>
       <c r="T17" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| C-CTRL | Civil | Puntos de control |  | | |</v>
-      </c>
-      <c r="U17" s="5"/>
-      <c r="V17" s="5"/>
-    </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.55000000000000004">
+        <v>| Modelo de Dispersión de PM10 Anual | Corresponde a la superficie o Modelo Digital de Dispersión de PM10 anual, en escala de grises, donde cada celda o pixel contiene el valor de concentración de PM10. | a | a |a |a |</v>
+      </c>
+      <c r="U17" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>| Modelo de Dispersión de PM10 Anual | Corresponde a la superficie o Modelo Digital de Dispersión de PM10 anual, en escala de grises, donde cada celda o pixel contiene el valor de concentración de PM10. | a | a | a | a |  |</v>
+      </c>
+      <c r="V17" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>| Modelo de Dispersión de PM10 Anual | Corresponde a la superficie o Modelo Digital de Dispersión de PM10 anual, en escala de grises, donde cada celda o pixel contiene el valor de concentración de PM10. | a | a |a |a | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="18" spans="2:22" ht="61.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="5" t="s">
-        <v>129</v>
+        <v>63</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>102</v>
+        <v>48</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>130</v>
+        <v>48</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="G18" s="5">
-        <v>0.4</v>
+        <v>48</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
@@ -6422,33 +6179,54 @@
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
+      <c r="P18" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>| Modelo de Dispersión de PM2.5 Diario | Corresponde a la superficie o Modelo Digital de Dispersión de PM2.5 diario, en escala de grises, donde cada celda o pixel contiene el valor de concentración de PM2.5. |</v>
+      </c>
       <c r="Q18" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>| C-DRIV | Civil | Accesos vehiculares |</v>
-      </c>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
+        <v>| Modelo de Dispersión de PM2.5 Diario | Corresponde a la superficie o Modelo Digital de Dispersión de PM2.5 diario, en escala de grises, donde cada celda o pixel contiene el valor de concentración de PM2.5. | a |</v>
+      </c>
+      <c r="R18" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>| Modelo de Dispersión de PM2.5 Diario | Corresponde a la superficie o Modelo Digital de Dispersión de PM2.5 diario, en escala de grises, donde cada celda o pixel contiene el valor de concentración de PM2.5. | a | a |</v>
+      </c>
+      <c r="S18" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>| Modelo de Dispersión de PM2.5 Diario | Corresponde a la superficie o Modelo Digital de Dispersión de PM2.5 diario, en escala de grises, donde cada celda o pixel contiene el valor de concentración de PM2.5. | a | a |a |</v>
+      </c>
       <c r="T18" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| C-DRIV | Civil | Accesos vehiculares | cyan |Continuous |0.4 |</v>
-      </c>
-      <c r="U18" s="5"/>
-      <c r="V18" s="5"/>
-    </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.55000000000000004">
+        <v>| Modelo de Dispersión de PM2.5 Diario | Corresponde a la superficie o Modelo Digital de Dispersión de PM2.5 diario, en escala de grises, donde cada celda o pixel contiene el valor de concentración de PM2.5. | a | a |a |a |</v>
+      </c>
+      <c r="U18" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>| Modelo de Dispersión de PM2.5 Diario | Corresponde a la superficie o Modelo Digital de Dispersión de PM2.5 diario, en escala de grises, donde cada celda o pixel contiene el valor de concentración de PM2.5. | a | a | a | a |  |</v>
+      </c>
+      <c r="V18" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>| Modelo de Dispersión de PM2.5 Diario | Corresponde a la superficie o Modelo Digital de Dispersión de PM2.5 diario, en escala de grises, donde cada celda o pixel contiene el valor de concentración de PM2.5. | a | a |a |a | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="19" spans="2:22" ht="61.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="5" t="s">
-        <v>131</v>
+        <v>64</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
+        <v>48</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
@@ -6457,33 +6235,54 @@
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
+      <c r="P19" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>| Modelo de Dispersión de PM2.5 Anual | Corresponde a la superficie o Modelo Digital de Dispersión de PM2.5 anual, en escala de grises, donde cada celda o pixel contiene el valor de concentración de PM2.5. |</v>
+      </c>
       <c r="Q19" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>| C-ESMT | Civil | Servidumbres |</v>
-      </c>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
+        <v>| Modelo de Dispersión de PM2.5 Anual | Corresponde a la superficie o Modelo Digital de Dispersión de PM2.5 anual, en escala de grises, donde cada celda o pixel contiene el valor de concentración de PM2.5. | a |</v>
+      </c>
+      <c r="R19" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>| Modelo de Dispersión de PM2.5 Anual | Corresponde a la superficie o Modelo Digital de Dispersión de PM2.5 anual, en escala de grises, donde cada celda o pixel contiene el valor de concentración de PM2.5. | a | a |</v>
+      </c>
+      <c r="S19" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>| Modelo de Dispersión de PM2.5 Anual | Corresponde a la superficie o Modelo Digital de Dispersión de PM2.5 anual, en escala de grises, donde cada celda o pixel contiene el valor de concentración de PM2.5. | a | a |a |</v>
+      </c>
       <c r="T19" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| C-ESMT | Civil | Servidumbres |  | | |</v>
-      </c>
-      <c r="U19" s="5"/>
-      <c r="V19" s="5"/>
-    </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.55000000000000004">
+        <v>| Modelo de Dispersión de PM2.5 Anual | Corresponde a la superficie o Modelo Digital de Dispersión de PM2.5 anual, en escala de grises, donde cada celda o pixel contiene el valor de concentración de PM2.5. | a | a |a |a |</v>
+      </c>
+      <c r="U19" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>| Modelo de Dispersión de PM2.5 Anual | Corresponde a la superficie o Modelo Digital de Dispersión de PM2.5 anual, en escala de grises, donde cada celda o pixel contiene el valor de concentración de PM2.5. | a | a | a | a |  |</v>
+      </c>
+      <c r="V19" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>| Modelo de Dispersión de PM2.5 Anual | Corresponde a la superficie o Modelo Digital de Dispersión de PM2.5 anual, en escala de grises, donde cada celda o pixel contiene el valor de concentración de PM2.5. | a | a |a |a | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="20" spans="2:22" ht="61.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="5" t="s">
-        <v>132</v>
+        <v>65</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
+        <v>48</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
@@ -6492,33 +6291,54 @@
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
       <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
+      <c r="P20" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>| Modelo de Dispersión de SO2 Anual | Corresponde a la superficie o Modelo Digital de Dispersión de SO2 anual, en escala de grises, donde cada celda o pixel contiene el valor de concentración de SO2. |</v>
+      </c>
       <c r="Q20" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>| C-FENC | Civil | Cercas |</v>
-      </c>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
+        <v>| Modelo de Dispersión de SO2 Anual | Corresponde a la superficie o Modelo Digital de Dispersión de SO2 anual, en escala de grises, donde cada celda o pixel contiene el valor de concentración de SO2. | a |</v>
+      </c>
+      <c r="R20" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>| Modelo de Dispersión de SO2 Anual | Corresponde a la superficie o Modelo Digital de Dispersión de SO2 anual, en escala de grises, donde cada celda o pixel contiene el valor de concentración de SO2. | a | a |</v>
+      </c>
+      <c r="S20" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>| Modelo de Dispersión de SO2 Anual | Corresponde a la superficie o Modelo Digital de Dispersión de SO2 anual, en escala de grises, donde cada celda o pixel contiene el valor de concentración de SO2. | a | a |a |</v>
+      </c>
       <c r="T20" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| C-FENC | Civil | Cercas |  | | |</v>
-      </c>
-      <c r="U20" s="5"/>
-      <c r="V20" s="5"/>
-    </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.55000000000000004">
+        <v>| Modelo de Dispersión de SO2 Anual | Corresponde a la superficie o Modelo Digital de Dispersión de SO2 anual, en escala de grises, donde cada celda o pixel contiene el valor de concentración de SO2. | a | a |a |a |</v>
+      </c>
+      <c r="U20" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>| Modelo de Dispersión de SO2 Anual | Corresponde a la superficie o Modelo Digital de Dispersión de SO2 anual, en escala de grises, donde cada celda o pixel contiene el valor de concentración de SO2. | a | a | a | a |  |</v>
+      </c>
+      <c r="V20" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>| Modelo de Dispersión de SO2 Anual | Corresponde a la superficie o Modelo Digital de Dispersión de SO2 anual, en escala de grises, donde cada celda o pixel contiene el valor de concentración de SO2. | a | a |a |a | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="21" spans="2:22" ht="61.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="5" t="s">
-        <v>133</v>
+        <v>66</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
+        <v>48</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
@@ -6527,33 +6347,54 @@
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
       <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
+      <c r="P21" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>| Modelo de Dispersión de SO2 Diario | Corresponde a la superficie o Modelo Digital de Dispersión de SO2 diario, en escala de grises, donde cada celda o pixel contiene el valor de concentración de SO2. |</v>
+      </c>
       <c r="Q21" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>| C-FIRE | Civil | Protección contra incendios |</v>
-      </c>
-      <c r="R21" s="5"/>
-      <c r="S21" s="5"/>
+        <v>| Modelo de Dispersión de SO2 Diario | Corresponde a la superficie o Modelo Digital de Dispersión de SO2 diario, en escala de grises, donde cada celda o pixel contiene el valor de concentración de SO2. | a |</v>
+      </c>
+      <c r="R21" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>| Modelo de Dispersión de SO2 Diario | Corresponde a la superficie o Modelo Digital de Dispersión de SO2 diario, en escala de grises, donde cada celda o pixel contiene el valor de concentración de SO2. | a | a |</v>
+      </c>
+      <c r="S21" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>| Modelo de Dispersión de SO2 Diario | Corresponde a la superficie o Modelo Digital de Dispersión de SO2 diario, en escala de grises, donde cada celda o pixel contiene el valor de concentración de SO2. | a | a |a |</v>
+      </c>
       <c r="T21" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| C-FIRE | Civil | Protección contra incendios |  | | |</v>
-      </c>
-      <c r="U21" s="5"/>
-      <c r="V21" s="5"/>
-    </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.55000000000000004">
+        <v>| Modelo de Dispersión de SO2 Diario | Corresponde a la superficie o Modelo Digital de Dispersión de SO2 diario, en escala de grises, donde cada celda o pixel contiene el valor de concentración de SO2. | a | a |a |a |</v>
+      </c>
+      <c r="U21" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>| Modelo de Dispersión de SO2 Diario | Corresponde a la superficie o Modelo Digital de Dispersión de SO2 diario, en escala de grises, donde cada celda o pixel contiene el valor de concentración de SO2. | a | a | a | a |  |</v>
+      </c>
+      <c r="V21" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>| Modelo de Dispersión de SO2 Diario | Corresponde a la superficie o Modelo Digital de Dispersión de SO2 diario, en escala de grises, donde cada celda o pixel contiene el valor de concentración de SO2. | a | a |a |a | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="22" spans="2:22" ht="61.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="5" t="s">
-        <v>134</v>
+        <v>67</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
+        <v>48</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
@@ -6562,38 +6403,53 @@
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
+      <c r="P22" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>| Modelo de Dispersión de SO2 a 3 horas | Corresponde a la superficie o Modelo Digital de Dispersión de SO2 a tres horas, en escala de grises, donde cada celda o pixel contiene el valor de concentración de SO2. |</v>
+      </c>
       <c r="Q22" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>| C-NGAS | Civil | Sistemas de gas natural |</v>
-      </c>
-      <c r="R22" s="5"/>
-      <c r="S22" s="5"/>
+        <v>| Modelo de Dispersión de SO2 a 3 horas | Corresponde a la superficie o Modelo Digital de Dispersión de SO2 a tres horas, en escala de grises, donde cada celda o pixel contiene el valor de concentración de SO2. | a |</v>
+      </c>
+      <c r="R22" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>| Modelo de Dispersión de SO2 a 3 horas | Corresponde a la superficie o Modelo Digital de Dispersión de SO2 a tres horas, en escala de grises, donde cada celda o pixel contiene el valor de concentración de SO2. | a | a |</v>
+      </c>
+      <c r="S22" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>| Modelo de Dispersión de SO2 a 3 horas | Corresponde a la superficie o Modelo Digital de Dispersión de SO2 a tres horas, en escala de grises, donde cada celda o pixel contiene el valor de concentración de SO2. | a | a |a |</v>
+      </c>
       <c r="T22" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| C-NGAS | Civil | Sistemas de gas natural |  | | |</v>
-      </c>
-      <c r="U22" s="5"/>
-      <c r="V22" s="5"/>
-    </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.55000000000000004">
+        <v>| Modelo de Dispersión de SO2 a 3 horas | Corresponde a la superficie o Modelo Digital de Dispersión de SO2 a tres horas, en escala de grises, donde cada celda o pixel contiene el valor de concentración de SO2. | a | a |a |a |</v>
+      </c>
+      <c r="U22" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>| Modelo de Dispersión de SO2 a 3 horas | Corresponde a la superficie o Modelo Digital de Dispersión de SO2 a tres horas, en escala de grises, donde cada celda o pixel contiene el valor de concentración de SO2. | a | a | a | a |  |</v>
+      </c>
+      <c r="V22" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>| Modelo de Dispersión de SO2 a 3 horas | Corresponde a la superficie o Modelo Digital de Dispersión de SO2 a tres horas, en escala de grises, donde cada celda o pixel contiene el valor de concentración de SO2. | a | a |a |a | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="23" spans="2:22" ht="61.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="5" t="s">
-        <v>135</v>
+        <v>68</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>111</v>
+        <v>48</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="G23" s="5">
-        <v>0.15</v>
+        <v>48</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
@@ -6603,38 +6459,53 @@
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
       <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
+      <c r="P23" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>| Modelo de Dispersión de NO2 Anual | Corresponde a la superficie o Modelo Digital de Dispersión de NO2 anual, en escala de grises, donde cada celda o pixel contiene el valor de concentración de NO2. |</v>
+      </c>
       <c r="Q23" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>| C-POWR | Civil | Energía |</v>
-      </c>
-      <c r="R23" s="5"/>
-      <c r="S23" s="5"/>
+        <v>| Modelo de Dispersión de NO2 Anual | Corresponde a la superficie o Modelo Digital de Dispersión de NO2 anual, en escala de grises, donde cada celda o pixel contiene el valor de concentración de NO2. | a |</v>
+      </c>
+      <c r="R23" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>| Modelo de Dispersión de NO2 Anual | Corresponde a la superficie o Modelo Digital de Dispersión de NO2 anual, en escala de grises, donde cada celda o pixel contiene el valor de concentración de NO2. | a | a |</v>
+      </c>
+      <c r="S23" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>| Modelo de Dispersión de NO2 Anual | Corresponde a la superficie o Modelo Digital de Dispersión de NO2 anual, en escala de grises, donde cada celda o pixel contiene el valor de concentración de NO2. | a | a |a |</v>
+      </c>
       <c r="T23" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| C-POWR | Civil | Energía | white |DASHED |0.15 |</v>
-      </c>
-      <c r="U23" s="5"/>
-      <c r="V23" s="5"/>
-    </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.55000000000000004">
+        <v>| Modelo de Dispersión de NO2 Anual | Corresponde a la superficie o Modelo Digital de Dispersión de NO2 anual, en escala de grises, donde cada celda o pixel contiene el valor de concentración de NO2. | a | a |a |a |</v>
+      </c>
+      <c r="U23" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>| Modelo de Dispersión de NO2 Anual | Corresponde a la superficie o Modelo Digital de Dispersión de NO2 anual, en escala de grises, donde cada celda o pixel contiene el valor de concentración de NO2. | a | a | a | a |  |</v>
+      </c>
+      <c r="V23" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>| Modelo de Dispersión de NO2 Anual | Corresponde a la superficie o Modelo Digital de Dispersión de NO2 anual, en escala de grises, donde cada celda o pixel contiene el valor de concentración de NO2. | a | a |a |a | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="24" spans="2:22" ht="61.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="5" t="s">
-        <v>137</v>
+        <v>69</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>45</v>
+        <v>96</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>138</v>
+        <v>48</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="G24" s="5">
-        <v>0.25</v>
+        <v>48</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
@@ -6644,33 +6515,54 @@
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
       <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
+      <c r="P24" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>| Modelo de Dispersión de NO2 Diario | Corresponde a la superficie o Modelo Digital de Dispersión de NO2 diario, en escala de grises, donde cada celda o pixel contiene el valor de concentración de NO2. |</v>
+      </c>
       <c r="Q24" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>| C-PROP | Civil | Propiedad |</v>
-      </c>
-      <c r="R24" s="5"/>
-      <c r="S24" s="5"/>
+        <v>| Modelo de Dispersión de NO2 Diario | Corresponde a la superficie o Modelo Digital de Dispersión de NO2 diario, en escala de grises, donde cada celda o pixel contiene el valor de concentración de NO2. | a |</v>
+      </c>
+      <c r="R24" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>| Modelo de Dispersión de NO2 Diario | Corresponde a la superficie o Modelo Digital de Dispersión de NO2 diario, en escala de grises, donde cada celda o pixel contiene el valor de concentración de NO2. | a | a |</v>
+      </c>
+      <c r="S24" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>| Modelo de Dispersión de NO2 Diario | Corresponde a la superficie o Modelo Digital de Dispersión de NO2 diario, en escala de grises, donde cada celda o pixel contiene el valor de concentración de NO2. | a | a |a |</v>
+      </c>
       <c r="T24" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| C-PROP | Civil | Propiedad | Magenta |Continuous |0.25 |</v>
-      </c>
-      <c r="U24" s="5"/>
-      <c r="V24" s="5"/>
-    </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.55000000000000004">
+        <v>| Modelo de Dispersión de NO2 Diario | Corresponde a la superficie o Modelo Digital de Dispersión de NO2 diario, en escala de grises, donde cada celda o pixel contiene el valor de concentración de NO2. | a | a |a |a |</v>
+      </c>
+      <c r="U24" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>| Modelo de Dispersión de NO2 Diario | Corresponde a la superficie o Modelo Digital de Dispersión de NO2 diario, en escala de grises, donde cada celda o pixel contiene el valor de concentración de NO2. | a | a | a | a |  |</v>
+      </c>
+      <c r="V24" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>| Modelo de Dispersión de NO2 Diario | Corresponde a la superficie o Modelo Digital de Dispersión de NO2 diario, en escala de grises, donde cada celda o pixel contiene el valor de concentración de NO2. | a | a |a |a | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="25" spans="2:22" ht="61.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="5" t="s">
-        <v>139</v>
+        <v>70</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
+        <v>48</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
@@ -6679,38 +6571,53 @@
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
-      <c r="P25" s="5"/>
+      <c r="P25" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>| Modelo de Dispersión de NO2 a 1 hora | Corresponde a la superficie o Modelo Digital de Dispersión de NO2 a 1 hora, en escala de grises, donde cada celda o pixel contiene el valor de concentración de NO2. |</v>
+      </c>
       <c r="Q25" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>| C-RIVR | Civil | Río |</v>
-      </c>
-      <c r="R25" s="5"/>
-      <c r="S25" s="5"/>
+        <v>| Modelo de Dispersión de NO2 a 1 hora | Corresponde a la superficie o Modelo Digital de Dispersión de NO2 a 1 hora, en escala de grises, donde cada celda o pixel contiene el valor de concentración de NO2. | a |</v>
+      </c>
+      <c r="R25" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>| Modelo de Dispersión de NO2 a 1 hora | Corresponde a la superficie o Modelo Digital de Dispersión de NO2 a 1 hora, en escala de grises, donde cada celda o pixel contiene el valor de concentración de NO2. | a | a |</v>
+      </c>
+      <c r="S25" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>| Modelo de Dispersión de NO2 a 1 hora | Corresponde a la superficie o Modelo Digital de Dispersión de NO2 a 1 hora, en escala de grises, donde cada celda o pixel contiene el valor de concentración de NO2. | a | a |a |</v>
+      </c>
       <c r="T25" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| C-RIVR | Civil | Río |  | | |</v>
-      </c>
-      <c r="U25" s="5"/>
-      <c r="V25" s="5"/>
-    </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.55000000000000004">
+        <v>| Modelo de Dispersión de NO2 a 1 hora | Corresponde a la superficie o Modelo Digital de Dispersión de NO2 a 1 hora, en escala de grises, donde cada celda o pixel contiene el valor de concentración de NO2. | a | a |a |a |</v>
+      </c>
+      <c r="U25" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>| Modelo de Dispersión de NO2 a 1 hora | Corresponde a la superficie o Modelo Digital de Dispersión de NO2 a 1 hora, en escala de grises, donde cada celda o pixel contiene el valor de concentración de NO2. | a | a | a | a |  |</v>
+      </c>
+      <c r="V25" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>| Modelo de Dispersión de NO2 a 1 hora | Corresponde a la superficie o Modelo Digital de Dispersión de NO2 a 1 hora, en escala de grises, donde cada celda o pixel contiene el valor de concentración de NO2. | a | a |a |a | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="26" spans="2:22" ht="61.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="4" t="s">
-        <v>140</v>
+        <v>71</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E26" s="4">
-        <v>57</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="G26" s="4">
-        <v>0.4</v>
+        <v>98</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
@@ -6720,33 +6627,54 @@
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
-      <c r="P26" s="5"/>
+      <c r="P26" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>| Modelo de Dispersión de O3 a 8 horas | Corresponde a la superficie o Modelo Digital de Dispersión de O3 a 8 horas, en escala de grises, donde cada celda o pixel contiene el valor de concentración de O3. |</v>
+      </c>
       <c r="Q26" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>| C-ROAD | Civil | Carreteras |</v>
-      </c>
-      <c r="R26" s="5"/>
-      <c r="S26" s="5"/>
+        <v>| Modelo de Dispersión de O3 a 8 horas | Corresponde a la superficie o Modelo Digital de Dispersión de O3 a 8 horas, en escala de grises, donde cada celda o pixel contiene el valor de concentración de O3. | a |</v>
+      </c>
+      <c r="R26" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>| Modelo de Dispersión de O3 a 8 horas | Corresponde a la superficie o Modelo Digital de Dispersión de O3 a 8 horas, en escala de grises, donde cada celda o pixel contiene el valor de concentración de O3. | a | a |</v>
+      </c>
+      <c r="S26" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>| Modelo de Dispersión de O3 a 8 horas | Corresponde a la superficie o Modelo Digital de Dispersión de O3 a 8 horas, en escala de grises, donde cada celda o pixel contiene el valor de concentración de O3. | a | a |a |</v>
+      </c>
       <c r="T26" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| C-ROAD | Civil | Carreteras | 57 |Continuous |0.4 |</v>
-      </c>
-      <c r="U26" s="5"/>
-      <c r="V26" s="5"/>
-    </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.55000000000000004">
+        <v>| Modelo de Dispersión de O3 a 8 horas | Corresponde a la superficie o Modelo Digital de Dispersión de O3 a 8 horas, en escala de grises, donde cada celda o pixel contiene el valor de concentración de O3. | a | a |a |a |</v>
+      </c>
+      <c r="U26" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>| Modelo de Dispersión de O3 a 8 horas | Corresponde a la superficie o Modelo Digital de Dispersión de O3 a 8 horas, en escala de grises, donde cada celda o pixel contiene el valor de concentración de O3. | a | a | a | a |  |</v>
+      </c>
+      <c r="V26" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>| Modelo de Dispersión de O3 a 8 horas | Corresponde a la superficie o Modelo Digital de Dispersión de O3 a 8 horas, en escala de grises, donde cada celda o pixel contiene el valor de concentración de O3. | a | a |a |a | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="27" spans="2:22" ht="61.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="4" t="s">
-        <v>141</v>
+        <v>72</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
+        <v>99</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
@@ -6755,38 +6683,53 @@
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
-      <c r="P27" s="5"/>
+      <c r="P27" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>| Modelo de Dispersión de O3 a 1 hora | Corresponde a la superficie o Modelo Digital de Dispersión de O3 a 1 hora, en escala de grises, donde cada celda o pixel contiene el valor de concentración de O3. |</v>
+      </c>
       <c r="Q27" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>| C-SOIL | Civil | Suelos |</v>
-      </c>
-      <c r="R27" s="5"/>
-      <c r="S27" s="5"/>
+        <v>| Modelo de Dispersión de O3 a 1 hora | Corresponde a la superficie o Modelo Digital de Dispersión de O3 a 1 hora, en escala de grises, donde cada celda o pixel contiene el valor de concentración de O3. | a |</v>
+      </c>
+      <c r="R27" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>| Modelo de Dispersión de O3 a 1 hora | Corresponde a la superficie o Modelo Digital de Dispersión de O3 a 1 hora, en escala de grises, donde cada celda o pixel contiene el valor de concentración de O3. | a | a |</v>
+      </c>
+      <c r="S27" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>| Modelo de Dispersión de O3 a 1 hora | Corresponde a la superficie o Modelo Digital de Dispersión de O3 a 1 hora, en escala de grises, donde cada celda o pixel contiene el valor de concentración de O3. | a | a |a |</v>
+      </c>
       <c r="T27" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| C-SOIL | Civil | Suelos |  | | |</v>
-      </c>
-      <c r="U27" s="5"/>
-      <c r="V27" s="5"/>
-    </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.55000000000000004">
+        <v>| Modelo de Dispersión de O3 a 1 hora | Corresponde a la superficie o Modelo Digital de Dispersión de O3 a 1 hora, en escala de grises, donde cada celda o pixel contiene el valor de concentración de O3. | a | a |a |a |</v>
+      </c>
+      <c r="U27" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>| Modelo de Dispersión de O3 a 1 hora | Corresponde a la superficie o Modelo Digital de Dispersión de O3 a 1 hora, en escala de grises, donde cada celda o pixel contiene el valor de concentración de O3. | a | a | a | a |  |</v>
+      </c>
+      <c r="V27" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>| Modelo de Dispersión de O3 a 1 hora | Corresponde a la superficie o Modelo Digital de Dispersión de O3 a 1 hora, en escala de grises, donde cada celda o pixel contiene el valor de concentración de O3. | a | a |a |a | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="28" spans="2:22" ht="61.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="4" t="s">
-        <v>142</v>
+        <v>73</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="G28" s="4">
-        <v>0.3</v>
+        <v>100</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
@@ -6796,38 +6739,53 @@
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
       <c r="O28" s="4"/>
-      <c r="P28" s="5"/>
+      <c r="P28" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>| Modelo de Dispersión de CO a 8 horas | Corresponde a la superficie o Modelo Digital de Dispersión de CO a 8 horas, en escala de grises, donde cada celda o pixel contiene el valor de concentración de CO. |</v>
+      </c>
       <c r="Q28" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>| C-SSWR | Civil | Alcantarillado sanitario |</v>
-      </c>
-      <c r="R28" s="5"/>
-      <c r="S28" s="5"/>
+        <v>| Modelo de Dispersión de CO a 8 horas | Corresponde a la superficie o Modelo Digital de Dispersión de CO a 8 horas, en escala de grises, donde cada celda o pixel contiene el valor de concentración de CO. | a |</v>
+      </c>
+      <c r="R28" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>| Modelo de Dispersión de CO a 8 horas | Corresponde a la superficie o Modelo Digital de Dispersión de CO a 8 horas, en escala de grises, donde cada celda o pixel contiene el valor de concentración de CO. | a | a |</v>
+      </c>
+      <c r="S28" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>| Modelo de Dispersión de CO a 8 horas | Corresponde a la superficie o Modelo Digital de Dispersión de CO a 8 horas, en escala de grises, donde cada celda o pixel contiene el valor de concentración de CO. | a | a |a |</v>
+      </c>
       <c r="T28" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| C-SSWR | Civil | Alcantarillado sanitario | green |Continuous |0.3 |</v>
-      </c>
-      <c r="U28" s="5"/>
-      <c r="V28" s="5"/>
+        <v>| Modelo de Dispersión de CO a 8 horas | Corresponde a la superficie o Modelo Digital de Dispersión de CO a 8 horas, en escala de grises, donde cada celda o pixel contiene el valor de concentración de CO. | a | a |a |a |</v>
+      </c>
+      <c r="U28" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>| Modelo de Dispersión de CO a 8 horas | Corresponde a la superficie o Modelo Digital de Dispersión de CO a 8 horas, en escala de grises, donde cada celda o pixel contiene el valor de concentración de CO. | a | a | a | a |  |</v>
+      </c>
+      <c r="V28" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>| Modelo de Dispersión de CO a 8 horas | Corresponde a la superficie o Modelo Digital de Dispersión de CO a 8 horas, en escala de grises, donde cada celda o pixel contiene el valor de concentración de CO. | a | a |a |a | | | | | | | |</v>
+      </c>
     </row>
     <row r="29" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="4" t="s">
-        <v>144</v>
+        <v>74</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="E29" s="4">
-        <v>151</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="G29" s="4">
-        <v>0.3</v>
+        <v>101</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
@@ -6837,33 +6795,42 @@
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
       <c r="O29" s="4"/>
-      <c r="P29" s="5"/>
+      <c r="P29" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>| Modelo de Dispersión de CO a 1 hora | Corresponde a la superficie o Modelo Digital de Dispersión de CO a 1 hora, en escala de grises, donde cada celda o pixel contiene el valor de concentración de CO. |</v>
+      </c>
       <c r="Q29" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>| C-STRM | Civil | Alcantarillado pluvial |</v>
+        <v>| Modelo de Dispersión de CO a 1 hora | Corresponde a la superficie o Modelo Digital de Dispersión de CO a 1 hora, en escala de grises, donde cada celda o pixel contiene el valor de concentración de CO. | a |</v>
       </c>
       <c r="R29" s="5"/>
       <c r="S29" s="5"/>
       <c r="T29" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| C-STRM | Civil | Alcantarillado pluvial | 151 |Continuous |0.3 |</v>
+        <v>| Modelo de Dispersión de CO a 1 hora | Corresponde a la superficie o Modelo Digital de Dispersión de CO a 1 hora, en escala de grises, donde cada celda o pixel contiene el valor de concentración de CO. | a | a |a |a |</v>
       </c>
       <c r="U29" s="5"/>
       <c r="V29" s="5"/>
     </row>
     <row r="30" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="4" t="s">
-        <v>145</v>
+        <v>75</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
+        <v>102</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
@@ -6872,33 +6839,42 @@
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
       <c r="O30" s="4"/>
-      <c r="P30" s="5"/>
+      <c r="P30" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>| Modelo de Vibraciones | Corresponde a la superficie o Modelo Digital de vibraciones producidas por la actividad de las voladuras en mm/sg. |</v>
+      </c>
       <c r="Q30" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>| C-SWLK | Civil | Aceras |</v>
+        <v>| Modelo de Vibraciones | Corresponde a la superficie o Modelo Digital de vibraciones producidas por la actividad de las voladuras en mm/sg. | a |</v>
       </c>
       <c r="R30" s="5"/>
       <c r="S30" s="5"/>
       <c r="T30" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| C-SWLK | Civil | Aceras |  | | |</v>
+        <v>| Modelo de Vibraciones | Corresponde a la superficie o Modelo Digital de vibraciones producidas por la actividad de las voladuras en mm/sg. | a | a |a |a |</v>
       </c>
       <c r="U30" s="5"/>
       <c r="V30" s="5"/>
     </row>
     <row r="31" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="4" t="s">
-        <v>146</v>
+        <v>76</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D31" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
+      <c r="D31" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
@@ -6907,33 +6883,30 @@
       <c r="M31" s="5"/>
       <c r="N31" s="5"/>
       <c r="O31" s="4"/>
-      <c r="P31" s="5"/>
+      <c r="P31" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>| Modelo de Sobrepresión de Aire | Corresponde a la superficie o Modelo Digital de la sobre presión del aire producidas por la actividad de las voladuras en db/L. |</v>
+      </c>
       <c r="Q31" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>| C-TINN | Civil | Red irregular triangulada |</v>
+        <v>| Modelo de Sobrepresión de Aire | Corresponde a la superficie o Modelo Digital de la sobre presión del aire producidas por la actividad de las voladuras en db/L. | a |</v>
       </c>
       <c r="R31" s="5"/>
       <c r="S31" s="5"/>
       <c r="T31" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| C-TINN | Civil | Red irregular triangulada |  | | |</v>
+        <v>| Modelo de Sobrepresión de Aire | Corresponde a la superficie o Modelo Digital de la sobre presión del aire producidas por la actividad de las voladuras en db/L. | a | a |a |a |</v>
       </c>
       <c r="U31" s="5"/>
       <c r="V31" s="5"/>
     </row>
     <row r="32" spans="2:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="B32" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
@@ -6942,33 +6915,30 @@
       <c r="M32" s="5"/>
       <c r="N32" s="4"/>
       <c r="O32" s="4"/>
-      <c r="P32" s="5"/>
+      <c r="P32" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |</v>
+      </c>
       <c r="Q32" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>| C-TOPO | Civil | Característica topográfica |</v>
+        <v>|  |  |  |</v>
       </c>
       <c r="R32" s="5"/>
       <c r="S32" s="5"/>
       <c r="T32" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| C-TOPO | Civil | Característica topográfica |  | | |</v>
+        <v>|  |  |  |  | | |</v>
       </c>
       <c r="U32" s="5"/>
       <c r="V32" s="5"/>
     </row>
     <row r="33" spans="2:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="B33" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
@@ -6977,39 +6947,30 @@
       <c r="M33" s="5"/>
       <c r="N33" s="4"/>
       <c r="O33" s="4"/>
-      <c r="P33" s="5"/>
+      <c r="P33" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |</v>
+      </c>
       <c r="Q33" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>| C-TRAL | Civil | Senderos o caminos |</v>
+        <v>|  |  |  |</v>
       </c>
       <c r="R33" s="5"/>
       <c r="S33" s="5"/>
       <c r="T33" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| C-TRAL | Civil | Senderos o caminos |  | | |</v>
+        <v>|  |  |  |  | | |</v>
       </c>
       <c r="U33" s="5"/>
       <c r="V33" s="5"/>
     </row>
     <row r="34" spans="2:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="B34" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="G34" s="4">
-        <v>0.6</v>
-      </c>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
@@ -7018,33 +6979,30 @@
       <c r="M34" s="5"/>
       <c r="N34" s="5"/>
       <c r="O34" s="4"/>
-      <c r="P34" s="5"/>
+      <c r="P34" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |</v>
+      </c>
       <c r="Q34" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>| C-WALL | Civil | Muros |</v>
+        <v>|  |  |  |</v>
       </c>
       <c r="R34" s="5"/>
       <c r="S34" s="5"/>
       <c r="T34" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| C-WALL | Civil | Muros | white |Continuous |0.6 |</v>
+        <v>|  |  |  |  | | |</v>
       </c>
       <c r="U34" s="5"/>
       <c r="V34" s="5"/>
     </row>
     <row r="35" spans="2:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="B35" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
@@ -7053,33 +7011,30 @@
       <c r="M35" s="5"/>
       <c r="N35" s="4"/>
       <c r="O35" s="4"/>
-      <c r="P35" s="5"/>
+      <c r="P35" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |</v>
+      </c>
       <c r="Q35" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>| C-WATR | Civil | Suministro de agua |</v>
+        <v>|  |  |  |</v>
       </c>
       <c r="R35" s="5"/>
       <c r="S35" s="5"/>
       <c r="T35" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| C-WATR | Civil | Suministro de agua |  | | |</v>
+        <v>|  |  |  |  | | |</v>
       </c>
       <c r="U35" s="5"/>
       <c r="V35" s="5"/>
     </row>
     <row r="36" spans="2:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="B36" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
@@ -7088,33 +7043,30 @@
       <c r="M36" s="5"/>
       <c r="N36" s="4"/>
       <c r="O36" s="4"/>
-      <c r="P36" s="5"/>
+      <c r="P36" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |</v>
+      </c>
       <c r="Q36" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>| E-AREA | Electricidad | Área |</v>
+        <v>|  |  |  |</v>
       </c>
       <c r="R36" s="5"/>
       <c r="S36" s="5"/>
       <c r="T36" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| E-AREA | Electricidad | Área |  | | |</v>
+        <v>|  |  |  |  | | |</v>
       </c>
       <c r="U36" s="5"/>
       <c r="V36" s="5"/>
     </row>
     <row r="37" spans="2:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="B37" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
@@ -7123,39 +7075,30 @@
       <c r="M37" s="5"/>
       <c r="N37" s="4"/>
       <c r="O37" s="4"/>
-      <c r="P37" s="5"/>
+      <c r="P37" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |</v>
+      </c>
       <c r="Q37" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>| E-AUXL | Electricidad | Sistemas auxiliares |</v>
+        <v>|  |  |  |</v>
       </c>
       <c r="R37" s="5"/>
       <c r="S37" s="5"/>
       <c r="T37" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| E-AUXL | Electricidad | Sistemas auxiliares |  | | |</v>
+        <v>|  |  |  |  | | |</v>
       </c>
       <c r="U37" s="5"/>
       <c r="V37" s="5"/>
     </row>
     <row r="38" spans="2:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="B38" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E38" s="5">
-        <v>201</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="G38" s="4">
-        <v>201</v>
-      </c>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
@@ -7164,33 +7107,30 @@
       <c r="M38" s="5"/>
       <c r="N38" s="5"/>
       <c r="O38" s="4"/>
-      <c r="P38" s="5"/>
+      <c r="P38" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |</v>
+      </c>
       <c r="Q38" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>| E-CABL | Electricidad | Sistemas de cable |</v>
+        <v>|  |  |  |</v>
       </c>
       <c r="R38" s="5"/>
       <c r="S38" s="5"/>
       <c r="T38" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| E-CABL | Electricidad | Sistemas de cable | 201 |HIDDEN2 |201 |</v>
+        <v>|  |  |  |  | | |</v>
       </c>
       <c r="U38" s="5"/>
       <c r="V38" s="5"/>
     </row>
     <row r="39" spans="2:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="B39" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
@@ -7199,33 +7139,30 @@
       <c r="M39" s="5"/>
       <c r="N39" s="5"/>
       <c r="O39" s="4"/>
-      <c r="P39" s="5"/>
+      <c r="P39" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |</v>
+      </c>
       <c r="Q39" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>| E-CONT | Electricidad | Controles e instrumentación |</v>
+        <v>|  |  |  |</v>
       </c>
       <c r="R39" s="5"/>
       <c r="S39" s="5"/>
       <c r="T39" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| E-CONT | Electricidad | Controles e instrumentación |  | | |</v>
+        <v>|  |  |  |  | | |</v>
       </c>
       <c r="U39" s="5"/>
       <c r="V39" s="5"/>
     </row>
     <row r="40" spans="2:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="B40" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
@@ -7234,33 +7171,30 @@
       <c r="M40" s="4"/>
       <c r="N40" s="5"/>
       <c r="O40" s="4"/>
-      <c r="P40" s="5"/>
+      <c r="P40" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |</v>
+      </c>
       <c r="Q40" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>| E-DIAG | Electricidad | Diagramas |</v>
+        <v>|  |  |  |</v>
       </c>
       <c r="R40" s="5"/>
       <c r="S40" s="5"/>
       <c r="T40" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| E-DIAG | Electricidad | Diagramas |  | | |</v>
+        <v>|  |  |  |  | | |</v>
       </c>
       <c r="U40" s="5"/>
       <c r="V40" s="5"/>
     </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="B41" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
+    <row r="41" spans="2:22" ht="30.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
@@ -7269,33 +7203,30 @@
       <c r="M41" s="4"/>
       <c r="N41" s="5"/>
       <c r="O41" s="4"/>
-      <c r="P41" s="5"/>
+      <c r="P41" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |</v>
+      </c>
       <c r="Q41" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>| E-FIRE | Electricidad | Protección contra incendios |</v>
+        <v>|  |  |  |</v>
       </c>
       <c r="R41" s="5"/>
       <c r="S41" s="5"/>
       <c r="T41" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| E-FIRE | Electricidad | Protección contra incendios |  | | |</v>
+        <v>|  |  |  |  | | |</v>
       </c>
       <c r="U41" s="5"/>
       <c r="V41" s="5"/>
     </row>
     <row r="42" spans="2:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="B42" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
@@ -7304,33 +7235,30 @@
       <c r="M42" s="4"/>
       <c r="N42" s="4"/>
       <c r="O42" s="4"/>
-      <c r="P42" s="5"/>
+      <c r="P42" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |</v>
+      </c>
       <c r="Q42" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>| E-GRND | Electricidad | Sistema de tierra |</v>
+        <v>|  |  |  |</v>
       </c>
       <c r="R42" s="5"/>
       <c r="S42" s="5"/>
       <c r="T42" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| E-GRND | Electricidad | Sistema de tierra |  | | |</v>
+        <v>|  |  |  |  | | |</v>
       </c>
       <c r="U42" s="5"/>
       <c r="V42" s="5"/>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="B43" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
+    <row r="43" spans="2:22" ht="30.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
@@ -7339,33 +7267,30 @@
       <c r="M43" s="4"/>
       <c r="N43" s="4"/>
       <c r="O43" s="4"/>
-      <c r="P43" s="5"/>
+      <c r="P43" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |</v>
+      </c>
       <c r="Q43" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>| E-INST | Electricidad | Instrumentación Sistema |</v>
+        <v>|  |  |  |</v>
       </c>
       <c r="R43" s="5"/>
       <c r="S43" s="5"/>
       <c r="T43" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| E-INST | Electricidad | Instrumentación Sistema |  | | |</v>
+        <v>|  |  |  |  | | |</v>
       </c>
       <c r="U43" s="5"/>
       <c r="V43" s="5"/>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="B44" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
+    <row r="44" spans="2:22" ht="30.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
@@ -7374,33 +7299,30 @@
       <c r="M44" s="4"/>
       <c r="N44" s="4"/>
       <c r="O44" s="4"/>
-      <c r="P44" s="5"/>
+      <c r="P44" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |</v>
+      </c>
       <c r="Q44" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>| E-LITE | Electricidad | Iluminación |</v>
+        <v>|  |  |  |</v>
       </c>
       <c r="R44" s="5"/>
       <c r="S44" s="5"/>
       <c r="T44" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| E-LITE | Electricidad | Iluminación |  | | |</v>
+        <v>|  |  |  |  | | |</v>
       </c>
       <c r="U44" s="5"/>
       <c r="V44" s="5"/>
     </row>
     <row r="45" spans="2:22" ht="30.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="B45" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
@@ -7410,50 +7332,38 @@
       <c r="N45" s="4"/>
       <c r="O45" s="4"/>
       <c r="P45" s="5" t="str">
-        <f t="shared" ref="P45:P103" si="7">_xlfn.CONCAT("| ",B45," | ",C45," |")</f>
-        <v>| E-LTNG | Electricidad |</v>
+        <f t="shared" si="4"/>
+        <v>|  |  |</v>
       </c>
       <c r="Q45" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>| E-LTNG | Electricidad | Sistema de protección contra rayos |</v>
+        <v>|  |  |  |</v>
       </c>
       <c r="R45" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>| E-LTNG | Electricidad | Sistema de protección contra rayos |  |</v>
+        <v>|  |  |  |  |</v>
       </c>
       <c r="S45" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>| E-LTNG | Electricidad | Sistema de protección contra rayos |  | |</v>
+        <v>|  |  |  |  | |</v>
       </c>
       <c r="T45" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| E-LTNG | Electricidad | Sistema de protección contra rayos |  | | |</v>
+        <v>|  |  |  |  | | |</v>
       </c>
       <c r="U45" s="5"/>
       <c r="V45" s="5" t="str">
-        <f t="shared" ref="V45:V103" si="8">_xlfn.CONCAT("| ",B45," | ",C45," | ",D45," | ",E45," |",F45," |",G45," |",H45," |",I45," |",J45," |",K45," |",L45," |",M45," |",N45," |")</f>
-        <v>| E-LTNG | Electricidad | Sistema de protección contra rayos |  | | | | | | | | | |</v>
-      </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="B46" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="G46" s="4">
-        <v>0.15</v>
-      </c>
+        <f t="shared" ref="V45:V103" si="7">_xlfn.CONCAT("| ",B45," | ",C45," | ",D45," | ",E45," |",F45," |",G45," |",H45," |",I45," |",J45," |",K45," |",L45," |",M45," |",N45," |")</f>
+        <v>|  |  |  |  | | | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" ht="30.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
@@ -7463,50 +7373,38 @@
       <c r="N46" s="4"/>
       <c r="O46" s="4"/>
       <c r="P46" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>| E-POWR | Electricidad |</v>
+        <f t="shared" si="4"/>
+        <v>|  |  |</v>
       </c>
       <c r="Q46" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>| E-POWR | Electricidad | Alimentación |</v>
+        <v>|  |  |  |</v>
       </c>
       <c r="R46" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>| E-POWR | Electricidad | Alimentación | white |</v>
+        <v>|  |  |  |  |</v>
       </c>
       <c r="S46" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>| E-POWR | Electricidad | Alimentación | white |DASHED |</v>
+        <v>|  |  |  |  | |</v>
       </c>
       <c r="T46" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| E-POWR | Electricidad | Alimentación | white |DASHED |0.15 |</v>
+        <v>|  |  |  |  | | |</v>
       </c>
       <c r="U46" s="5"/>
       <c r="V46" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v>| E-POWR | Electricidad | Alimentación | white |DASHED |0.15 | | | | | | | |</v>
+        <f t="shared" si="7"/>
+        <v>|  |  |  |  | | | | | | | | | |</v>
       </c>
     </row>
     <row r="47" spans="2:22" ht="30.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="B47" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="G47" s="4">
-        <v>0.5</v>
-      </c>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
@@ -7516,44 +7414,38 @@
       <c r="N47" s="4"/>
       <c r="O47" s="4"/>
       <c r="P47" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>| S-BEAM | Estructura |</v>
+        <f t="shared" si="4"/>
+        <v>|  |  |</v>
       </c>
       <c r="Q47" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>| S-BEAM | Estructura | Vigas |</v>
+        <v>|  |  |  |</v>
       </c>
       <c r="R47" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>| S-BEAM | Estructura | Vigas | red |</v>
+        <v>|  |  |  |  |</v>
       </c>
       <c r="S47" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>| S-BEAM | Estructura | Vigas | red |Continuous |</v>
+        <v>|  |  |  |  | |</v>
       </c>
       <c r="T47" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| S-BEAM | Estructura | Vigas | red |Continuous |0.5 |</v>
+        <v>|  |  |  |  | | |</v>
       </c>
       <c r="U47" s="5"/>
       <c r="V47" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v>| S-BEAM | Estructura | Vigas | red |Continuous |0.5 | | | | | | | |</v>
+        <f t="shared" si="7"/>
+        <v>|  |  |  |  | | | | | | | | | |</v>
       </c>
     </row>
     <row r="48" spans="2:22" ht="30.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="B48" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
@@ -7563,50 +7455,38 @@
       <c r="N48" s="4"/>
       <c r="O48" s="4"/>
       <c r="P48" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>| S-BRCG | Estructura |</v>
+        <f t="shared" si="4"/>
+        <v>|  |  |</v>
       </c>
       <c r="Q48" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>| S-BRCG | Estructura | Arriostramiento |</v>
+        <v>|  |  |  |</v>
       </c>
       <c r="R48" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>| S-BRCG | Estructura | Arriostramiento |  |</v>
+        <v>|  |  |  |  |</v>
       </c>
       <c r="S48" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>| S-BRCG | Estructura | Arriostramiento |  | |</v>
+        <v>|  |  |  |  | |</v>
       </c>
       <c r="T48" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| S-BRCG | Estructura | Arriostramiento |  | | |</v>
+        <v>|  |  |  |  | | |</v>
       </c>
       <c r="U48" s="5"/>
       <c r="V48" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v>| S-BRCG | Estructura | Arriostramiento |  | | | | | | | | | |</v>
+        <f t="shared" si="7"/>
+        <v>|  |  |  |  | | | | | | | | | |</v>
       </c>
     </row>
     <row r="49" spans="2:22" ht="30.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="B49" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="G49" s="4">
-        <v>0.5</v>
-      </c>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
@@ -7616,44 +7496,38 @@
       <c r="N49" s="4"/>
       <c r="O49" s="4"/>
       <c r="P49" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>| S-COLS | Estructura |</v>
+        <f t="shared" si="4"/>
+        <v>|  |  |</v>
       </c>
       <c r="Q49" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>| S-COLS | Estructura | Columnas |</v>
+        <v>|  |  |  |</v>
       </c>
       <c r="R49" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>| S-COLS | Estructura | Columnas | red |</v>
+        <v>|  |  |  |  |</v>
       </c>
       <c r="S49" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>| S-COLS | Estructura | Columnas | red |Continuous |</v>
+        <v>|  |  |  |  | |</v>
       </c>
       <c r="T49" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| S-COLS | Estructura | Columnas | red |Continuous |0.5 |</v>
+        <v>|  |  |  |  | | |</v>
       </c>
       <c r="U49" s="5"/>
       <c r="V49" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v>| S-COLS | Estructura | Columnas | red |Continuous |0.5 | | | | | | | |</v>
-      </c>
-    </row>
-    <row r="50" spans="2:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="B50" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
+        <f t="shared" si="7"/>
+        <v>|  |  |  |  | | | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="50" spans="2:22" ht="30.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
@@ -7663,44 +7537,38 @@
       <c r="N50" s="4"/>
       <c r="O50" s="4"/>
       <c r="P50" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>| S-DECK | Estructura |</v>
+        <f t="shared" si="4"/>
+        <v>|  |  |</v>
       </c>
       <c r="Q50" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>| S-DECK | Estructura | Cubierta |</v>
+        <v>|  |  |  |</v>
       </c>
       <c r="R50" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>| S-DECK | Estructura | Cubierta |  |</v>
+        <v>|  |  |  |  |</v>
       </c>
       <c r="S50" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>| S-DECK | Estructura | Cubierta |  | |</v>
+        <v>|  |  |  |  | |</v>
       </c>
       <c r="T50" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| S-DECK | Estructura | Cubierta |  | | |</v>
+        <v>|  |  |  |  | | |</v>
       </c>
       <c r="U50" s="5"/>
       <c r="V50" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v>| S-DECK | Estructura | Cubierta |  | | | | | | | | | |</v>
-      </c>
-    </row>
-    <row r="51" spans="2:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="B51" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
+        <f t="shared" si="7"/>
+        <v>|  |  |  |  | | | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="51" spans="2:22" ht="30.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
       <c r="J51" s="4"/>
@@ -7710,44 +7578,38 @@
       <c r="N51" s="4"/>
       <c r="O51" s="4"/>
       <c r="P51" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>| S-DETL | Estructura |</v>
+        <f t="shared" si="4"/>
+        <v>|  |  |</v>
       </c>
       <c r="Q51" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>| S-DETL | Estructura | Detalle |</v>
+        <v>|  |  |  |</v>
       </c>
       <c r="R51" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>| S-DETL | Estructura | Detalle |  |</v>
+        <v>|  |  |  |  |</v>
       </c>
       <c r="S51" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>| S-DETL | Estructura | Detalle |  | |</v>
+        <v>|  |  |  |  | |</v>
       </c>
       <c r="T51" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| S-DETL | Estructura | Detalle |  | | |</v>
+        <v>|  |  |  |  | | |</v>
       </c>
       <c r="U51" s="5"/>
       <c r="V51" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v>| S-DETL | Estructura | Detalle |  | | | | | | | | | |</v>
+        <f t="shared" si="7"/>
+        <v>|  |  |  |  | | | | | | | | | |</v>
       </c>
     </row>
     <row r="52" spans="2:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="B52" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
@@ -7757,50 +7619,38 @@
       <c r="N52" s="4"/>
       <c r="O52" s="4"/>
       <c r="P52" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>| S-FNDN | Estructura |</v>
+        <f t="shared" si="4"/>
+        <v>|  |  |</v>
       </c>
       <c r="Q52" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>| S-FNDN | Estructura | Cimentación |</v>
+        <v>|  |  |  |</v>
       </c>
       <c r="R52" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>| S-FNDN | Estructura | Cimentación |  |</v>
+        <v>|  |  |  |  |</v>
       </c>
       <c r="S52" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>| S-FNDN | Estructura | Cimentación |  | |</v>
+        <v>|  |  |  |  | |</v>
       </c>
       <c r="T52" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| S-FNDN | Estructura | Cimentación |  | | |</v>
+        <v>|  |  |  |  | | |</v>
       </c>
       <c r="U52" s="5"/>
       <c r="V52" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v>| S-FNDN | Estructura | Cimentación |  | | | | | | | | | |</v>
+        <f t="shared" si="7"/>
+        <v>|  |  |  |  | | | | | | | | | |</v>
       </c>
     </row>
     <row r="53" spans="2:22" ht="30.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="B53" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="E53" s="4">
-        <v>251</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="G53" s="4">
-        <v>0.18</v>
-      </c>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
@@ -7810,44 +7660,38 @@
       <c r="N53" s="4"/>
       <c r="O53" s="4"/>
       <c r="P53" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>| S-GATE | Estructura |</v>
+        <f t="shared" si="4"/>
+        <v>|  |  |</v>
       </c>
       <c r="Q53" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>| S-GATE | Estructura | Puerta |</v>
+        <v>|  |  |  |</v>
       </c>
       <c r="R53" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>| S-GATE | Estructura | Puerta | 251 |</v>
+        <v>|  |  |  |  |</v>
       </c>
       <c r="S53" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>| S-GATE | Estructura | Puerta | 251 |Continuous |</v>
+        <v>|  |  |  |  | |</v>
       </c>
       <c r="T53" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| S-GATE | Estructura | Puerta | 251 |Continuous |0.18 |</v>
+        <v>|  |  |  |  | | |</v>
       </c>
       <c r="U53" s="5"/>
       <c r="V53" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v>| S-GATE | Estructura | Puerta | 251 |Continuous |0.18 | | | | | | | |</v>
-      </c>
-    </row>
-    <row r="54" spans="2:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="B54" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
+        <f t="shared" si="7"/>
+        <v>|  |  |  |  | | | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="54" spans="2:22" ht="30.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
@@ -7857,50 +7701,38 @@
       <c r="N54" s="4"/>
       <c r="O54" s="4"/>
       <c r="P54" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>| S-GRID | Estructura |</v>
+        <f t="shared" si="4"/>
+        <v>|  |  |</v>
       </c>
       <c r="Q54" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>| S-GRID | Estructura | Rejillas |</v>
+        <v>|  |  |  |</v>
       </c>
       <c r="R54" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>| S-GRID | Estructura | Rejillas |  |</v>
+        <v>|  |  |  |  |</v>
       </c>
       <c r="S54" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>| S-GRID | Estructura | Rejillas |  | |</v>
+        <v>|  |  |  |  | |</v>
       </c>
       <c r="T54" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| S-GRID | Estructura | Rejillas |  | | |</v>
+        <v>|  |  |  |  | | |</v>
       </c>
       <c r="U54" s="5"/>
       <c r="V54" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v>| S-GRID | Estructura | Rejillas |  | | | | | | | | | |</v>
+        <f t="shared" si="7"/>
+        <v>|  |  |  |  | | | | | | | | | |</v>
       </c>
     </row>
     <row r="55" spans="2:22" ht="30.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="B55" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E55" s="4">
-        <v>38</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="G55" s="4">
-        <v>0.09</v>
-      </c>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
       <c r="H55" s="4"/>
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
@@ -7910,44 +7742,38 @@
       <c r="N55" s="4"/>
       <c r="O55" s="4"/>
       <c r="P55" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>| S-JOIS | Estructura |</v>
+        <f t="shared" si="4"/>
+        <v>|  |  |</v>
       </c>
       <c r="Q55" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>| S-JOIS | Estructura | Viguetas |</v>
+        <v>|  |  |  |</v>
       </c>
       <c r="R55" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>| S-JOIS | Estructura | Viguetas | 38 |</v>
+        <v>|  |  |  |  |</v>
       </c>
       <c r="S55" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>| S-JOIS | Estructura | Viguetas | 38 |Continuous |</v>
+        <v>|  |  |  |  | |</v>
       </c>
       <c r="T55" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| S-JOIS | Estructura | Viguetas | 38 |Continuous |0.09 |</v>
+        <v>|  |  |  |  | | |</v>
       </c>
       <c r="U55" s="5"/>
       <c r="V55" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v>| S-JOIS | Estructura | Viguetas | 38 |Continuous |0.09 | | | | | | | |</v>
-      </c>
-    </row>
-    <row r="56" spans="2:22" ht="30.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="B56" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E56" s="4"/>
-      <c r="F56" s="4"/>
-      <c r="G56" s="4"/>
+        <f t="shared" si="7"/>
+        <v>|  |  |  |  | | | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="56" spans="2:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
       <c r="H56" s="4"/>
       <c r="I56" s="4"/>
       <c r="J56" s="4"/>
@@ -7957,44 +7783,38 @@
       <c r="N56" s="4"/>
       <c r="O56" s="4"/>
       <c r="P56" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>| S-LNTL | Estructura |</v>
+        <f t="shared" si="4"/>
+        <v>|  |  |</v>
       </c>
       <c r="Q56" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>| S-LNTL | Estructura | Dinteles |</v>
+        <v>|  |  |  |</v>
       </c>
       <c r="R56" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>| S-LNTL | Estructura | Dinteles |  |</v>
+        <v>|  |  |  |  |</v>
       </c>
       <c r="S56" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>| S-LNTL | Estructura | Dinteles |  | |</v>
+        <v>|  |  |  |  | |</v>
       </c>
       <c r="T56" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| S-LNTL | Estructura | Dinteles |  | | |</v>
+        <v>|  |  |  |  | | |</v>
       </c>
       <c r="U56" s="5"/>
       <c r="V56" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v>| S-LNTL | Estructura | Dinteles |  | | | | | | | | | |</v>
-      </c>
-    </row>
-    <row r="57" spans="2:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="B57" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="E57" s="4"/>
-      <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
+        <f t="shared" si="7"/>
+        <v>|  |  |  |  | | | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="57" spans="2:22" ht="30.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
       <c r="H57" s="4"/>
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
@@ -8004,44 +7824,38 @@
       <c r="N57" s="4"/>
       <c r="O57" s="4"/>
       <c r="P57" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>| S-PLAT | Estructura |</v>
+        <f t="shared" si="4"/>
+        <v>|  |  |</v>
       </c>
       <c r="Q57" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>| S-PLAT | Estructura | Plataforma |</v>
+        <v>|  |  |  |</v>
       </c>
       <c r="R57" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>| S-PLAT | Estructura | Plataforma |  |</v>
+        <v>|  |  |  |  |</v>
       </c>
       <c r="S57" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>| S-PLAT | Estructura | Plataforma |  | |</v>
+        <v>|  |  |  |  | |</v>
       </c>
       <c r="T57" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| S-PLAT | Estructura | Plataforma |  | | |</v>
+        <v>|  |  |  |  | | |</v>
       </c>
       <c r="U57" s="5"/>
       <c r="V57" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v>| S-PLAT | Estructura | Plataforma |  | | | | | | | | | |</v>
-      </c>
-    </row>
-    <row r="58" spans="2:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="B58" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
-      <c r="G58" s="4"/>
+        <f t="shared" si="7"/>
+        <v>|  |  |  |  | | | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="58" spans="2:22" ht="30.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
       <c r="H58" s="4"/>
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
@@ -8051,44 +7865,38 @@
       <c r="N58" s="4"/>
       <c r="O58" s="4"/>
       <c r="P58" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>| S-SLAB | Estructura |</v>
+        <f t="shared" si="4"/>
+        <v>|  |  |</v>
       </c>
       <c r="Q58" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>| S-SLAB | Estructura | Losa |</v>
+        <v>|  |  |  |</v>
       </c>
       <c r="R58" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>| S-SLAB | Estructura | Losa |  |</v>
+        <v>|  |  |  |  |</v>
       </c>
       <c r="S58" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>| S-SLAB | Estructura | Losa |  | |</v>
+        <v>|  |  |  |  | |</v>
       </c>
       <c r="T58" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| S-SLAB | Estructura | Losa |  | | |</v>
+        <v>|  |  |  |  | | |</v>
       </c>
       <c r="U58" s="5"/>
       <c r="V58" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v>| S-SLAB | Estructura | Losa |  | | | | | | | | | |</v>
+        <f t="shared" si="7"/>
+        <v>|  |  |  |  | | | | | | | | | |</v>
       </c>
     </row>
     <row r="59" spans="2:22" ht="30.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="B59" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="E59" s="4"/>
-      <c r="F59" s="4"/>
-      <c r="G59" s="4"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
       <c r="J59" s="4"/>
@@ -8098,50 +7906,38 @@
       <c r="N59" s="4"/>
       <c r="O59" s="4"/>
       <c r="P59" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>| S-STIF | Estructura |</v>
+        <f t="shared" si="4"/>
+        <v>|  |  |</v>
       </c>
       <c r="Q59" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>| S-STIF | Estructura | Refuerzo |</v>
+        <v>|  |  |  |</v>
       </c>
       <c r="R59" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>| S-STIF | Estructura | Refuerzo |  |</v>
+        <v>|  |  |  |  |</v>
       </c>
       <c r="S59" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>| S-STIF | Estructura | Refuerzo |  | |</v>
+        <v>|  |  |  |  | |</v>
       </c>
       <c r="T59" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| S-STIF | Estructura | Refuerzo |  | | |</v>
+        <v>|  |  |  |  | | |</v>
       </c>
       <c r="U59" s="5"/>
       <c r="V59" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v>| S-STIF | Estructura | Refuerzo |  | | | | | | | | | |</v>
+        <f t="shared" si="7"/>
+        <v>|  |  |  |  | | | | | | | | | |</v>
       </c>
     </row>
     <row r="60" spans="2:22" ht="30.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="B60" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="F60" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="G60" s="4">
-        <v>0.4</v>
-      </c>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
       <c r="H60" s="4"/>
       <c r="I60" s="4"/>
       <c r="J60" s="4"/>
@@ -8151,44 +7947,38 @@
       <c r="N60" s="4"/>
       <c r="O60" s="4"/>
       <c r="P60" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>| S-STRS | Estructura |</v>
+        <f t="shared" si="4"/>
+        <v>|  |  |</v>
       </c>
       <c r="Q60" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>| S-STRS | Estructura | Escaleras |</v>
+        <v>|  |  |  |</v>
       </c>
       <c r="R60" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>| S-STRS | Estructura | Escaleras | cyan |</v>
+        <v>|  |  |  |  |</v>
       </c>
       <c r="S60" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>| S-STRS | Estructura | Escaleras | cyan |Continuous |</v>
+        <v>|  |  |  |  | |</v>
       </c>
       <c r="T60" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| S-STRS | Estructura | Escaleras | cyan |Continuous |0.4 |</v>
+        <v>|  |  |  |  | | |</v>
       </c>
       <c r="U60" s="5"/>
       <c r="V60" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v>| S-STRS | Estructura | Escaleras | cyan |Continuous |0.4 | | | | | | | |</v>
-      </c>
-    </row>
-    <row r="61" spans="2:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="B61" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E61" s="4"/>
-      <c r="F61" s="4"/>
-      <c r="G61" s="4"/>
+        <f t="shared" si="7"/>
+        <v>|  |  |  |  | | | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="61" spans="2:22" ht="30.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
       <c r="H61" s="4"/>
       <c r="I61" s="4"/>
       <c r="J61" s="4"/>
@@ -8198,50 +7988,38 @@
       <c r="N61" s="4"/>
       <c r="O61" s="4"/>
       <c r="P61" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>| S-TRUS | Estructura |</v>
+        <f t="shared" si="4"/>
+        <v>|  |  |</v>
       </c>
       <c r="Q61" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>| S-TRUS | Estructura | Cerchas |</v>
+        <v>|  |  |  |</v>
       </c>
       <c r="R61" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>| S-TRUS | Estructura | Cerchas |  |</v>
+        <v>|  |  |  |  |</v>
       </c>
       <c r="S61" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>| S-TRUS | Estructura | Cerchas |  | |</v>
+        <v>|  |  |  |  | |</v>
       </c>
       <c r="T61" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| S-TRUS | Estructura | Cerchas |  | | |</v>
+        <v>|  |  |  |  | | |</v>
       </c>
       <c r="U61" s="5"/>
       <c r="V61" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v>| S-TRUS | Estructura | Cerchas |  | | | | | | | | | |</v>
-      </c>
-    </row>
-    <row r="62" spans="2:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="B62" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="E62" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="F62" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="G62" s="4">
-        <v>0.6</v>
-      </c>
+        <f t="shared" si="7"/>
+        <v>|  |  |  |  | | | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="62" spans="2:22" ht="30.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
       <c r="H62" s="4"/>
       <c r="I62" s="4"/>
       <c r="J62" s="4"/>
@@ -8251,44 +8029,38 @@
       <c r="N62" s="4"/>
       <c r="O62" s="4"/>
       <c r="P62" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>| S-WALL | Estructura |</v>
+        <f t="shared" si="4"/>
+        <v>|  |  |</v>
       </c>
       <c r="Q62" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>| S-WALL | Estructura | Muros |</v>
+        <v>|  |  |  |</v>
       </c>
       <c r="R62" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>| S-WALL | Estructura | Muros | white |</v>
+        <v>|  |  |  |  |</v>
       </c>
       <c r="S62" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>| S-WALL | Estructura | Muros | white |Continuous |</v>
+        <v>|  |  |  |  | |</v>
       </c>
       <c r="T62" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| S-WALL | Estructura | Muros | white |Continuous |0.6 |</v>
+        <v>|  |  |  |  | | |</v>
       </c>
       <c r="U62" s="5"/>
       <c r="V62" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v>| S-WALL | Estructura | Muros | white |Continuous |0.6 | | | | | | | |</v>
-      </c>
-    </row>
-    <row r="63" spans="2:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="B63" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E63" s="4"/>
-      <c r="F63" s="4"/>
-      <c r="G63" s="4"/>
+        <f t="shared" si="7"/>
+        <v>|  |  |  |  | | | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="63" spans="2:22" ht="30.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
       <c r="H63" s="4"/>
       <c r="I63" s="4"/>
       <c r="J63" s="4"/>
@@ -8298,44 +8070,38 @@
       <c r="N63" s="4"/>
       <c r="O63" s="4"/>
       <c r="P63" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>| V-BLDG | Topografía / Cartografía |</v>
+        <f t="shared" si="4"/>
+        <v>|  |  |</v>
       </c>
       <c r="Q63" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>| V-BLDG | Topografía / Cartografía | Edificios y estructuras primarias |</v>
+        <v>|  |  |  |</v>
       </c>
       <c r="R63" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>| V-BLDG | Topografía / Cartografía | Edificios y estructuras primarias |  |</v>
+        <v>|  |  |  |  |</v>
       </c>
       <c r="S63" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>| V-BLDG | Topografía / Cartografía | Edificios y estructuras primarias |  | |</v>
+        <v>|  |  |  |  | |</v>
       </c>
       <c r="T63" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| V-BLDG | Topografía / Cartografía | Edificios y estructuras primarias |  | | |</v>
+        <v>|  |  |  |  | | |</v>
       </c>
       <c r="U63" s="5"/>
       <c r="V63" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v>| V-BLDG | Topografía / Cartografía | Edificios y estructuras primarias |  | | | | | | | | | |</v>
+        <f t="shared" si="7"/>
+        <v>|  |  |  |  | | | | | | | | | |</v>
       </c>
     </row>
     <row r="64" spans="2:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="B64" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E64" s="4"/>
-      <c r="F64" s="4"/>
-      <c r="G64" s="4"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
       <c r="H64" s="4"/>
       <c r="I64" s="4"/>
       <c r="J64" s="4"/>
@@ -8345,44 +8111,38 @@
       <c r="N64" s="4"/>
       <c r="O64" s="4"/>
       <c r="P64" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>| V-BNDY | Topografía / Cartografía |</v>
+        <f t="shared" si="4"/>
+        <v>|  |  |</v>
       </c>
       <c r="Q64" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>| V-BNDY | Topografía / Cartografía | Límites políticos |</v>
+        <v>|  |  |  |</v>
       </c>
       <c r="R64" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>| V-BNDY | Topografía / Cartografía | Límites políticos |  |</v>
+        <v>|  |  |  |  |</v>
       </c>
       <c r="S64" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>| V-BNDY | Topografía / Cartografía | Límites políticos |  | |</v>
+        <v>|  |  |  |  | |</v>
       </c>
       <c r="T64" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| V-BNDY | Topografía / Cartografía | Límites políticos |  | | |</v>
+        <v>|  |  |  |  | | |</v>
       </c>
       <c r="U64" s="5"/>
       <c r="V64" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v>| V-BNDY | Topografía / Cartografía | Límites políticos |  | | | | | | | | | |</v>
+        <f t="shared" si="7"/>
+        <v>|  |  |  |  | | | | | | | | | |</v>
       </c>
     </row>
     <row r="65" spans="2:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="B65" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E65" s="4"/>
-      <c r="F65" s="4"/>
-      <c r="G65" s="4"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
       <c r="H65" s="4"/>
       <c r="I65" s="4"/>
       <c r="J65" s="4"/>
@@ -8392,44 +8152,38 @@
       <c r="N65" s="4"/>
       <c r="O65" s="4"/>
       <c r="P65" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>| V-BORE | Topografía / Cartografía |</v>
+        <f t="shared" si="4"/>
+        <v>|  |  |</v>
       </c>
       <c r="Q65" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>| V-BORE | Topografía / Cartografía | Perforaciones |</v>
+        <v>|  |  |  |</v>
       </c>
       <c r="R65" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>| V-BORE | Topografía / Cartografía | Perforaciones |  |</v>
+        <v>|  |  |  |  |</v>
       </c>
       <c r="S65" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>| V-BORE | Topografía / Cartografía | Perforaciones |  | |</v>
+        <v>|  |  |  |  | |</v>
       </c>
       <c r="T65" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| V-BORE | Topografía / Cartografía | Perforaciones |  | | |</v>
+        <v>|  |  |  |  | | |</v>
       </c>
       <c r="U65" s="5"/>
       <c r="V65" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v>| V-BORE | Topografía / Cartografía | Perforaciones |  | | | | | | | | | |</v>
-      </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="B66" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E66" s="4"/>
-      <c r="F66" s="4"/>
-      <c r="G66" s="4"/>
+        <f t="shared" si="7"/>
+        <v>|  |  |  |  | | | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" ht="30.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
       <c r="H66" s="4"/>
       <c r="I66" s="4"/>
       <c r="J66" s="4"/>
@@ -8439,50 +8193,38 @@
       <c r="N66" s="4"/>
       <c r="O66" s="4"/>
       <c r="P66" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>| V-CTRL | Topografía / Cartografía |</v>
+        <f t="shared" si="4"/>
+        <v>|  |  |</v>
       </c>
       <c r="Q66" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>| V-CTRL | Topografía / Cartografía | Puntos de control |</v>
+        <v>|  |  |  |</v>
       </c>
       <c r="R66" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>| V-CTRL | Topografía / Cartografía | Puntos de control |  |</v>
+        <v>|  |  |  |  |</v>
       </c>
       <c r="S66" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>| V-CTRL | Topografía / Cartografía | Puntos de control |  | |</v>
+        <v>|  |  |  |  | |</v>
       </c>
       <c r="T66" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| V-CTRL | Topografía / Cartografía | Puntos de control |  | | |</v>
+        <v>|  |  |  |  | | |</v>
       </c>
       <c r="U66" s="5"/>
       <c r="V66" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v>| V-CTRL | Topografía / Cartografía | Puntos de control |  | | | | | | | | | |</v>
-      </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="B67" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="E67" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="F67" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="G67" s="4">
-        <v>0.4</v>
-      </c>
+        <f t="shared" si="7"/>
+        <v>|  |  |  |  | | | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" ht="30.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
       <c r="H67" s="4"/>
       <c r="I67" s="4"/>
       <c r="J67" s="4"/>
@@ -8492,44 +8234,38 @@
       <c r="N67" s="4"/>
       <c r="O67" s="4"/>
       <c r="P67" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>| V-DRIV | Topografía / Cartografía |</v>
+        <f t="shared" si="4"/>
+        <v>|  |  |</v>
       </c>
       <c r="Q67" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>| V-DRIV | Topografía / Cartografía | Accesos vehiculares |</v>
+        <v>|  |  |  |</v>
       </c>
       <c r="R67" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>| V-DRIV | Topografía / Cartografía | Accesos vehiculares | cyan |</v>
+        <v>|  |  |  |  |</v>
       </c>
       <c r="S67" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>| V-DRIV | Topografía / Cartografía | Accesos vehiculares | cyan |Continuous |</v>
+        <v>|  |  |  |  | |</v>
       </c>
       <c r="T67" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| V-DRIV | Topografía / Cartografía | Accesos vehiculares | cyan |Continuous |0.4 |</v>
+        <v>|  |  |  |  | | |</v>
       </c>
       <c r="U67" s="5"/>
       <c r="V67" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v>| V-DRIV | Topografía / Cartografía | Accesos vehiculares | cyan |Continuous |0.4 | | | | | | | |</v>
-      </c>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="B68" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="E68" s="4"/>
-      <c r="F68" s="4"/>
-      <c r="G68" s="4"/>
+        <f t="shared" si="7"/>
+        <v>|  |  |  |  | | | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="68" spans="2:22" ht="30.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="5"/>
       <c r="H68" s="4"/>
       <c r="I68" s="4"/>
       <c r="J68" s="4"/>
@@ -8539,44 +8275,38 @@
       <c r="N68" s="4"/>
       <c r="O68" s="4"/>
       <c r="P68" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>| V-DTCH | Topografía / Cartografía |</v>
+        <f t="shared" si="4"/>
+        <v>|  |  |</v>
       </c>
       <c r="Q68" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>| V-DTCH | Topografía / Cartografía | Cunetas o arroyos |</v>
+        <v>|  |  |  |</v>
       </c>
       <c r="R68" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>| V-DTCH | Topografía / Cartografía | Cunetas o arroyos |  |</v>
+        <v>|  |  |  |  |</v>
       </c>
       <c r="S68" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>| V-DTCH | Topografía / Cartografía | Cunetas o arroyos |  | |</v>
+        <v>|  |  |  |  | |</v>
       </c>
       <c r="T68" s="5" t="str">
-        <f t="shared" ref="T68:T103" si="9">_xlfn.CONCAT("| ",B68," | ",C68," | ",D68," | ",E68," |",F68," |",G68," |")</f>
-        <v>| V-DTCH | Topografía / Cartografía | Cunetas o arroyos |  | | |</v>
+        <f t="shared" ref="T68:T103" si="8">_xlfn.CONCAT("| ",B68," | ",C68," | ",D68," | ",E68," |",F68," |",G68," |")</f>
+        <v>|  |  |  |  | | |</v>
       </c>
       <c r="U68" s="5"/>
       <c r="V68" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v>| V-DTCH | Topografía / Cartografía | Cunetas o arroyos |  | | | | | | | | | |</v>
-      </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="B69" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E69" s="4"/>
-      <c r="F69" s="4"/>
-      <c r="G69" s="4"/>
+        <f t="shared" si="7"/>
+        <v>|  |  |  |  | | | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" ht="30.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="B69" s="4"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
       <c r="H69" s="4"/>
       <c r="I69" s="4"/>
       <c r="J69" s="4"/>
@@ -8586,44 +8316,38 @@
       <c r="N69" s="4"/>
       <c r="O69" s="4"/>
       <c r="P69" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>| V-ESMT | Topografía / Cartografía |</v>
+        <f t="shared" si="4"/>
+        <v>|  |  |</v>
       </c>
       <c r="Q69" s="5" t="str">
-        <f t="shared" ref="Q69:Q132" si="10">_xlfn.CONCAT("| ",B69," | ",C69," | ",D69," |")</f>
-        <v>| V-ESMT | Topografía / Cartografía | Servidumbres |</v>
+        <f t="shared" ref="Q69:Q132" si="9">_xlfn.CONCAT("| ",B69," | ",C69," | ",D69," |")</f>
+        <v>|  |  |  |</v>
       </c>
       <c r="R69" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>| V-ESMT | Topografía / Cartografía | Servidumbres |  |</v>
+        <v>|  |  |  |  |</v>
       </c>
       <c r="S69" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>| V-ESMT | Topografía / Cartografía | Servidumbres |  | |</v>
+        <v>|  |  |  |  | |</v>
       </c>
       <c r="T69" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>| V-ESMT | Topografía / Cartografía | Servidumbres |  | | |</v>
+        <f t="shared" si="8"/>
+        <v>|  |  |  |  | | |</v>
       </c>
       <c r="U69" s="5"/>
       <c r="V69" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v>| V-ESMT | Topografía / Cartografía | Servidumbres |  | | | | | | | | | |</v>
-      </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="B70" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E70" s="4"/>
-      <c r="F70" s="4"/>
-      <c r="G70" s="4"/>
+        <f t="shared" si="7"/>
+        <v>|  |  |  |  | | | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" ht="30.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="5"/>
       <c r="H70" s="4"/>
       <c r="I70" s="4"/>
       <c r="J70" s="4"/>
@@ -8633,50 +8357,38 @@
       <c r="N70" s="4"/>
       <c r="O70" s="4"/>
       <c r="P70" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>| V-NODE | Topografía / Cartografía |</v>
+        <f t="shared" ref="P70:P133" si="10">_xlfn.CONCAT("| ",B70," | ",C70," |")</f>
+        <v>|  |  |</v>
       </c>
       <c r="Q70" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>| V-NODE | Topografía / Cartografía | Nodo |</v>
+        <f t="shared" si="9"/>
+        <v>|  |  |  |</v>
       </c>
       <c r="R70" s="5" t="str">
         <f t="shared" ref="R70:R103" si="11">_xlfn.CONCAT("| ",B70," | ",C70," | ",D70," | ",E70," |")</f>
-        <v>| V-NODE | Topografía / Cartografía | Nodo |  |</v>
+        <v>|  |  |  |  |</v>
       </c>
       <c r="S70" s="5" t="str">
         <f t="shared" ref="S70:S103" si="12">_xlfn.CONCAT("| ",B70," | ",C70," | ",D70," | ",E70," |",F70," |")</f>
-        <v>| V-NODE | Topografía / Cartografía | Nodo |  | |</v>
+        <v>|  |  |  |  | |</v>
       </c>
       <c r="T70" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>| V-NODE | Topografía / Cartografía | Nodo |  | | |</v>
+        <f t="shared" si="8"/>
+        <v>|  |  |  |  | | |</v>
       </c>
       <c r="U70" s="5"/>
       <c r="V70" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v>| V-NODE | Topografía / Cartografía | Nodo |  | | | | | | | | | |</v>
-      </c>
-    </row>
-    <row r="71" spans="2:22" ht="30.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="B71" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E71" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="F71" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="G71" s="4">
-        <v>0.15</v>
-      </c>
+        <f t="shared" si="7"/>
+        <v>|  |  |  |  | | | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
       <c r="H71" s="4"/>
       <c r="I71" s="4"/>
       <c r="J71" s="4"/>
@@ -8686,41 +8398,35 @@
       <c r="N71" s="4"/>
       <c r="O71" s="4"/>
       <c r="P71" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>| V-POWR | Topografía / Cartografía |</v>
+        <f t="shared" si="10"/>
+        <v>|  |  |</v>
       </c>
       <c r="Q71" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>| V-POWR | Topografía / Cartografía | Energía |</v>
+        <f t="shared" si="9"/>
+        <v>|  |  |  |</v>
       </c>
       <c r="R71" s="5" t="str">
         <f t="shared" si="11"/>
-        <v>| V-POWR | Topografía / Cartografía | Energía | white |</v>
+        <v>|  |  |  |  |</v>
       </c>
       <c r="S71" s="5" t="str">
         <f t="shared" si="12"/>
-        <v>| V-POWR | Topografía / Cartografía | Energía | white |DASHED |</v>
+        <v>|  |  |  |  | |</v>
       </c>
       <c r="T71" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>| V-POWR | Topografía / Cartografía | Energía | white |DASHED |0.15 |</v>
+        <f t="shared" si="8"/>
+        <v>|  |  |  |  | | |</v>
       </c>
       <c r="U71" s="5"/>
       <c r="V71" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v>| V-POWR | Topografía / Cartografía | Energía | white |DASHED |0.15 | | | | | | | |</v>
+        <f t="shared" si="7"/>
+        <v>|  |  |  |  | | | | | | | | | |</v>
       </c>
     </row>
     <row r="72" spans="2:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="B72" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>80</v>
-      </c>
+      <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
       <c r="G72" s="4"/>
@@ -8733,41 +8439,35 @@
       <c r="N72" s="4"/>
       <c r="O72" s="4"/>
       <c r="P72" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>| V-PRKG | Topografía / Cartografía |</v>
+        <f t="shared" si="10"/>
+        <v>|  |  |</v>
       </c>
       <c r="Q72" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>| V-PRKG | Topografía / Cartografía | Estacionamientos |</v>
+        <f t="shared" si="9"/>
+        <v>|  |  |  |</v>
       </c>
       <c r="R72" s="5" t="str">
         <f t="shared" si="11"/>
-        <v>| V-PRKG | Topografía / Cartografía | Estacionamientos |  |</v>
+        <v>|  |  |  |  |</v>
       </c>
       <c r="S72" s="5" t="str">
         <f t="shared" si="12"/>
-        <v>| V-PRKG | Topografía / Cartografía | Estacionamientos |  | |</v>
+        <v>|  |  |  |  | |</v>
       </c>
       <c r="T72" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>| V-PRKG | Topografía / Cartografía | Estacionamientos |  | | |</v>
+        <f t="shared" si="8"/>
+        <v>|  |  |  |  | | |</v>
       </c>
       <c r="U72" s="5"/>
       <c r="V72" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v>| V-PRKG | Topografía / Cartografía | Estacionamientos |  | | | | | | | | | |</v>
+        <f t="shared" si="7"/>
+        <v>|  |  |  |  | | | | | | | | | |</v>
       </c>
     </row>
     <row r="73" spans="2:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="B73" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>81</v>
-      </c>
+      <c r="B73" s="4"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
       <c r="E73" s="4"/>
       <c r="F73" s="4"/>
       <c r="G73" s="4"/>
@@ -8780,41 +8480,35 @@
       <c r="N73" s="4"/>
       <c r="O73" s="4"/>
       <c r="P73" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>| V-PROP | Topografía / Cartografía |</v>
+        <f t="shared" si="10"/>
+        <v>|  |  |</v>
       </c>
       <c r="Q73" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>| V-PROP | Topografía / Cartografía | Propiedad |</v>
+        <f t="shared" si="9"/>
+        <v>|  |  |  |</v>
       </c>
       <c r="R73" s="5" t="str">
         <f t="shared" si="11"/>
-        <v>| V-PROP | Topografía / Cartografía | Propiedad |  |</v>
+        <v>|  |  |  |  |</v>
       </c>
       <c r="S73" s="5" t="str">
         <f t="shared" si="12"/>
-        <v>| V-PROP | Topografía / Cartografía | Propiedad |  | |</v>
+        <v>|  |  |  |  | |</v>
       </c>
       <c r="T73" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>| V-PROP | Topografía / Cartografía | Propiedad |  | | |</v>
+        <f t="shared" si="8"/>
+        <v>|  |  |  |  | | |</v>
       </c>
       <c r="U73" s="5"/>
       <c r="V73" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v>| V-PROP | Topografía / Cartografía | Propiedad |  | | | | | | | | | |</v>
-      </c>
-    </row>
-    <row r="74" spans="2:22" ht="30.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="B74" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>82</v>
-      </c>
+        <f t="shared" si="7"/>
+        <v>|  |  |  |  | | | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="B74" s="4"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="4"/>
       <c r="E74" s="4"/>
       <c r="F74" s="4"/>
       <c r="G74" s="4"/>
@@ -8827,41 +8521,35 @@
       <c r="N74" s="4"/>
       <c r="O74" s="4"/>
       <c r="P74" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>| V-RIVR | Topografía / Cartografía |</v>
+        <f t="shared" si="10"/>
+        <v>|  |  |</v>
       </c>
       <c r="Q74" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>| V-RIVR | Topografía / Cartografía | Río |</v>
+        <f t="shared" si="9"/>
+        <v>|  |  |  |</v>
       </c>
       <c r="R74" s="5" t="str">
         <f t="shared" si="11"/>
-        <v>| V-RIVR | Topografía / Cartografía | Río |  |</v>
+        <v>|  |  |  |  |</v>
       </c>
       <c r="S74" s="5" t="str">
         <f t="shared" si="12"/>
-        <v>| V-RIVR | Topografía / Cartografía | Río |  | |</v>
+        <v>|  |  |  |  | |</v>
       </c>
       <c r="T74" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>| V-RIVR | Topografía / Cartografía | Río |  | | |</v>
+        <f t="shared" si="8"/>
+        <v>|  |  |  |  | | |</v>
       </c>
       <c r="U74" s="5"/>
       <c r="V74" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v>| V-RIVR | Topografía / Cartografía | Río |  | | | | | | | | | |</v>
-      </c>
-    </row>
-    <row r="75" spans="2:22" ht="30.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="B75" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>83</v>
-      </c>
+        <f t="shared" si="7"/>
+        <v>|  |  |  |  | | | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="B75" s="4"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
       <c r="E75" s="4"/>
       <c r="F75" s="4"/>
       <c r="G75" s="4"/>
@@ -8874,41 +8562,35 @@
       <c r="N75" s="4"/>
       <c r="O75" s="4"/>
       <c r="P75" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>| V-ROAD | Topografía / Cartografía |</v>
+        <f t="shared" si="10"/>
+        <v>|  |  |</v>
       </c>
       <c r="Q75" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>| V-ROAD | Topografía / Cartografía | Carreteras |</v>
+        <f t="shared" si="9"/>
+        <v>|  |  |  |</v>
       </c>
       <c r="R75" s="5" t="str">
         <f t="shared" si="11"/>
-        <v>| V-ROAD | Topografía / Cartografía | Carreteras |  |</v>
+        <v>|  |  |  |  |</v>
       </c>
       <c r="S75" s="5" t="str">
         <f t="shared" si="12"/>
-        <v>| V-ROAD | Topografía / Cartografía | Carreteras |  | |</v>
+        <v>|  |  |  |  | |</v>
       </c>
       <c r="T75" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>| V-ROAD | Topografía / Cartografía | Carreteras |  | | |</v>
+        <f t="shared" si="8"/>
+        <v>|  |  |  |  | | |</v>
       </c>
       <c r="U75" s="5"/>
       <c r="V75" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v>| V-ROAD | Topografía / Cartografía | Carreteras |  | | | | | | | | | |</v>
+        <f t="shared" si="7"/>
+        <v>|  |  |  |  | | | | | | | | | |</v>
       </c>
     </row>
     <row r="76" spans="2:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="B76" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D76" s="4" t="s">
-        <v>84</v>
-      </c>
+      <c r="B76" s="4"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
       <c r="E76" s="4"/>
       <c r="F76" s="4"/>
       <c r="G76" s="4"/>
@@ -8921,41 +8603,35 @@
       <c r="N76" s="4"/>
       <c r="O76" s="4"/>
       <c r="P76" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>| V-RRAP | Topografía / Cartografía |</v>
+        <f t="shared" si="10"/>
+        <v>|  |  |</v>
       </c>
       <c r="Q76" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>| V-RRAP | Topografía / Cartografía | Escalones |</v>
+        <f t="shared" si="9"/>
+        <v>|  |  |  |</v>
       </c>
       <c r="R76" s="5" t="str">
         <f t="shared" si="11"/>
-        <v>| V-RRAP | Topografía / Cartografía | Escalones |  |</v>
+        <v>|  |  |  |  |</v>
       </c>
       <c r="S76" s="5" t="str">
         <f t="shared" si="12"/>
-        <v>| V-RRAP | Topografía / Cartografía | Escalones |  | |</v>
+        <v>|  |  |  |  | |</v>
       </c>
       <c r="T76" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>| V-RRAP | Topografía / Cartografía | Escalones |  | | |</v>
+        <f t="shared" si="8"/>
+        <v>|  |  |  |  | | |</v>
       </c>
       <c r="U76" s="5"/>
       <c r="V76" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v>| V-RRAP | Topografía / Cartografía | Escalones |  | | | | | | | | | |</v>
-      </c>
-    </row>
-    <row r="77" spans="2:22" ht="30.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="B77" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D77" s="4" t="s">
-        <v>85</v>
-      </c>
+        <f t="shared" si="7"/>
+        <v>|  |  |  |  | | | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="B77" s="4"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
       <c r="E77" s="4"/>
       <c r="F77" s="4"/>
       <c r="G77" s="4"/>
@@ -8968,50 +8644,38 @@
       <c r="N77" s="4"/>
       <c r="O77" s="4"/>
       <c r="P77" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>| V-SITE | Topografía / Cartografía |</v>
+        <f t="shared" si="10"/>
+        <v>|  |  |</v>
       </c>
       <c r="Q77" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>| V-SITE | Topografía / Cartografía | Características del sitio |</v>
+        <f t="shared" si="9"/>
+        <v>|  |  |  |</v>
       </c>
       <c r="R77" s="5" t="str">
         <f t="shared" si="11"/>
-        <v>| V-SITE | Topografía / Cartografía | Características del sitio |  |</v>
+        <v>|  |  |  |  |</v>
       </c>
       <c r="S77" s="5" t="str">
         <f t="shared" si="12"/>
-        <v>| V-SITE | Topografía / Cartografía | Características del sitio |  | |</v>
+        <v>|  |  |  |  | |</v>
       </c>
       <c r="T77" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>| V-SITE | Topografía / Cartografía | Características del sitio |  | | |</v>
+        <f t="shared" si="8"/>
+        <v>|  |  |  |  | | |</v>
       </c>
       <c r="U77" s="5"/>
       <c r="V77" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v>| V-SITE | Topografía / Cartografía | Características del sitio |  | | | | | | | | | |</v>
+        <f t="shared" si="7"/>
+        <v>|  |  |  |  | | | | | | | | | |</v>
       </c>
     </row>
     <row r="78" spans="2:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="B78" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D78" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E78" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="F78" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="G78" s="4">
-        <v>0.3</v>
-      </c>
+      <c r="B78" s="4"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="4"/>
       <c r="H78" s="4"/>
       <c r="I78" s="4"/>
       <c r="J78" s="4"/>
@@ -9021,50 +8685,38 @@
       <c r="N78" s="4"/>
       <c r="O78" s="4"/>
       <c r="P78" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>| V-SSWR | Topografía / Cartografía |</v>
+        <f t="shared" si="10"/>
+        <v>|  |  |</v>
       </c>
       <c r="Q78" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>| V-SSWR | Topografía / Cartografía | Alcantarillado sanitario |</v>
+        <f t="shared" si="9"/>
+        <v>|  |  |  |</v>
       </c>
       <c r="R78" s="5" t="str">
         <f t="shared" si="11"/>
-        <v>| V-SSWR | Topografía / Cartografía | Alcantarillado sanitario | green |</v>
+        <v>|  |  |  |  |</v>
       </c>
       <c r="S78" s="5" t="str">
         <f t="shared" si="12"/>
-        <v>| V-SSWR | Topografía / Cartografía | Alcantarillado sanitario | green |Continuous |</v>
+        <v>|  |  |  |  | |</v>
       </c>
       <c r="T78" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>| V-SSWR | Topografía / Cartografía | Alcantarillado sanitario | green |Continuous |0.3 |</v>
+        <f t="shared" si="8"/>
+        <v>|  |  |  |  | | |</v>
       </c>
       <c r="U78" s="5"/>
       <c r="V78" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v>| V-SSWR | Topografía / Cartografía | Alcantarillado sanitario | green |Continuous |0.3 | | | | | | | |</v>
-      </c>
-    </row>
-    <row r="79" spans="2:22" ht="30.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="B79" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="E79" s="4">
-        <v>151</v>
-      </c>
-      <c r="F79" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="G79" s="4">
-        <v>0.3</v>
-      </c>
+        <f t="shared" si="7"/>
+        <v>|  |  |  |  | | | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="B79" s="4"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="4"/>
       <c r="H79" s="4"/>
       <c r="I79" s="4"/>
       <c r="J79" s="4"/>
@@ -9074,41 +8726,35 @@
       <c r="N79" s="4"/>
       <c r="O79" s="4"/>
       <c r="P79" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>| V-STRM | Topografía / Cartografía |</v>
+        <f t="shared" si="10"/>
+        <v>|  |  |</v>
       </c>
       <c r="Q79" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>| V-STRM | Topografía / Cartografía | Alcantarillado pluvial |</v>
+        <f t="shared" si="9"/>
+        <v>|  |  |  |</v>
       </c>
       <c r="R79" s="5" t="str">
         <f t="shared" si="11"/>
-        <v>| V-STRM | Topografía / Cartografía | Alcantarillado pluvial | 151 |</v>
+        <v>|  |  |  |  |</v>
       </c>
       <c r="S79" s="5" t="str">
         <f t="shared" si="12"/>
-        <v>| V-STRM | Topografía / Cartografía | Alcantarillado pluvial | 151 |Continuous |</v>
+        <v>|  |  |  |  | |</v>
       </c>
       <c r="T79" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>| V-STRM | Topografía / Cartografía | Alcantarillado pluvial | 151 |Continuous |0.3 |</v>
+        <f t="shared" si="8"/>
+        <v>|  |  |  |  | | |</v>
       </c>
       <c r="U79" s="5"/>
       <c r="V79" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v>| V-STRM | Topografía / Cartografía | Alcantarillado pluvial | 151 |Continuous |0.3 | | | | | | | |</v>
+        <f t="shared" si="7"/>
+        <v>|  |  |  |  | | | | | | | | | |</v>
       </c>
     </row>
     <row r="80" spans="2:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="B80" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D80" s="4" t="s">
-        <v>203</v>
-      </c>
+      <c r="B80" s="4"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="4"/>
       <c r="E80" s="4"/>
       <c r="F80" s="4"/>
       <c r="G80" s="4"/>
@@ -9121,41 +8767,35 @@
       <c r="N80" s="4"/>
       <c r="O80" s="4"/>
       <c r="P80" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>| V-SURV | Topografía / Cartografía |</v>
+        <f t="shared" si="10"/>
+        <v>|  |  |</v>
       </c>
       <c r="Q80" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>| V-SURV | Topografía / Cartografía | Levantamiento |</v>
+        <f t="shared" si="9"/>
+        <v>|  |  |  |</v>
       </c>
       <c r="R80" s="5" t="str">
         <f t="shared" si="11"/>
-        <v>| V-SURV | Topografía / Cartografía | Levantamiento |  |</v>
+        <v>|  |  |  |  |</v>
       </c>
       <c r="S80" s="5" t="str">
         <f t="shared" si="12"/>
-        <v>| V-SURV | Topografía / Cartografía | Levantamiento |  | |</v>
+        <v>|  |  |  |  | |</v>
       </c>
       <c r="T80" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>| V-SURV | Topografía / Cartografía | Levantamiento |  | | |</v>
+        <f t="shared" si="8"/>
+        <v>|  |  |  |  | | |</v>
       </c>
       <c r="U80" s="5"/>
       <c r="V80" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v>| V-SURV | Topografía / Cartografía | Levantamiento |  | | | | | | | | | |</v>
-      </c>
-    </row>
-    <row r="81" spans="2:22" ht="30.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="B81" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>92</v>
-      </c>
+        <f t="shared" si="7"/>
+        <v>|  |  |  |  | | | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="81" spans="2:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="B81" s="4"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="4"/>
       <c r="E81" s="4"/>
       <c r="F81" s="4"/>
       <c r="G81" s="4"/>
@@ -9168,41 +8808,35 @@
       <c r="N81" s="4"/>
       <c r="O81" s="4"/>
       <c r="P81" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>| V-SWLK | Topografía / Cartografía |</v>
+        <f t="shared" si="10"/>
+        <v>|  |  |</v>
       </c>
       <c r="Q81" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>| V-SWLK | Topografía / Cartografía | Aceras |</v>
+        <f t="shared" si="9"/>
+        <v>|  |  |  |</v>
       </c>
       <c r="R81" s="5" t="str">
         <f t="shared" si="11"/>
-        <v>| V-SWLK | Topografía / Cartografía | Aceras |  |</v>
+        <v>|  |  |  |  |</v>
       </c>
       <c r="S81" s="5" t="str">
         <f t="shared" si="12"/>
-        <v>| V-SWLK | Topografía / Cartografía | Aceras |  | |</v>
+        <v>|  |  |  |  | |</v>
       </c>
       <c r="T81" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>| V-SWLK | Topografía / Cartografía | Aceras |  | | |</v>
+        <f t="shared" si="8"/>
+        <v>|  |  |  |  | | |</v>
       </c>
       <c r="U81" s="5"/>
       <c r="V81" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v>| V-SWLK | Topografía / Cartografía | Aceras |  | | | | | | | | | |</v>
+        <f t="shared" si="7"/>
+        <v>|  |  |  |  | | | | | | | | | |</v>
       </c>
     </row>
     <row r="82" spans="2:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="B82" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D82" s="4" t="s">
-        <v>93</v>
-      </c>
+      <c r="B82" s="4"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
       <c r="E82" s="4"/>
       <c r="F82" s="4"/>
       <c r="G82" s="4"/>
@@ -9215,41 +8849,35 @@
       <c r="N82" s="4"/>
       <c r="O82" s="4"/>
       <c r="P82" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>| V-TOPO | Topografía / Cartografía |</v>
+        <f t="shared" si="10"/>
+        <v>|  |  |</v>
       </c>
       <c r="Q82" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>| V-TOPO | Topografía / Cartografía | Característica topográfica |</v>
+        <f t="shared" si="9"/>
+        <v>|  |  |  |</v>
       </c>
       <c r="R82" s="5" t="str">
         <f t="shared" si="11"/>
-        <v>| V-TOPO | Topografía / Cartografía | Característica topográfica |  |</v>
+        <v>|  |  |  |  |</v>
       </c>
       <c r="S82" s="5" t="str">
         <f t="shared" si="12"/>
-        <v>| V-TOPO | Topografía / Cartografía | Característica topográfica |  | |</v>
+        <v>|  |  |  |  | |</v>
       </c>
       <c r="T82" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>| V-TOPO | Topografía / Cartografía | Característica topográfica |  | | |</v>
+        <f t="shared" si="8"/>
+        <v>|  |  |  |  | | |</v>
       </c>
       <c r="U82" s="5"/>
       <c r="V82" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v>| V-TOPO | Topografía / Cartografía | Característica topográfica |  | | | | | | | | | |</v>
-      </c>
-    </row>
-    <row r="83" spans="2:22" ht="30.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="B83" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D83" s="4" t="s">
-        <v>96</v>
-      </c>
+        <f t="shared" si="7"/>
+        <v>|  |  |  |  | | | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="83" spans="2:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="B83" s="4"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
       <c r="G83" s="4"/>
@@ -9262,41 +8890,35 @@
       <c r="N83" s="4"/>
       <c r="O83" s="4"/>
       <c r="P83" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>| V-UNID | Topografía / Cartografía |</v>
+        <f t="shared" si="10"/>
+        <v>|  |  |</v>
       </c>
       <c r="Q83" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>| V-UNID | Topografía / Cartografía | Objetos no identificados del sitio |</v>
+        <f t="shared" si="9"/>
+        <v>|  |  |  |</v>
       </c>
       <c r="R83" s="5" t="str">
         <f t="shared" si="11"/>
-        <v>| V-UNID | Topografía / Cartografía | Objetos no identificados del sitio |  |</v>
+        <v>|  |  |  |  |</v>
       </c>
       <c r="S83" s="5" t="str">
         <f t="shared" si="12"/>
-        <v>| V-UNID | Topografía / Cartografía | Objetos no identificados del sitio |  | |</v>
+        <v>|  |  |  |  | |</v>
       </c>
       <c r="T83" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>| V-UNID | Topografía / Cartografía | Objetos no identificados del sitio |  | | |</v>
+        <f t="shared" si="8"/>
+        <v>|  |  |  |  | | |</v>
       </c>
       <c r="U83" s="5"/>
       <c r="V83" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v>| V-UNID | Topografía / Cartografía | Objetos no identificados del sitio |  | | | | | | | | | |</v>
+        <f t="shared" si="7"/>
+        <v>|  |  |  |  | | | | | | | | | |</v>
       </c>
     </row>
     <row r="84" spans="2:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="B84" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D84" s="4" t="s">
-        <v>98</v>
-      </c>
+      <c r="B84" s="4"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="4"/>
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
       <c r="G84" s="4"/>
@@ -9309,32 +8931,32 @@
       <c r="N84" s="4"/>
       <c r="O84" s="4"/>
       <c r="P84" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>| V-WATR | Topografía / Cartografía |</v>
+        <f t="shared" si="10"/>
+        <v>|  |  |</v>
       </c>
       <c r="Q84" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>| V-WATR | Topografía / Cartografía | Suministro de agua |</v>
+        <f t="shared" si="9"/>
+        <v>|  |  |  |</v>
       </c>
       <c r="R84" s="5" t="str">
         <f t="shared" si="11"/>
-        <v>| V-WATR | Topografía / Cartografía | Suministro de agua |  |</v>
+        <v>|  |  |  |  |</v>
       </c>
       <c r="S84" s="5" t="str">
         <f t="shared" si="12"/>
-        <v>| V-WATR | Topografía / Cartografía | Suministro de agua |  | |</v>
+        <v>|  |  |  |  | |</v>
       </c>
       <c r="T84" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>| V-WATR | Topografía / Cartografía | Suministro de agua |  | | |</v>
+        <f t="shared" si="8"/>
+        <v>|  |  |  |  | | |</v>
       </c>
       <c r="U84" s="5"/>
       <c r="V84" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v>| V-WATR | Topografía / Cartografía | Suministro de agua |  | | | | | | | | | |</v>
-      </c>
-    </row>
-    <row r="85" spans="2:22" ht="30.75" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="7"/>
+        <v>|  |  |  |  | | | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="85" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
@@ -9350,11 +8972,11 @@
       <c r="N85" s="4"/>
       <c r="O85" s="4"/>
       <c r="P85" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>|  |  |</v>
       </c>
       <c r="Q85" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>|  |  |  |</v>
       </c>
       <c r="R85" s="5" t="str">
@@ -9366,12 +8988,12 @@
         <v>|  |  |  |  | |</v>
       </c>
       <c r="T85" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>|  |  |  |  | | |</v>
       </c>
       <c r="U85" s="5"/>
       <c r="V85" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>|  |  |  |  | | | | | | | | | |</v>
       </c>
     </row>
@@ -9391,11 +9013,11 @@
       <c r="N86" s="4"/>
       <c r="O86" s="4"/>
       <c r="P86" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>|  |  |</v>
       </c>
       <c r="Q86" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>|  |  |  |</v>
       </c>
       <c r="R86" s="5" t="str">
@@ -9407,16 +9029,16 @@
         <v>|  |  |  |  | |</v>
       </c>
       <c r="T86" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>|  |  |  |  | | |</v>
       </c>
       <c r="U86" s="5"/>
       <c r="V86" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v>|  |  |  |  | | | | | | | | | |</v>
-      </c>
-    </row>
-    <row r="87" spans="2:22" ht="30.75" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="7"/>
+        <v>|  |  |  |  | | | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="87" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
@@ -9432,11 +9054,11 @@
       <c r="N87" s="4"/>
       <c r="O87" s="4"/>
       <c r="P87" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>|  |  |</v>
       </c>
       <c r="Q87" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>|  |  |  |</v>
       </c>
       <c r="R87" s="5" t="str">
@@ -9448,12 +9070,12 @@
         <v>|  |  |  |  | |</v>
       </c>
       <c r="T87" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>|  |  |  |  | | |</v>
       </c>
       <c r="U87" s="5"/>
       <c r="V87" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>|  |  |  |  | | | | | | | | | |</v>
       </c>
     </row>
@@ -9473,11 +9095,11 @@
       <c r="N88" s="4"/>
       <c r="O88" s="4"/>
       <c r="P88" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>|  |  |</v>
       </c>
       <c r="Q88" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>|  |  |  |</v>
       </c>
       <c r="R88" s="5" t="str">
@@ -9489,12 +9111,12 @@
         <v>|  |  |  |  | |</v>
       </c>
       <c r="T88" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>|  |  |  |  | | |</v>
       </c>
       <c r="U88" s="5"/>
       <c r="V88" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>|  |  |  |  | | | | | | | | | |</v>
       </c>
     </row>
@@ -9514,11 +9136,11 @@
       <c r="N89" s="4"/>
       <c r="O89" s="4"/>
       <c r="P89" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>|  |  |</v>
       </c>
       <c r="Q89" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>|  |  |  |</v>
       </c>
       <c r="R89" s="5" t="str">
@@ -9530,16 +9152,16 @@
         <v>|  |  |  |  | |</v>
       </c>
       <c r="T89" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>|  |  |  |  | | |</v>
       </c>
       <c r="U89" s="5"/>
       <c r="V89" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v>|  |  |  |  | | | | | | | | | |</v>
-      </c>
-    </row>
-    <row r="90" spans="2:22" ht="30.75" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="7"/>
+        <v>|  |  |  |  | | | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="90" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
@@ -9555,11 +9177,11 @@
       <c r="N90" s="4"/>
       <c r="O90" s="4"/>
       <c r="P90" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>|  |  |</v>
       </c>
       <c r="Q90" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>|  |  |  |</v>
       </c>
       <c r="R90" s="5" t="str">
@@ -9571,16 +9193,16 @@
         <v>|  |  |  |  | |</v>
       </c>
       <c r="T90" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>|  |  |  |  | | |</v>
       </c>
       <c r="U90" s="5"/>
       <c r="V90" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v>|  |  |  |  | | | | | | | | | |</v>
-      </c>
-    </row>
-    <row r="91" spans="2:22" ht="30.75" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="7"/>
+        <v>|  |  |  |  | | | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="91" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
@@ -9596,11 +9218,11 @@
       <c r="N91" s="4"/>
       <c r="O91" s="4"/>
       <c r="P91" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>|  |  |</v>
       </c>
       <c r="Q91" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>|  |  |  |</v>
       </c>
       <c r="R91" s="5" t="str">
@@ -9612,16 +9234,16 @@
         <v>|  |  |  |  | |</v>
       </c>
       <c r="T91" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>|  |  |  |  | | |</v>
       </c>
       <c r="U91" s="5"/>
       <c r="V91" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v>|  |  |  |  | | | | | | | | | |</v>
-      </c>
-    </row>
-    <row r="92" spans="2:22" ht="30.75" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="7"/>
+        <v>|  |  |  |  | | | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="92" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
@@ -9637,11 +9259,11 @@
       <c r="N92" s="4"/>
       <c r="O92" s="4"/>
       <c r="P92" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>|  |  |</v>
       </c>
       <c r="Q92" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>|  |  |  |</v>
       </c>
       <c r="R92" s="5" t="str">
@@ -9653,16 +9275,16 @@
         <v>|  |  |  |  | |</v>
       </c>
       <c r="T92" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>|  |  |  |  | | |</v>
       </c>
       <c r="U92" s="5"/>
       <c r="V92" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v>|  |  |  |  | | | | | | | | | |</v>
-      </c>
-    </row>
-    <row r="93" spans="2:22" ht="30.75" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="7"/>
+        <v>|  |  |  |  | | | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="93" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
@@ -9678,11 +9300,11 @@
       <c r="N93" s="4"/>
       <c r="O93" s="4"/>
       <c r="P93" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>|  |  |</v>
       </c>
       <c r="Q93" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>|  |  |  |</v>
       </c>
       <c r="R93" s="5" t="str">
@@ -9694,16 +9316,16 @@
         <v>|  |  |  |  | |</v>
       </c>
       <c r="T93" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>|  |  |  |  | | |</v>
       </c>
       <c r="U93" s="5"/>
       <c r="V93" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v>|  |  |  |  | | | | | | | | | |</v>
-      </c>
-    </row>
-    <row r="94" spans="2:22" ht="30.75" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="7"/>
+        <v>|  |  |  |  | | | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="94" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
@@ -9719,11 +9341,11 @@
       <c r="N94" s="4"/>
       <c r="O94" s="4"/>
       <c r="P94" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>|  |  |</v>
       </c>
       <c r="Q94" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>|  |  |  |</v>
       </c>
       <c r="R94" s="5" t="str">
@@ -9735,16 +9357,16 @@
         <v>|  |  |  |  | |</v>
       </c>
       <c r="T94" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>|  |  |  |  | | |</v>
       </c>
       <c r="U94" s="5"/>
       <c r="V94" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v>|  |  |  |  | | | | | | | | | |</v>
-      </c>
-    </row>
-    <row r="95" spans="2:22" ht="30.75" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="7"/>
+        <v>|  |  |  |  | | | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="95" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
@@ -9760,11 +9382,11 @@
       <c r="N95" s="4"/>
       <c r="O95" s="4"/>
       <c r="P95" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>|  |  |</v>
       </c>
       <c r="Q95" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>|  |  |  |</v>
       </c>
       <c r="R95" s="5" t="str">
@@ -9776,16 +9398,16 @@
         <v>|  |  |  |  | |</v>
       </c>
       <c r="T95" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>|  |  |  |  | | |</v>
       </c>
       <c r="U95" s="5"/>
       <c r="V95" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v>|  |  |  |  | | | | | | | | | |</v>
-      </c>
-    </row>
-    <row r="96" spans="2:22" ht="30.75" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="7"/>
+        <v>|  |  |  |  | | | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="96" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
@@ -9801,11 +9423,11 @@
       <c r="N96" s="4"/>
       <c r="O96" s="4"/>
       <c r="P96" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>|  |  |</v>
       </c>
       <c r="Q96" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>|  |  |  |</v>
       </c>
       <c r="R96" s="5" t="str">
@@ -9817,12 +9439,12 @@
         <v>|  |  |  |  | |</v>
       </c>
       <c r="T96" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>|  |  |  |  | | |</v>
       </c>
       <c r="U96" s="5"/>
       <c r="V96" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>|  |  |  |  | | | | | | | | | |</v>
       </c>
     </row>
@@ -9842,11 +9464,11 @@
       <c r="N97" s="4"/>
       <c r="O97" s="4"/>
       <c r="P97" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>|  |  |</v>
       </c>
       <c r="Q97" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>|  |  |  |</v>
       </c>
       <c r="R97" s="5" t="str">
@@ -9858,16 +9480,16 @@
         <v>|  |  |  |  | |</v>
       </c>
       <c r="T97" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>|  |  |  |  | | |</v>
       </c>
       <c r="U97" s="5"/>
       <c r="V97" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v>|  |  |  |  | | | | | | | | | |</v>
-      </c>
-    </row>
-    <row r="98" spans="2:22" ht="30.75" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="7"/>
+        <v>|  |  |  |  | | | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="98" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
@@ -9883,11 +9505,11 @@
       <c r="N98" s="4"/>
       <c r="O98" s="4"/>
       <c r="P98" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>|  |  |</v>
       </c>
       <c r="Q98" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>|  |  |  |</v>
       </c>
       <c r="R98" s="5" t="str">
@@ -9899,16 +9521,16 @@
         <v>|  |  |  |  | |</v>
       </c>
       <c r="T98" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>|  |  |  |  | | |</v>
       </c>
       <c r="U98" s="5"/>
       <c r="V98" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v>|  |  |  |  | | | | | | | | | |</v>
-      </c>
-    </row>
-    <row r="99" spans="2:22" ht="30.75" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="7"/>
+        <v>|  |  |  |  | | | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="99" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
@@ -9924,11 +9546,11 @@
       <c r="N99" s="4"/>
       <c r="O99" s="4"/>
       <c r="P99" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>|  |  |</v>
       </c>
       <c r="Q99" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>|  |  |  |</v>
       </c>
       <c r="R99" s="5" t="str">
@@ -9940,12 +9562,12 @@
         <v>|  |  |  |  | |</v>
       </c>
       <c r="T99" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>|  |  |  |  | | |</v>
       </c>
       <c r="U99" s="5"/>
       <c r="V99" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>|  |  |  |  | | | | | | | | | |</v>
       </c>
     </row>
@@ -9965,11 +9587,11 @@
       <c r="N100" s="4"/>
       <c r="O100" s="4"/>
       <c r="P100" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>|  |  |</v>
       </c>
       <c r="Q100" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>|  |  |  |</v>
       </c>
       <c r="R100" s="5" t="str">
@@ -9981,16 +9603,16 @@
         <v>|  |  |  |  | |</v>
       </c>
       <c r="T100" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>|  |  |  |  | | |</v>
       </c>
       <c r="U100" s="5"/>
       <c r="V100" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v>|  |  |  |  | | | | | | | | | |</v>
-      </c>
-    </row>
-    <row r="101" spans="2:22" ht="30.75" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="7"/>
+        <v>|  |  |  |  | | | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="101" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
@@ -10006,11 +9628,11 @@
       <c r="N101" s="4"/>
       <c r="O101" s="4"/>
       <c r="P101" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>|  |  |</v>
       </c>
       <c r="Q101" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>|  |  |  |</v>
       </c>
       <c r="R101" s="5" t="str">
@@ -10022,12 +9644,12 @@
         <v>|  |  |  |  | |</v>
       </c>
       <c r="T101" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>|  |  |  |  | | |</v>
       </c>
       <c r="U101" s="5"/>
       <c r="V101" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>|  |  |  |  | | | | | | | | | |</v>
       </c>
     </row>
@@ -10047,11 +9669,11 @@
       <c r="N102" s="4"/>
       <c r="O102" s="4"/>
       <c r="P102" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>|  |  |</v>
       </c>
       <c r="Q102" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>|  |  |  |</v>
       </c>
       <c r="R102" s="5" t="str">
@@ -10063,12 +9685,12 @@
         <v>|  |  |  |  | |</v>
       </c>
       <c r="T102" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>|  |  |  |  | | |</v>
       </c>
       <c r="U102" s="5"/>
       <c r="V102" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>|  |  |  |  | | | | | | | | | |</v>
       </c>
     </row>
@@ -10088,11 +9710,11 @@
       <c r="N103" s="4"/>
       <c r="O103" s="4"/>
       <c r="P103" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>|  |  |</v>
       </c>
       <c r="Q103" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>|  |  |  |</v>
       </c>
       <c r="R103" s="5" t="str">
@@ -10104,256 +9726,376 @@
         <v>|  |  |  |  | |</v>
       </c>
       <c r="T103" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>|  |  |  |  | | |</v>
       </c>
       <c r="U103" s="5"/>
       <c r="V103" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v>|  |  |  |  | | | | | | | | | |</v>
-      </c>
-    </row>
-    <row r="104" spans="2:22" ht="30.75" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="7"/>
+        <v>|  |  |  |  | | | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="104" spans="2:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="P104" s="5" t="str">
+        <f t="shared" si="10"/>
+        <v>|  |  |</v>
+      </c>
       <c r="Q104" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>|  |  |  |</v>
+      </c>
+    </row>
+    <row r="105" spans="2:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="P105" s="5" t="str">
         <f t="shared" si="10"/>
-        <v>|  |  |  |</v>
-      </c>
-    </row>
-    <row r="105" spans="2:22" x14ac:dyDescent="0.55000000000000004">
+        <v>|  |  |</v>
+      </c>
       <c r="Q105" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>|  |  |  |</v>
+      </c>
+    </row>
+    <row r="106" spans="2:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="P106" s="5" t="str">
         <f t="shared" si="10"/>
-        <v>|  |  |  |</v>
-      </c>
-    </row>
-    <row r="106" spans="2:22" x14ac:dyDescent="0.55000000000000004">
+        <v>|  |  |</v>
+      </c>
       <c r="Q106" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>|  |  |  |</v>
+      </c>
+    </row>
+    <row r="107" spans="2:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="P107" s="5" t="str">
         <f t="shared" si="10"/>
-        <v>|  |  |  |</v>
-      </c>
-    </row>
-    <row r="107" spans="2:22" x14ac:dyDescent="0.55000000000000004">
+        <v>|  |  |</v>
+      </c>
       <c r="Q107" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>|  |  |  |</v>
+      </c>
+    </row>
+    <row r="108" spans="2:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="P108" s="5" t="str">
         <f t="shared" si="10"/>
-        <v>|  |  |  |</v>
-      </c>
-    </row>
-    <row r="108" spans="2:22" x14ac:dyDescent="0.55000000000000004">
+        <v>|  |  |</v>
+      </c>
       <c r="Q108" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>|  |  |  |</v>
+      </c>
+    </row>
+    <row r="109" spans="2:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="P109" s="5" t="str">
         <f t="shared" si="10"/>
-        <v>|  |  |  |</v>
-      </c>
-    </row>
-    <row r="109" spans="2:22" ht="30.75" x14ac:dyDescent="0.55000000000000004">
+        <v>|  |  |</v>
+      </c>
       <c r="Q109" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>|  |  |  |</v>
+      </c>
+    </row>
+    <row r="110" spans="2:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="P110" s="5" t="str">
         <f t="shared" si="10"/>
-        <v>|  |  |  |</v>
-      </c>
-    </row>
-    <row r="110" spans="2:22" ht="30.75" x14ac:dyDescent="0.55000000000000004">
+        <v>|  |  |</v>
+      </c>
       <c r="Q110" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>|  |  |  |</v>
+      </c>
+    </row>
+    <row r="111" spans="2:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="P111" s="5" t="str">
         <f t="shared" si="10"/>
-        <v>|  |  |  |</v>
-      </c>
-    </row>
-    <row r="111" spans="2:22" ht="30.75" x14ac:dyDescent="0.55000000000000004">
+        <v>|  |  |</v>
+      </c>
       <c r="Q111" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>|  |  |  |</v>
+      </c>
+    </row>
+    <row r="112" spans="2:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="P112" s="5" t="str">
         <f t="shared" si="10"/>
-        <v>|  |  |  |</v>
-      </c>
-    </row>
-    <row r="112" spans="2:22" x14ac:dyDescent="0.55000000000000004">
+        <v>|  |  |</v>
+      </c>
       <c r="Q112" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>|  |  |  |</v>
+      </c>
+    </row>
+    <row r="113" spans="16:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="P113" s="5" t="str">
         <f t="shared" si="10"/>
-        <v>|  |  |  |</v>
-      </c>
-    </row>
-    <row r="113" spans="17:17" x14ac:dyDescent="0.55000000000000004">
+        <v>|  |  |</v>
+      </c>
       <c r="Q113" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>|  |  |  |</v>
+      </c>
+    </row>
+    <row r="114" spans="16:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="P114" s="5" t="str">
         <f t="shared" si="10"/>
-        <v>|  |  |  |</v>
-      </c>
-    </row>
-    <row r="114" spans="17:17" x14ac:dyDescent="0.55000000000000004">
+        <v>|  |  |</v>
+      </c>
       <c r="Q114" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>|  |  |  |</v>
+      </c>
+    </row>
+    <row r="115" spans="16:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="P115" s="5" t="str">
         <f t="shared" si="10"/>
-        <v>|  |  |  |</v>
-      </c>
-    </row>
-    <row r="115" spans="17:17" ht="30.75" x14ac:dyDescent="0.55000000000000004">
+        <v>|  |  |</v>
+      </c>
       <c r="Q115" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>|  |  |  |</v>
+      </c>
+    </row>
+    <row r="116" spans="16:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="P116" s="5" t="str">
         <f t="shared" si="10"/>
-        <v>|  |  |  |</v>
-      </c>
-    </row>
-    <row r="116" spans="17:17" ht="30.75" x14ac:dyDescent="0.55000000000000004">
+        <v>|  |  |</v>
+      </c>
       <c r="Q116" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>|  |  |  |</v>
+      </c>
+    </row>
+    <row r="117" spans="16:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="P117" s="5" t="str">
         <f t="shared" si="10"/>
-        <v>|  |  |  |</v>
-      </c>
-    </row>
-    <row r="117" spans="17:17" x14ac:dyDescent="0.55000000000000004">
+        <v>|  |  |</v>
+      </c>
       <c r="Q117" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>|  |  |  |</v>
+      </c>
+    </row>
+    <row r="118" spans="16:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="P118" s="5" t="str">
         <f t="shared" si="10"/>
-        <v>|  |  |  |</v>
-      </c>
-    </row>
-    <row r="118" spans="17:17" x14ac:dyDescent="0.55000000000000004">
+        <v>|  |  |</v>
+      </c>
       <c r="Q118" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>|  |  |  |</v>
+      </c>
+    </row>
+    <row r="119" spans="16:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="P119" s="5" t="str">
         <f t="shared" si="10"/>
-        <v>|  |  |  |</v>
-      </c>
-    </row>
-    <row r="119" spans="17:17" x14ac:dyDescent="0.55000000000000004">
+        <v>|  |  |</v>
+      </c>
       <c r="Q119" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>|  |  |  |</v>
+      </c>
+    </row>
+    <row r="120" spans="16:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="P120" s="5" t="str">
         <f t="shared" si="10"/>
-        <v>|  |  |  |</v>
-      </c>
-    </row>
-    <row r="120" spans="17:17" x14ac:dyDescent="0.55000000000000004">
+        <v>|  |  |</v>
+      </c>
       <c r="Q120" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>|  |  |  |</v>
+      </c>
+    </row>
+    <row r="121" spans="16:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="P121" s="5" t="str">
         <f t="shared" si="10"/>
-        <v>|  |  |  |</v>
-      </c>
-    </row>
-    <row r="121" spans="17:17" x14ac:dyDescent="0.55000000000000004">
+        <v>|  |  |</v>
+      </c>
       <c r="Q121" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>|  |  |  |</v>
+      </c>
+    </row>
+    <row r="122" spans="16:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="P122" s="5" t="str">
         <f t="shared" si="10"/>
-        <v>|  |  |  |</v>
-      </c>
-    </row>
-    <row r="122" spans="17:17" ht="30.75" x14ac:dyDescent="0.55000000000000004">
+        <v>|  |  |</v>
+      </c>
       <c r="Q122" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>|  |  |  |</v>
+      </c>
+    </row>
+    <row r="123" spans="16:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="P123" s="5" t="str">
         <f t="shared" si="10"/>
-        <v>|  |  |  |</v>
-      </c>
-    </row>
-    <row r="123" spans="17:17" x14ac:dyDescent="0.55000000000000004">
+        <v>|  |  |</v>
+      </c>
       <c r="Q123" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>|  |  |  |</v>
+      </c>
+    </row>
+    <row r="124" spans="16:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="P124" s="5" t="str">
         <f t="shared" si="10"/>
-        <v>|  |  |  |</v>
-      </c>
-    </row>
-    <row r="124" spans="17:17" x14ac:dyDescent="0.55000000000000004">
+        <v>|  |  |</v>
+      </c>
       <c r="Q124" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>|  |  |  |</v>
+      </c>
+    </row>
+    <row r="125" spans="16:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="P125" s="5" t="str">
         <f t="shared" si="10"/>
-        <v>|  |  |  |</v>
-      </c>
-    </row>
-    <row r="125" spans="17:17" ht="30.75" x14ac:dyDescent="0.55000000000000004">
+        <v>|  |  |</v>
+      </c>
       <c r="Q125" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>|  |  |  |</v>
+      </c>
+    </row>
+    <row r="126" spans="16:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="P126" s="5" t="str">
         <f t="shared" si="10"/>
-        <v>|  |  |  |</v>
-      </c>
-    </row>
-    <row r="126" spans="17:17" x14ac:dyDescent="0.55000000000000004">
+        <v>|  |  |</v>
+      </c>
       <c r="Q126" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>|  |  |  |</v>
+      </c>
+    </row>
+    <row r="127" spans="16:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="P127" s="5" t="str">
         <f t="shared" si="10"/>
-        <v>|  |  |  |</v>
-      </c>
-    </row>
-    <row r="127" spans="17:17" ht="30.75" x14ac:dyDescent="0.55000000000000004">
+        <v>|  |  |</v>
+      </c>
       <c r="Q127" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>|  |  |  |</v>
+      </c>
+    </row>
+    <row r="128" spans="16:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="P128" s="5" t="str">
         <f t="shared" si="10"/>
-        <v>|  |  |  |</v>
-      </c>
-    </row>
-    <row r="128" spans="17:17" x14ac:dyDescent="0.55000000000000004">
+        <v>|  |  |</v>
+      </c>
       <c r="Q128" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>|  |  |  |</v>
+      </c>
+    </row>
+    <row r="129" spans="16:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="P129" s="5" t="str">
         <f t="shared" si="10"/>
-        <v>|  |  |  |</v>
-      </c>
-    </row>
-    <row r="129" spans="17:17" ht="30.75" x14ac:dyDescent="0.55000000000000004">
+        <v>|  |  |</v>
+      </c>
       <c r="Q129" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>|  |  |  |</v>
+      </c>
+    </row>
+    <row r="130" spans="16:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="P130" s="5" t="str">
         <f t="shared" si="10"/>
-        <v>|  |  |  |</v>
-      </c>
-    </row>
-    <row r="130" spans="17:17" ht="30.75" x14ac:dyDescent="0.55000000000000004">
+        <v>|  |  |</v>
+      </c>
       <c r="Q130" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>|  |  |  |</v>
+      </c>
+    </row>
+    <row r="131" spans="16:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="P131" s="5" t="str">
         <f t="shared" si="10"/>
-        <v>|  |  |  |</v>
-      </c>
-    </row>
-    <row r="131" spans="17:17" ht="30.75" x14ac:dyDescent="0.55000000000000004">
+        <v>|  |  |</v>
+      </c>
       <c r="Q131" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>|  |  |  |</v>
+      </c>
+    </row>
+    <row r="132" spans="16:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="P132" s="5" t="str">
         <f t="shared" si="10"/>
-        <v>|  |  |  |</v>
-      </c>
-    </row>
-    <row r="132" spans="17:17" ht="30.75" x14ac:dyDescent="0.55000000000000004">
+        <v>|  |  |</v>
+      </c>
       <c r="Q132" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>|  |  |  |</v>
+      </c>
+    </row>
+    <row r="133" spans="16:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="P133" s="5" t="str">
         <f t="shared" si="10"/>
-        <v>|  |  |  |</v>
-      </c>
-    </row>
-    <row r="133" spans="17:17" x14ac:dyDescent="0.55000000000000004">
+        <v>|  |  |</v>
+      </c>
       <c r="Q133" s="5" t="str">
         <f t="shared" ref="Q133:Q196" si="13">_xlfn.CONCAT("| ",B133," | ",C133," | ",D133," |")</f>
         <v>|  |  |  |</v>
       </c>
     </row>
-    <row r="134" spans="17:17" ht="30.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="16:17" x14ac:dyDescent="0.55000000000000004">
       <c r="Q134" s="5" t="str">
         <f t="shared" si="13"/>
         <v>|  |  |  |</v>
       </c>
     </row>
-    <row r="135" spans="17:17" ht="30.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="16:17" x14ac:dyDescent="0.55000000000000004">
       <c r="Q135" s="5" t="str">
         <f t="shared" si="13"/>
         <v>|  |  |  |</v>
       </c>
     </row>
-    <row r="136" spans="17:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="16:17" x14ac:dyDescent="0.55000000000000004">
       <c r="Q136" s="5" t="str">
         <f t="shared" si="13"/>
         <v>|  |  |  |</v>
       </c>
     </row>
-    <row r="137" spans="17:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="16:17" x14ac:dyDescent="0.55000000000000004">
       <c r="Q137" s="5" t="str">
         <f t="shared" si="13"/>
         <v>|  |  |  |</v>
       </c>
     </row>
-    <row r="138" spans="17:17" ht="30.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="16:17" x14ac:dyDescent="0.55000000000000004">
       <c r="Q138" s="5" t="str">
         <f t="shared" si="13"/>
         <v>|  |  |  |</v>
       </c>
     </row>
-    <row r="139" spans="17:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="16:17" x14ac:dyDescent="0.55000000000000004">
       <c r="Q139" s="5" t="str">
         <f t="shared" si="13"/>
         <v>|  |  |  |</v>
       </c>
     </row>
-    <row r="140" spans="17:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="16:17" x14ac:dyDescent="0.55000000000000004">
       <c r="Q140" s="5" t="str">
         <f t="shared" si="13"/>
         <v>|  |  |  |</v>
       </c>
     </row>
-    <row r="141" spans="17:17" ht="30.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="16:17" x14ac:dyDescent="0.55000000000000004">
       <c r="Q141" s="5" t="str">
         <f t="shared" si="13"/>
         <v>|  |  |  |</v>
       </c>
     </row>
-    <row r="142" spans="17:17" ht="30.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="16:17" x14ac:dyDescent="0.55000000000000004">
       <c r="Q142" s="5" t="str">
         <f t="shared" si="13"/>
         <v>|  |  |  |</v>
       </c>
     </row>
-    <row r="143" spans="17:17" ht="30.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="16:17" x14ac:dyDescent="0.55000000000000004">
       <c r="Q143" s="5" t="str">
         <f t="shared" si="13"/>
         <v>|  |  |  |</v>
       </c>
     </row>
-    <row r="144" spans="17:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="16:17" x14ac:dyDescent="0.55000000000000004">
       <c r="Q144" s="5" t="str">
         <f t="shared" si="13"/>
         <v>|  |  |  |</v>
@@ -10365,7 +10107,7 @@
         <v>|  |  |  |</v>
       </c>
     </row>
-    <row r="146" spans="17:17" ht="30.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="17:17" x14ac:dyDescent="0.55000000000000004">
       <c r="Q146" s="5" t="str">
         <f t="shared" si="13"/>
         <v>|  |  |  |</v>
@@ -10383,7 +10125,7 @@
         <v>|  |  |  |</v>
       </c>
     </row>
-    <row r="149" spans="17:17" ht="30.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="17:17" x14ac:dyDescent="0.55000000000000004">
       <c r="Q149" s="5" t="str">
         <f t="shared" si="13"/>
         <v>|  |  |  |</v>
@@ -10407,19 +10149,19 @@
         <v>|  |  |  |</v>
       </c>
     </row>
-    <row r="153" spans="17:17" ht="30.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="17:17" x14ac:dyDescent="0.55000000000000004">
       <c r="Q153" s="5" t="str">
         <f t="shared" si="13"/>
         <v>|  |  |  |</v>
       </c>
     </row>
-    <row r="154" spans="17:17" ht="30.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="17:17" x14ac:dyDescent="0.55000000000000004">
       <c r="Q154" s="5" t="str">
         <f t="shared" si="13"/>
         <v>|  |  |  |</v>
       </c>
     </row>
-    <row r="155" spans="17:17" ht="30.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="17:17" x14ac:dyDescent="0.55000000000000004">
       <c r="Q155" s="5" t="str">
         <f t="shared" si="13"/>
         <v>|  |  |  |</v>
@@ -10431,13 +10173,13 @@
         <v>|  |  |  |</v>
       </c>
     </row>
-    <row r="157" spans="17:17" ht="30.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="17:17" x14ac:dyDescent="0.55000000000000004">
       <c r="Q157" s="5" t="str">
         <f t="shared" si="13"/>
         <v>|  |  |  |</v>
       </c>
     </row>
-    <row r="158" spans="17:17" ht="30.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="17:17" x14ac:dyDescent="0.55000000000000004">
       <c r="Q158" s="5" t="str">
         <f t="shared" si="13"/>
         <v>|  |  |  |</v>
@@ -10491,7 +10233,7 @@
         <v>|  |  |  |</v>
       </c>
     </row>
-    <row r="167" spans="17:17" ht="30.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="17:17" x14ac:dyDescent="0.55000000000000004">
       <c r="Q167" s="5" t="str">
         <f t="shared" si="13"/>
         <v>|  |  |  |</v>
@@ -10539,7 +10281,7 @@
         <v>|  |  |  |</v>
       </c>
     </row>
-    <row r="175" spans="17:17" ht="30.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="17:17" x14ac:dyDescent="0.55000000000000004">
       <c r="Q175" s="5" t="str">
         <f t="shared" si="13"/>
         <v>|  |  |  |</v>
@@ -10569,13 +10311,13 @@
         <v>|  |  |  |</v>
       </c>
     </row>
-    <row r="180" spans="17:17" ht="30.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="17:17" x14ac:dyDescent="0.55000000000000004">
       <c r="Q180" s="5" t="str">
         <f t="shared" si="13"/>
         <v>|  |  |  |</v>
       </c>
     </row>
-    <row r="181" spans="17:17" ht="30.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="17:17" x14ac:dyDescent="0.55000000000000004">
       <c r="Q181" s="5" t="str">
         <f t="shared" si="13"/>
         <v>|  |  |  |</v>
@@ -10587,13 +10329,13 @@
         <v>|  |  |  |</v>
       </c>
     </row>
-    <row r="183" spans="17:17" ht="30.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="17:17" x14ac:dyDescent="0.55000000000000004">
       <c r="Q183" s="5" t="str">
         <f t="shared" si="13"/>
         <v>|  |  |  |</v>
       </c>
     </row>
-    <row r="184" spans="17:17" ht="30.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="17:17" x14ac:dyDescent="0.55000000000000004">
       <c r="Q184" s="5" t="str">
         <f t="shared" si="13"/>
         <v>|  |  |  |</v>
@@ -10605,7 +10347,7 @@
         <v>|  |  |  |</v>
       </c>
     </row>
-    <row r="186" spans="17:17" ht="30.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="17:17" x14ac:dyDescent="0.55000000000000004">
       <c r="Q186" s="5" t="str">
         <f t="shared" si="13"/>
         <v>|  |  |  |</v>
@@ -10623,7 +10365,7 @@
         <v>|  |  |  |</v>
       </c>
     </row>
-    <row r="189" spans="17:17" ht="30.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="17:17" x14ac:dyDescent="0.55000000000000004">
       <c r="Q189" s="5" t="str">
         <f t="shared" si="13"/>
         <v>|  |  |  |</v>
@@ -10635,7 +10377,7 @@
         <v>|  |  |  |</v>
       </c>
     </row>
-    <row r="191" spans="17:17" ht="30.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="17:17" x14ac:dyDescent="0.55000000000000004">
       <c r="Q191" s="5" t="str">
         <f t="shared" si="13"/>
         <v>|  |  |  |</v>
@@ -10647,7 +10389,7 @@
         <v>|  |  |  |</v>
       </c>
     </row>
-    <row r="193" spans="17:17" ht="30.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="17:17" x14ac:dyDescent="0.55000000000000004">
       <c r="Q193" s="5" t="str">
         <f t="shared" si="13"/>
         <v>|  |  |  |</v>
@@ -10707,7 +10449,7 @@
         <v>|  |  |  |</v>
       </c>
     </row>
-    <row r="203" spans="17:17" ht="30.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="203" spans="17:17" x14ac:dyDescent="0.55000000000000004">
       <c r="Q203" s="5" t="str">
         <f t="shared" si="14"/>
         <v>|  |  |  |</v>
@@ -10797,13 +10539,13 @@
         <v>|  |  |  |</v>
       </c>
     </row>
-    <row r="218" spans="17:17" ht="30.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="218" spans="17:17" x14ac:dyDescent="0.55000000000000004">
       <c r="Q218" s="5" t="str">
         <f t="shared" si="14"/>
         <v>|  |  |  |</v>
       </c>
     </row>
-    <row r="219" spans="17:17" ht="30.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="219" spans="17:17" x14ac:dyDescent="0.55000000000000004">
       <c r="Q219" s="5" t="str">
         <f t="shared" si="14"/>
         <v>|  |  |  |</v>
@@ -10851,7 +10593,7 @@
         <v>|  |  |  |</v>
       </c>
     </row>
-    <row r="227" spans="17:17" ht="30.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="227" spans="17:17" x14ac:dyDescent="0.55000000000000004">
       <c r="Q227" s="5" t="str">
         <f t="shared" si="14"/>
         <v>|  |  |  |</v>
@@ -10863,7 +10605,7 @@
         <v>|  |  |  |</v>
       </c>
     </row>
-    <row r="229" spans="17:17" ht="30.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="229" spans="17:17" x14ac:dyDescent="0.55000000000000004">
       <c r="Q229" s="5" t="str">
         <f t="shared" si="14"/>
         <v>|  |  |  |</v>
@@ -10905,7 +10647,7 @@
         <v>|  |  |  |</v>
       </c>
     </row>
-    <row r="236" spans="17:17" ht="30.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="236" spans="17:17" x14ac:dyDescent="0.55000000000000004">
       <c r="Q236" s="5" t="str">
         <f t="shared" si="14"/>
         <v>|  |  |  |</v>
@@ -10929,13 +10671,13 @@
         <v>|  |  |  |</v>
       </c>
     </row>
-    <row r="240" spans="17:17" ht="30.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="240" spans="17:17" x14ac:dyDescent="0.55000000000000004">
       <c r="Q240" s="5" t="str">
         <f t="shared" si="14"/>
         <v>|  |  |  |</v>
       </c>
     </row>
-    <row r="241" spans="17:17" ht="30.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="241" spans="17:17" x14ac:dyDescent="0.55000000000000004">
       <c r="Q241" s="5" t="str">
         <f t="shared" si="14"/>
         <v>|  |  |  |</v>
@@ -10971,7 +10713,7 @@
         <v>|  |  |  |</v>
       </c>
     </row>
-    <row r="247" spans="17:17" ht="30.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="247" spans="17:17" x14ac:dyDescent="0.55000000000000004">
       <c r="Q247" s="5" t="str">
         <f t="shared" si="14"/>
         <v>|  |  |  |</v>
@@ -11037,13 +10779,13 @@
         <v>|  |  |  |</v>
       </c>
     </row>
-    <row r="258" spans="17:17" ht="30.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="258" spans="17:17" x14ac:dyDescent="0.55000000000000004">
       <c r="Q258" s="5" t="str">
         <f t="shared" si="14"/>
         <v>|  |  |  |</v>
       </c>
     </row>
-    <row r="259" spans="17:17" ht="30.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="259" spans="17:17" x14ac:dyDescent="0.55000000000000004">
       <c r="Q259" s="5" t="str">
         <f t="shared" si="14"/>
         <v>|  |  |  |</v>
@@ -11097,25 +10839,25 @@
         <v>|  |  |  |</v>
       </c>
     </row>
-    <row r="268" spans="17:17" ht="30.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="268" spans="17:17" x14ac:dyDescent="0.55000000000000004">
       <c r="Q268" s="5" t="str">
         <f t="shared" si="15"/>
         <v>|  |  |  |</v>
       </c>
     </row>
-    <row r="269" spans="17:17" ht="30.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="269" spans="17:17" x14ac:dyDescent="0.55000000000000004">
       <c r="Q269" s="5" t="str">
         <f t="shared" si="15"/>
         <v>|  |  |  |</v>
       </c>
     </row>
-    <row r="270" spans="17:17" ht="30.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="270" spans="17:17" x14ac:dyDescent="0.55000000000000004">
       <c r="Q270" s="5" t="str">
         <f t="shared" si="15"/>
         <v>|  |  |  |</v>
       </c>
     </row>
-    <row r="271" spans="17:17" ht="30.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="271" spans="17:17" x14ac:dyDescent="0.55000000000000004">
       <c r="Q271" s="5" t="str">
         <f t="shared" si="15"/>
         <v>|  |  |  |</v>
@@ -11127,31 +10869,31 @@
         <v>|  |  |  |</v>
       </c>
     </row>
-    <row r="273" spans="17:17" ht="30.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="273" spans="17:17" x14ac:dyDescent="0.55000000000000004">
       <c r="Q273" s="5" t="str">
         <f t="shared" si="15"/>
         <v>|  |  |  |</v>
       </c>
     </row>
-    <row r="274" spans="17:17" ht="30.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="274" spans="17:17" x14ac:dyDescent="0.55000000000000004">
       <c r="Q274" s="5" t="str">
         <f t="shared" si="15"/>
         <v>|  |  |  |</v>
       </c>
     </row>
-    <row r="275" spans="17:17" ht="30.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="275" spans="17:17" x14ac:dyDescent="0.55000000000000004">
       <c r="Q275" s="5" t="str">
         <f t="shared" si="15"/>
         <v>|  |  |  |</v>
       </c>
     </row>
-    <row r="276" spans="17:17" ht="30.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="276" spans="17:17" x14ac:dyDescent="0.55000000000000004">
       <c r="Q276" s="5" t="str">
         <f t="shared" si="15"/>
         <v>|  |  |  |</v>
       </c>
     </row>
-    <row r="277" spans="17:17" ht="30.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="277" spans="17:17" x14ac:dyDescent="0.55000000000000004">
       <c r="Q277" s="5" t="str">
         <f t="shared" si="15"/>
         <v>|  |  |  |</v>
@@ -11181,7 +10923,7 @@
         <v>|  |  |  |</v>
       </c>
     </row>
-    <row r="282" spans="17:17" ht="30.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="282" spans="17:17" x14ac:dyDescent="0.55000000000000004">
       <c r="Q282" s="5" t="str">
         <f t="shared" si="15"/>
         <v>|  |  |  |</v>
@@ -11193,7 +10935,7 @@
         <v>|  |  |  |</v>
       </c>
     </row>
-    <row r="284" spans="17:17" ht="30.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="284" spans="17:17" x14ac:dyDescent="0.55000000000000004">
       <c r="Q284" s="5" t="str">
         <f t="shared" si="15"/>
         <v>|  |  |  |</v>
@@ -11223,7 +10965,7 @@
         <v>|  |  |  |</v>
       </c>
     </row>
-    <row r="289" spans="17:17" ht="30.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="289" spans="17:17" x14ac:dyDescent="0.55000000000000004">
       <c r="Q289" s="5" t="str">
         <f t="shared" si="15"/>
         <v>|  |  |  |</v>
@@ -11241,7 +10983,7 @@
         <v>|  |  |  |</v>
       </c>
     </row>
-    <row r="292" spans="17:17" ht="30.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="292" spans="17:17" x14ac:dyDescent="0.55000000000000004">
       <c r="Q292" s="5" t="str">
         <f t="shared" si="15"/>
         <v>|  |  |  |</v>

--- a/file/temp/ExcelTableToMarkDownSample.xlsx
+++ b/file/temp/ExcelTableToMarkDownSample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R.IAMB\file\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD37A582-276C-4E51-8DC9-8A37773CC772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34FC5DD5-F718-4A4C-9F87-9BB0A9417D8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" activeTab="1" xr2:uid="{D94F812B-BC61-4A22-9692-634766FE0D40}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="70">
   <si>
     <t>Creación de tablas en formato .md</t>
   </si>
@@ -174,9 +174,6 @@
     <t>Proyecto</t>
   </si>
   <si>
-    <t>Capa - Descripción</t>
-  </si>
-  <si>
     <t>CAD Color</t>
   </si>
   <si>
@@ -189,172 +186,70 @@
     <t>a</t>
   </si>
   <si>
-    <t>Tema general o medio</t>
+    <t>Ráster</t>
   </si>
   <si>
-    <t>Imagen de Satélite Regional</t>
+    <t>Vectorial </t>
   </si>
   <si>
-    <t>Imagen de Satélite Alta Resolución</t>
+    <t>FileGeoDataBase</t>
   </si>
   <si>
-    <t>Ortofotografía Aérea</t>
+    <t>Formato tipo FileGeoDataBase.</t>
   </si>
   <si>
-    <t>Modelo Digital del Terreno DTM</t>
+    <t>Formato de entrega de la totalidad de la información vectorial y tablas; de no ser posible la entrega en este formato, se deberán entregar shapefiles y las tablas adicionales en formato dbf.</t>
   </si>
   <si>
-    <t>Modelo Digital de Superficie DSM</t>
+    <t>ShapeFile</t>
   </si>
   <si>
-    <t>Modelo Digital de Pendientes</t>
+    <t>Formato para el intercambio de información geográfica.</t>
   </si>
   <si>
-    <t>Modelo Hidrogeológico</t>
+    <t xml:space="preserve">Este formato estándar aplica cuando no se entrega en el esquema GDB, por lo tanto, la organización de los archivos shape, debe estar basado bajo el mismo esquema en que se encuentra el Diseño actual, conservando los nombres de los objetos y estructura (DataSet, FeatureClass) que ahí se describen, en donde el DataSet corresponde a los nombres de las carpetas o directorios y el FeatureClass al nombre del archivo shapefile. </t>
   </si>
   <si>
-    <t>Modelo Digital de Precipitación</t>
+    <t xml:space="preserve">GeoTiff,  img, </t>
   </si>
   <si>
-    <t>Modelo Digital de Temperatura</t>
+    <t>grid, ecw</t>
   </si>
   <si>
-    <t>Modelo de Dispersión de PST Diario</t>
+    <t>Formatos estándar de archivo de imagen para aplicaciones SIG., (geotiff, img, grid, ecw).</t>
   </si>
   <si>
-    <t>Modelo de Dispersión de PST Anual</t>
+    <t>Los archivos geotiff, deben incluirse dentro de una carpeta llamada Ráster.</t>
   </si>
   <si>
-    <t>Modelo de Dispersión de PM10 Diario</t>
+    <t>Tablas</t>
   </si>
   <si>
-    <t>Modelo de Dispersión de PM10 Anual</t>
+    <t>dBase (.dbf)</t>
   </si>
   <si>
-    <t>Modelo de Dispersión de PM2.5 Diario</t>
+    <t>Almacenamiento y manejo de datos tabulares.</t>
   </si>
   <si>
-    <t>Modelo de Dispersión de PM2.5 Anual</t>
+    <t>Este formato estándar aplica cuando no se entrega en el esquema GDB y corresponde a los datos alfanuméricos de tablas adicionales asociados a los shapefile. Los archivos dbf, deben incluirse dentro de una carpeta llamada Tablas</t>
   </si>
   <si>
-    <t>Modelo de Dispersión de SO2 Anual</t>
+    <t>Metadatos</t>
   </si>
   <si>
-    <t>Modelo de Dispersión de SO2 Diario</t>
+    <t>Archivos EXCEL</t>
   </si>
   <si>
-    <t>Modelo de Dispersión de SO2 a 3 horas</t>
+    <t>Almacenamiento y manejo de las plantillas de metadatos de cada feature u objeto.</t>
   </si>
   <si>
-    <t>Modelo de Dispersión de NO2 Anual</t>
+    <t>Los archivos EXCEL, deben incluirse dentro de una carpeta llamada Metadatos.</t>
   </si>
   <si>
-    <t>Modelo de Dispersión de NO2 Diario</t>
+    <t>Formatos admisibles</t>
   </si>
   <si>
-    <t>Modelo de Dispersión de NO2 a 1 hora</t>
-  </si>
-  <si>
-    <t>Modelo de Dispersión de O3 a 8 horas</t>
-  </si>
-  <si>
-    <t>Modelo de Dispersión de O3 a 1 hora</t>
-  </si>
-  <si>
-    <t>Modelo de Dispersión de CO a 8 horas</t>
-  </si>
-  <si>
-    <t>Modelo de Dispersión de CO a 1 hora</t>
-  </si>
-  <si>
-    <t>Modelo de Vibraciones</t>
-  </si>
-  <si>
-    <t>Modelo de Sobrepresión de Aire</t>
-  </si>
-  <si>
-    <t>Corresponde al mosaico de fotografías aéreas ortocorregido y/o georeferenciado, modo pancromático o multiespectral.</t>
-  </si>
-  <si>
-    <t>Corresponde al mosaico de imágenes de satélite con resolucion espacial menor a 10 metros, ortocorregido y/o georeferenciado, modo pancromático, multiespectral o hiperespectral.</t>
-  </si>
-  <si>
-    <t>Corresponde al mosaico de imágenes de satélite con resolucion espacial mayor o igual a 10 metros, ortocorregido y/o georeferenciado, modo pancromático, multiespectral o hiperespectral.</t>
-  </si>
-  <si>
-    <t>Corresponde al DTM en escala de grises, donde cada celda o pixel contiene el valor de elevación en metros sobre el nivel del mar.</t>
-  </si>
-  <si>
-    <t>Corresponde al Modelo Digital de Superficie (incluye elementos de la cobertura terrestre como por ejemplo cobertura vegetal, edificaciones, etc), en escala de grises, donde cada celda o pixel contiene el valor de elevación en metros sobre el nivel del mar.</t>
-  </si>
-  <si>
-    <t>Corresponde a la superficie o Modelo Digital de Pendientes, en escala de grises, donde cada celda o pixel contiene el valor de pendiente en porcentaje.</t>
-  </si>
-  <si>
-    <t>Corresponde al Modelo Hidrogeológico.</t>
-  </si>
-  <si>
-    <t>Corresponde a la superficie o Modelo Digital de Precipitación, en escala de grises, donde cada celda o pixel contiene el valor de precipitación media multianual en mm/año.</t>
-  </si>
-  <si>
-    <t>Corresponde a la superficie o Modelo Digital de Temperatura, en escala de grises, donde cada celda o pixel contiene el valor de temperatura media multianual en °C/año.</t>
-  </si>
-  <si>
-    <t>Corresponde a la superficie o Modelo Digital de Dispersión de PST diario, en escala de grises, donde cada celda o pixel contiene el valor de concentración de PST.</t>
-  </si>
-  <si>
-    <t>Corresponde a la superficie o Modelo Digital de Dispersión de PST anual, en escala de grises, donde cada celda o pixel contiene el valor de concentración de PST.</t>
-  </si>
-  <si>
-    <t>Corresponde a la superficie o Modelo Digital de Dispersión de PM10 diario, en escala de grises, donde cada celda o pixel contiene el valor de concentración de PM10.</t>
-  </si>
-  <si>
-    <t>Corresponde a la superficie o Modelo Digital de Dispersión de PM10 anual, en escala de grises, donde cada celda o pixel contiene el valor de concentración de PM10.</t>
-  </si>
-  <si>
-    <t>Corresponde a la superficie o Modelo Digital de Dispersión de PM2.5 diario, en escala de grises, donde cada celda o pixel contiene el valor de concentración de PM2.5.</t>
-  </si>
-  <si>
-    <t>Corresponde a la superficie o Modelo Digital de Dispersión de PM2.5 anual, en escala de grises, donde cada celda o pixel contiene el valor de concentración de PM2.5.</t>
-  </si>
-  <si>
-    <t>Corresponde a la superficie o Modelo Digital de Dispersión de SO2 anual, en escala de grises, donde cada celda o pixel contiene el valor de concentración de SO2.</t>
-  </si>
-  <si>
-    <t>Corresponde a la superficie o Modelo Digital de Dispersión de SO2 diario, en escala de grises, donde cada celda o pixel contiene el valor de concentración de SO2.</t>
-  </si>
-  <si>
-    <t>Corresponde a la superficie o Modelo Digital de Dispersión de SO2 a tres horas, en escala de grises, donde cada celda o pixel contiene el valor de concentración de SO2.</t>
-  </si>
-  <si>
-    <t>Corresponde a la superficie o Modelo Digital de Dispersión de NO2 anual, en escala de grises, donde cada celda o pixel contiene el valor de concentración de NO2.</t>
-  </si>
-  <si>
-    <t>Corresponde a la superficie o Modelo Digital de Dispersión de NO2 diario, en escala de grises, donde cada celda o pixel contiene el valor de concentración de NO2.</t>
-  </si>
-  <si>
-    <t>Corresponde a la superficie o Modelo Digital de Dispersión de NO2 a 1 hora, en escala de grises, donde cada celda o pixel contiene el valor de concentración de NO2.</t>
-  </si>
-  <si>
-    <t>Corresponde a la superficie o Modelo Digital de Dispersión de O3 a 8 horas, en escala de grises, donde cada celda o pixel contiene el valor de concentración de O3.</t>
-  </si>
-  <si>
-    <t>Corresponde a la superficie o Modelo Digital de Dispersión de O3 a 1 hora, en escala de grises, donde cada celda o pixel contiene el valor de concentración de O3.</t>
-  </si>
-  <si>
-    <t>Corresponde a la superficie o Modelo Digital de Dispersión de CO a 8 horas, en escala de grises, donde cada celda o pixel contiene el valor de concentración de CO.</t>
-  </si>
-  <si>
-    <t>Corresponde a la superficie o Modelo Digital de Dispersión de CO a 1 hora, en escala de grises, donde cada celda o pixel contiene el valor de concentración de CO.</t>
-  </si>
-  <si>
-    <t>Corresponde a la superficie o Modelo Digital de vibraciones producidas por la actividad de las voladuras en mm/sg.</t>
-  </si>
-  <si>
-    <t>Corresponde a la superficie o Modelo Digital de la sobre presión del aire producidas por la actividad de las voladuras en db/L.</t>
-  </si>
-  <si>
-    <t>Ráster</t>
+    <t>Características</t>
   </si>
 </sst>
 </file>
@@ -5195,9 +5090,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC757EDD-9C70-4ED2-9CDC-202F9E2122A1}">
   <dimension ref="B1:V320"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D38" sqref="D38"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q3" sqref="Q3:Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -5298,22 +5193,22 @@
     </row>
     <row r="3" spans="2:22" ht="30.75" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="4" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>104</v>
+        <v>16</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>47</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>14</v>
@@ -5327,31 +5222,31 @@
       <c r="O3" s="4"/>
       <c r="P3" s="5" t="str">
         <f>_xlfn.CONCAT("| ",B3," | ",C3," |")</f>
-        <v>| Tema general o medio | Ráster |</v>
+        <v>| Formatos admisibles | Descripción |</v>
       </c>
       <c r="Q3" s="5" t="str">
         <f>_xlfn.CONCAT("| ",B3," | ",C3," | ",D3," |")</f>
-        <v>| Tema general o medio | Ráster | Capa - Descripción |</v>
+        <v>| Formatos admisibles | Descripción | Características |</v>
       </c>
       <c r="R3" s="5" t="str">
         <f>_xlfn.CONCAT("| ",B3," | ",C3," | ",D3," | ",E3," |")</f>
-        <v>| Tema general o medio | Ráster | Capa - Descripción | CAD Color |</v>
+        <v>| Formatos admisibles | Descripción | Características | CAD Color |</v>
       </c>
       <c r="S3" s="5" t="str">
         <f>_xlfn.CONCAT("| ",B3," | ",C3," | ",D3," | ",E3," |",F3," |")</f>
-        <v>| Tema general o medio | Ráster | Capa - Descripción | CAD Color |CAD Linetype |</v>
+        <v>| Formatos admisibles | Descripción | Características | CAD Color |CAD Linetype |</v>
       </c>
       <c r="T3" s="5" t="str">
         <f>_xlfn.CONCAT("| ",B3," | ",C3," | ",D3," | ",E3," |",F3," |",G3," |")</f>
-        <v>| Tema general o medio | Ráster | Capa - Descripción | CAD Color |CAD Linetype |CAD Lineweight |</v>
+        <v>| Formatos admisibles | Descripción | Características | CAD Color |CAD Linetype |CAD Lineweight |</v>
       </c>
       <c r="U3" s="5" t="str">
         <f>_xlfn.CONCAT("| ",B3," | ",C3," | ",D3," | ",E3," | ",F3," | ",G3," | ",H3," |")</f>
-        <v>| Tema general o medio | Ráster | Capa - Descripción | CAD Color | CAD Linetype | CAD Lineweight | D |</v>
+        <v>| Formatos admisibles | Descripción | Características | CAD Color | CAD Linetype | CAD Lineweight | D |</v>
       </c>
       <c r="V3" s="5" t="str">
         <f t="shared" ref="V3:V28" si="0">_xlfn.CONCAT("| ",B3," | ",C3," | ",D3," | ",E3," |",F3," |",G3," |",H3," |",I3," |",J3," |",K3," |",L3," |",M3," |",N3," |")</f>
-        <v>| Tema general o medio | Ráster | Capa - Descripción | CAD Color |CAD Linetype |CAD Lineweight |D | | | | | | |</v>
+        <v>| Formatos admisibles | Descripción | Características | CAD Color |CAD Linetype |CAD Lineweight |D | | | | | | |</v>
       </c>
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.55000000000000004">
@@ -5424,24 +5319,20 @@
         <v>| --- | --- | --- | --- |--- |--- |--- |--- |--- |--- |--- |--- |--- |</v>
       </c>
     </row>
-    <row r="5" spans="2:22" ht="76.900000000000006" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>48</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
@@ -5453,51 +5344,51 @@
       <c r="O5" s="5"/>
       <c r="P5" s="5" t="str">
         <f>_xlfn.CONCAT("| ",B5," | ",C5," |")</f>
-        <v>| Imagen de Satélite Regional | Corresponde al mosaico de imágenes de satélite con resolucion espacial mayor o igual a 10 metros, ortocorregido y/o georeferenciado, modo pancromático, multiespectral o hiperespectral. |</v>
+        <v>| Vectorial  |  |</v>
       </c>
       <c r="Q5" s="5" t="str">
         <f t="shared" ref="Q5:Q68" si="3">_xlfn.CONCAT("| ",B5," | ",C5," | ",D5," |")</f>
-        <v>| Imagen de Satélite Regional | Corresponde al mosaico de imágenes de satélite con resolucion espacial mayor o igual a 10 metros, ortocorregido y/o georeferenciado, modo pancromático, multiespectral o hiperespectral. | a |</v>
+        <v>| Vectorial  |  |  |</v>
       </c>
       <c r="R5" s="5" t="str">
         <f>_xlfn.CONCAT("| ",B5," | ",C5," | ",D5," | ",E5," |")</f>
-        <v>| Imagen de Satélite Regional | Corresponde al mosaico de imágenes de satélite con resolucion espacial mayor o igual a 10 metros, ortocorregido y/o georeferenciado, modo pancromático, multiespectral o hiperespectral. | a | a |</v>
+        <v>| Vectorial  |  |  | a |</v>
       </c>
       <c r="S5" s="5" t="str">
         <f>_xlfn.CONCAT("| ",B5," | ",C5," | ",D5," | ",E5," |",F5," |")</f>
-        <v>| Imagen de Satélite Regional | Corresponde al mosaico de imágenes de satélite con resolucion espacial mayor o igual a 10 metros, ortocorregido y/o georeferenciado, modo pancromático, multiespectral o hiperespectral. | a | a |a |</v>
+        <v>| Vectorial  |  |  | a |a |</v>
       </c>
       <c r="T5" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| Imagen de Satélite Regional | Corresponde al mosaico de imágenes de satélite con resolucion espacial mayor o igual a 10 metros, ortocorregido y/o georeferenciado, modo pancromático, multiespectral o hiperespectral. | a | a |a |a |</v>
+        <v>| Vectorial  |  |  | a |a |a |</v>
       </c>
       <c r="U5" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>| Imagen de Satélite Regional | Corresponde al mosaico de imágenes de satélite con resolucion espacial mayor o igual a 10 metros, ortocorregido y/o georeferenciado, modo pancromático, multiespectral o hiperespectral. | a | a | a | a |  |</v>
+        <v>| Vectorial  |  |  | a | a | a |  |</v>
       </c>
       <c r="V5" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| Imagen de Satélite Regional | Corresponde al mosaico de imágenes de satélite con resolucion espacial mayor o igual a 10 metros, ortocorregido y/o georeferenciado, modo pancromático, multiespectral o hiperespectral. | a | a |a |a | | | | | | | |</v>
-      </c>
-    </row>
-    <row r="6" spans="2:22" ht="76.900000000000006" x14ac:dyDescent="0.55000000000000004">
+        <v>| Vectorial  |  |  | a |a |a | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="6" spans="2:22" ht="92.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>78</v>
-      </c>
       <c r="D6" s="5" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
@@ -5509,51 +5400,51 @@
       <c r="O6" s="5"/>
       <c r="P6" s="5" t="str">
         <f t="shared" ref="P6:P69" si="4">_xlfn.CONCAT("| ",B6," | ",C6," |")</f>
-        <v>| Imagen de Satélite Alta Resolución | Corresponde al mosaico de imágenes de satélite con resolucion espacial menor a 10 metros, ortocorregido y/o georeferenciado, modo pancromático, multiespectral o hiperespectral. |</v>
+        <v>| FileGeoDataBase | Formato tipo FileGeoDataBase. |</v>
       </c>
       <c r="Q6" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>| Imagen de Satélite Alta Resolución | Corresponde al mosaico de imágenes de satélite con resolucion espacial menor a 10 metros, ortocorregido y/o georeferenciado, modo pancromático, multiespectral o hiperespectral. | a |</v>
+        <v>| FileGeoDataBase | Formato tipo FileGeoDataBase. | Formato de entrega de la totalidad de la información vectorial y tablas; de no ser posible la entrega en este formato, se deberán entregar shapefiles y las tablas adicionales en formato dbf. |</v>
       </c>
       <c r="R6" s="5" t="str">
         <f t="shared" ref="R6:R69" si="5">_xlfn.CONCAT("| ",B6," | ",C6," | ",D6," | ",E6," |")</f>
-        <v>| Imagen de Satélite Alta Resolución | Corresponde al mosaico de imágenes de satélite con resolucion espacial menor a 10 metros, ortocorregido y/o georeferenciado, modo pancromático, multiespectral o hiperespectral. | a | a |</v>
+        <v>| FileGeoDataBase | Formato tipo FileGeoDataBase. | Formato de entrega de la totalidad de la información vectorial y tablas; de no ser posible la entrega en este formato, se deberán entregar shapefiles y las tablas adicionales en formato dbf. | a |</v>
       </c>
       <c r="S6" s="5" t="str">
         <f t="shared" ref="S6:S69" si="6">_xlfn.CONCAT("| ",B6," | ",C6," | ",D6," | ",E6," |",F6," |")</f>
-        <v>| Imagen de Satélite Alta Resolución | Corresponde al mosaico de imágenes de satélite con resolucion espacial menor a 10 metros, ortocorregido y/o georeferenciado, modo pancromático, multiespectral o hiperespectral. | a | a |a |</v>
+        <v>| FileGeoDataBase | Formato tipo FileGeoDataBase. | Formato de entrega de la totalidad de la información vectorial y tablas; de no ser posible la entrega en este formato, se deberán entregar shapefiles y las tablas adicionales en formato dbf. | a |a |</v>
       </c>
       <c r="T6" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| Imagen de Satélite Alta Resolución | Corresponde al mosaico de imágenes de satélite con resolucion espacial menor a 10 metros, ortocorregido y/o georeferenciado, modo pancromático, multiespectral o hiperespectral. | a | a |a |a |</v>
+        <v>| FileGeoDataBase | Formato tipo FileGeoDataBase. | Formato de entrega de la totalidad de la información vectorial y tablas; de no ser posible la entrega en este formato, se deberán entregar shapefiles y las tablas adicionales en formato dbf. | a |a |a |</v>
       </c>
       <c r="U6" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>| Imagen de Satélite Alta Resolución | Corresponde al mosaico de imágenes de satélite con resolucion espacial menor a 10 metros, ortocorregido y/o georeferenciado, modo pancromático, multiespectral o hiperespectral. | a | a | a | a |  |</v>
+        <v>| FileGeoDataBase | Formato tipo FileGeoDataBase. | Formato de entrega de la totalidad de la información vectorial y tablas; de no ser posible la entrega en este formato, se deberán entregar shapefiles y las tablas adicionales en formato dbf. | a | a | a |  |</v>
       </c>
       <c r="V6" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| Imagen de Satélite Alta Resolución | Corresponde al mosaico de imágenes de satélite con resolucion espacial menor a 10 metros, ortocorregido y/o georeferenciado, modo pancromático, multiespectral o hiperespectral. | a | a |a |a | | | | | | | |</v>
-      </c>
-    </row>
-    <row r="7" spans="2:22" ht="46.15" x14ac:dyDescent="0.55000000000000004">
+        <v>| FileGeoDataBase | Formato tipo FileGeoDataBase. | Formato de entrega de la totalidad de la información vectorial y tablas; de no ser posible la entrega en este formato, se deberán entregar shapefiles y las tablas adicionales en formato dbf. | a |a |a | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="7" spans="2:22" ht="215.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
@@ -5565,51 +5456,47 @@
       <c r="O7" s="5"/>
       <c r="P7" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>| Ortofotografía Aérea | Corresponde al mosaico de fotografías aéreas ortocorregido y/o georeferenciado, modo pancromático o multiespectral. |</v>
+        <v>| ShapeFile | Formato para el intercambio de información geográfica. |</v>
       </c>
       <c r="Q7" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>| Ortofotografía Aérea | Corresponde al mosaico de fotografías aéreas ortocorregido y/o georeferenciado, modo pancromático o multiespectral. | a |</v>
+        <v>| ShapeFile | Formato para el intercambio de información geográfica. | Este formato estándar aplica cuando no se entrega en el esquema GDB, por lo tanto, la organización de los archivos shape, debe estar basado bajo el mismo esquema en que se encuentra el Diseño actual, conservando los nombres de los objetos y estructura (DataSet, FeatureClass) que ahí se describen, en donde el DataSet corresponde a los nombres de las carpetas o directorios y el FeatureClass al nombre del archivo shapefile.  |</v>
       </c>
       <c r="R7" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>| Ortofotografía Aérea | Corresponde al mosaico de fotografías aéreas ortocorregido y/o georeferenciado, modo pancromático o multiespectral. | a | a |</v>
+        <v>| ShapeFile | Formato para el intercambio de información geográfica. | Este formato estándar aplica cuando no se entrega en el esquema GDB, por lo tanto, la organización de los archivos shape, debe estar basado bajo el mismo esquema en que se encuentra el Diseño actual, conservando los nombres de los objetos y estructura (DataSet, FeatureClass) que ahí se describen, en donde el DataSet corresponde a los nombres de las carpetas o directorios y el FeatureClass al nombre del archivo shapefile.  | a |</v>
       </c>
       <c r="S7" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>| Ortofotografía Aérea | Corresponde al mosaico de fotografías aéreas ortocorregido y/o georeferenciado, modo pancromático o multiespectral. | a | a |a |</v>
+        <v>| ShapeFile | Formato para el intercambio de información geográfica. | Este formato estándar aplica cuando no se entrega en el esquema GDB, por lo tanto, la organización de los archivos shape, debe estar basado bajo el mismo esquema en que se encuentra el Diseño actual, conservando los nombres de los objetos y estructura (DataSet, FeatureClass) que ahí se describen, en donde el DataSet corresponde a los nombres de las carpetas o directorios y el FeatureClass al nombre del archivo shapefile.  | a |a |</v>
       </c>
       <c r="T7" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| Ortofotografía Aérea | Corresponde al mosaico de fotografías aéreas ortocorregido y/o georeferenciado, modo pancromático o multiespectral. | a | a |a |a |</v>
+        <v>| ShapeFile | Formato para el intercambio de información geográfica. | Este formato estándar aplica cuando no se entrega en el esquema GDB, por lo tanto, la organización de los archivos shape, debe estar basado bajo el mismo esquema en que se encuentra el Diseño actual, conservando los nombres de los objetos y estructura (DataSet, FeatureClass) que ahí se describen, en donde el DataSet corresponde a los nombres de las carpetas o directorios y el FeatureClass al nombre del archivo shapefile.  | a |a |a |</v>
       </c>
       <c r="U7" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>| Ortofotografía Aérea | Corresponde al mosaico de fotografías aéreas ortocorregido y/o georeferenciado, modo pancromático o multiespectral. | a | a | a | a |  |</v>
+        <v>| ShapeFile | Formato para el intercambio de información geográfica. | Este formato estándar aplica cuando no se entrega en el esquema GDB, por lo tanto, la organización de los archivos shape, debe estar basado bajo el mismo esquema en que se encuentra el Diseño actual, conservando los nombres de los objetos y estructura (DataSet, FeatureClass) que ahí se describen, en donde el DataSet corresponde a los nombres de las carpetas o directorios y el FeatureClass al nombre del archivo shapefile.  | a | a | a |  |</v>
       </c>
       <c r="V7" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| Ortofotografía Aérea | Corresponde al mosaico de fotografías aéreas ortocorregido y/o georeferenciado, modo pancromático o multiespectral. | a | a |a |a | | | | | | | |</v>
-      </c>
-    </row>
-    <row r="8" spans="2:22" ht="46.15" x14ac:dyDescent="0.55000000000000004">
+        <v>| ShapeFile | Formato para el intercambio de información geográfica. | Este formato estándar aplica cuando no se entrega en el esquema GDB, por lo tanto, la organización de los archivos shape, debe estar basado bajo el mismo esquema en que se encuentra el Diseño actual, conservando los nombres de los objetos y estructura (DataSet, FeatureClass) que ahí se describen, en donde el DataSet corresponde a los nombres de las carpetas o directorios y el FeatureClass al nombre del archivo shapefile.  | a |a |a | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="8" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D8" s="5" t="s">
         <v>48</v>
       </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
       <c r="E8" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
@@ -5621,51 +5508,51 @@
       <c r="O8" s="5"/>
       <c r="P8" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>| Modelo Digital del Terreno DTM | Corresponde al DTM en escala de grises, donde cada celda o pixel contiene el valor de elevación en metros sobre el nivel del mar. |</v>
+        <v>| Ráster |  |</v>
       </c>
       <c r="Q8" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>| Modelo Digital del Terreno DTM | Corresponde al DTM en escala de grises, donde cada celda o pixel contiene el valor de elevación en metros sobre el nivel del mar. | a |</v>
+        <v>| Ráster |  |  |</v>
       </c>
       <c r="R8" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>| Modelo Digital del Terreno DTM | Corresponde al DTM en escala de grises, donde cada celda o pixel contiene el valor de elevación en metros sobre el nivel del mar. | a | a |</v>
+        <v>| Ráster |  |  | a |</v>
       </c>
       <c r="S8" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>| Modelo Digital del Terreno DTM | Corresponde al DTM en escala de grises, donde cada celda o pixel contiene el valor de elevación en metros sobre el nivel del mar. | a | a |a |</v>
+        <v>| Ráster |  |  | a |a |</v>
       </c>
       <c r="T8" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| Modelo Digital del Terreno DTM | Corresponde al DTM en escala de grises, donde cada celda o pixel contiene el valor de elevación en metros sobre el nivel del mar. | a | a |a |a |</v>
+        <v>| Ráster |  |  | a |a |a |</v>
       </c>
       <c r="U8" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>| Modelo Digital del Terreno DTM | Corresponde al DTM en escala de grises, donde cada celda o pixel contiene el valor de elevación en metros sobre el nivel del mar. | a | a | a | a |  |</v>
+        <v>| Ráster |  |  | a | a | a |  |</v>
       </c>
       <c r="V8" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| Modelo Digital del Terreno DTM | Corresponde al DTM en escala de grises, donde cada celda o pixel contiene el valor de elevación en metros sobre el nivel del mar. | a | a |a |a | | | | | | | |</v>
-      </c>
-    </row>
-    <row r="9" spans="2:22" ht="76.900000000000006" x14ac:dyDescent="0.55000000000000004">
+        <v>| Ráster |  |  | a |a |a | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="9" spans="2:22" ht="46.15" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
@@ -5677,51 +5564,47 @@
       <c r="O9" s="5"/>
       <c r="P9" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>| Modelo Digital de Superficie DSM | Corresponde al Modelo Digital de Superficie (incluye elementos de la cobertura terrestre como por ejemplo cobertura vegetal, edificaciones, etc), en escala de grises, donde cada celda o pixel contiene el valor de elevación en metros sobre el nivel del mar. |</v>
+        <v>| GeoTiff,  img,  | Formatos estándar de archivo de imagen para aplicaciones SIG., (geotiff, img, grid, ecw). |</v>
       </c>
       <c r="Q9" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>| Modelo Digital de Superficie DSM | Corresponde al Modelo Digital de Superficie (incluye elementos de la cobertura terrestre como por ejemplo cobertura vegetal, edificaciones, etc), en escala de grises, donde cada celda o pixel contiene el valor de elevación en metros sobre el nivel del mar. | a |</v>
+        <v>| GeoTiff,  img,  | Formatos estándar de archivo de imagen para aplicaciones SIG., (geotiff, img, grid, ecw). | Los archivos geotiff, deben incluirse dentro de una carpeta llamada Ráster. |</v>
       </c>
       <c r="R9" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>| Modelo Digital de Superficie DSM | Corresponde al Modelo Digital de Superficie (incluye elementos de la cobertura terrestre como por ejemplo cobertura vegetal, edificaciones, etc), en escala de grises, donde cada celda o pixel contiene el valor de elevación en metros sobre el nivel del mar. | a | a |</v>
+        <v>| GeoTiff,  img,  | Formatos estándar de archivo de imagen para aplicaciones SIG., (geotiff, img, grid, ecw). | Los archivos geotiff, deben incluirse dentro de una carpeta llamada Ráster. | a |</v>
       </c>
       <c r="S9" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>| Modelo Digital de Superficie DSM | Corresponde al Modelo Digital de Superficie (incluye elementos de la cobertura terrestre como por ejemplo cobertura vegetal, edificaciones, etc), en escala de grises, donde cada celda o pixel contiene el valor de elevación en metros sobre el nivel del mar. | a | a |a |</v>
+        <v>| GeoTiff,  img,  | Formatos estándar de archivo de imagen para aplicaciones SIG., (geotiff, img, grid, ecw). | Los archivos geotiff, deben incluirse dentro de una carpeta llamada Ráster. | a |a |</v>
       </c>
       <c r="T9" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| Modelo Digital de Superficie DSM | Corresponde al Modelo Digital de Superficie (incluye elementos de la cobertura terrestre como por ejemplo cobertura vegetal, edificaciones, etc), en escala de grises, donde cada celda o pixel contiene el valor de elevación en metros sobre el nivel del mar. | a | a |a |a |</v>
+        <v>| GeoTiff,  img,  | Formatos estándar de archivo de imagen para aplicaciones SIG., (geotiff, img, grid, ecw). | Los archivos geotiff, deben incluirse dentro de una carpeta llamada Ráster. | a |a |a |</v>
       </c>
       <c r="U9" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>| Modelo Digital de Superficie DSM | Corresponde al Modelo Digital de Superficie (incluye elementos de la cobertura terrestre como por ejemplo cobertura vegetal, edificaciones, etc), en escala de grises, donde cada celda o pixel contiene el valor de elevación en metros sobre el nivel del mar. | a | a | a | a |  |</v>
+        <v>| GeoTiff,  img,  | Formatos estándar de archivo de imagen para aplicaciones SIG., (geotiff, img, grid, ecw). | Los archivos geotiff, deben incluirse dentro de una carpeta llamada Ráster. | a | a | a |  |</v>
       </c>
       <c r="V9" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| Modelo Digital de Superficie DSM | Corresponde al Modelo Digital de Superficie (incluye elementos de la cobertura terrestre como por ejemplo cobertura vegetal, edificaciones, etc), en escala de grises, donde cada celda o pixel contiene el valor de elevación en metros sobre el nivel del mar. | a | a |a |a | | | | | | | |</v>
-      </c>
-    </row>
-    <row r="10" spans="2:22" ht="46.15" x14ac:dyDescent="0.55000000000000004">
+        <v>| GeoTiff,  img,  | Formatos estándar de archivo de imagen para aplicaciones SIG., (geotiff, img, grid, ecw). | Los archivos geotiff, deben incluirse dentro de una carpeta llamada Ráster. | a |a |a | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="10" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>48</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
       <c r="E10" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
@@ -5733,51 +5616,47 @@
       <c r="O10" s="5"/>
       <c r="P10" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>| Modelo Digital de Pendientes | Corresponde a la superficie o Modelo Digital de Pendientes, en escala de grises, donde cada celda o pixel contiene el valor de pendiente en porcentaje. |</v>
+        <v>| grid, ecw |  |</v>
       </c>
       <c r="Q10" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>| Modelo Digital de Pendientes | Corresponde a la superficie o Modelo Digital de Pendientes, en escala de grises, donde cada celda o pixel contiene el valor de pendiente en porcentaje. | a |</v>
+        <v>| grid, ecw |  |  |</v>
       </c>
       <c r="R10" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>| Modelo Digital de Pendientes | Corresponde a la superficie o Modelo Digital de Pendientes, en escala de grises, donde cada celda o pixel contiene el valor de pendiente en porcentaje. | a | a |</v>
+        <v>| grid, ecw |  |  | a |</v>
       </c>
       <c r="S10" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>| Modelo Digital de Pendientes | Corresponde a la superficie o Modelo Digital de Pendientes, en escala de grises, donde cada celda o pixel contiene el valor de pendiente en porcentaje. | a | a |a |</v>
+        <v>| grid, ecw |  |  | a |a |</v>
       </c>
       <c r="T10" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| Modelo Digital de Pendientes | Corresponde a la superficie o Modelo Digital de Pendientes, en escala de grises, donde cada celda o pixel contiene el valor de pendiente en porcentaje. | a | a |a |a |</v>
+        <v>| grid, ecw |  |  | a |a |a |</v>
       </c>
       <c r="U10" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>| Modelo Digital de Pendientes | Corresponde a la superficie o Modelo Digital de Pendientes, en escala de grises, donde cada celda o pixel contiene el valor de pendiente en porcentaje. | a | a | a | a |  |</v>
+        <v>| grid, ecw |  |  | a | a | a |  |</v>
       </c>
       <c r="V10" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| Modelo Digital de Pendientes | Corresponde a la superficie o Modelo Digital de Pendientes, en escala de grises, donde cada celda o pixel contiene el valor de pendiente en porcentaje. | a | a |a |a | | | | | | | |</v>
+        <v>| grid, ecw |  |  | a |a |a | | | | | | | |</v>
       </c>
     </row>
     <row r="11" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>48</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
       <c r="E11" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
@@ -5789,51 +5668,51 @@
       <c r="O11" s="5"/>
       <c r="P11" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>| Modelo Hidrogeológico | Corresponde al Modelo Hidrogeológico. |</v>
+        <v>| Tablas |  |</v>
       </c>
       <c r="Q11" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>| Modelo Hidrogeológico | Corresponde al Modelo Hidrogeológico. | a |</v>
+        <v>| Tablas |  |  |</v>
       </c>
       <c r="R11" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>| Modelo Hidrogeológico | Corresponde al Modelo Hidrogeológico. | a | a |</v>
+        <v>| Tablas |  |  | a |</v>
       </c>
       <c r="S11" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>| Modelo Hidrogeológico | Corresponde al Modelo Hidrogeológico. | a | a |a |</v>
+        <v>| Tablas |  |  | a |a |</v>
       </c>
       <c r="T11" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| Modelo Hidrogeológico | Corresponde al Modelo Hidrogeológico. | a | a |a |a |</v>
+        <v>| Tablas |  |  | a |a |a |</v>
       </c>
       <c r="U11" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>| Modelo Hidrogeológico | Corresponde al Modelo Hidrogeológico. | a | a | a | a |  |</v>
+        <v>| Tablas |  |  | a | a | a |  |</v>
       </c>
       <c r="V11" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| Modelo Hidrogeológico | Corresponde al Modelo Hidrogeológico. | a | a |a |a | | | | | | | |</v>
-      </c>
-    </row>
-    <row r="12" spans="2:22" ht="61.5" x14ac:dyDescent="0.55000000000000004">
+        <v>| Tablas |  |  | a |a |a | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="12" spans="2:22" ht="123" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="5" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
@@ -5845,51 +5724,47 @@
       <c r="O12" s="5"/>
       <c r="P12" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>| Modelo Digital de Precipitación | Corresponde a la superficie o Modelo Digital de Precipitación, en escala de grises, donde cada celda o pixel contiene el valor de precipitación media multianual en mm/año. |</v>
+        <v>| dBase (.dbf) | Almacenamiento y manejo de datos tabulares. |</v>
       </c>
       <c r="Q12" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>| Modelo Digital de Precipitación | Corresponde a la superficie o Modelo Digital de Precipitación, en escala de grises, donde cada celda o pixel contiene el valor de precipitación media multianual en mm/año. | a |</v>
+        <v>| dBase (.dbf) | Almacenamiento y manejo de datos tabulares. | Este formato estándar aplica cuando no se entrega en el esquema GDB y corresponde a los datos alfanuméricos de tablas adicionales asociados a los shapefile. Los archivos dbf, deben incluirse dentro de una carpeta llamada Tablas |</v>
       </c>
       <c r="R12" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>| Modelo Digital de Precipitación | Corresponde a la superficie o Modelo Digital de Precipitación, en escala de grises, donde cada celda o pixel contiene el valor de precipitación media multianual en mm/año. | a | a |</v>
+        <v>| dBase (.dbf) | Almacenamiento y manejo de datos tabulares. | Este formato estándar aplica cuando no se entrega en el esquema GDB y corresponde a los datos alfanuméricos de tablas adicionales asociados a los shapefile. Los archivos dbf, deben incluirse dentro de una carpeta llamada Tablas | a |</v>
       </c>
       <c r="S12" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>| Modelo Digital de Precipitación | Corresponde a la superficie o Modelo Digital de Precipitación, en escala de grises, donde cada celda o pixel contiene el valor de precipitación media multianual en mm/año. | a | a |a |</v>
+        <v>| dBase (.dbf) | Almacenamiento y manejo de datos tabulares. | Este formato estándar aplica cuando no se entrega en el esquema GDB y corresponde a los datos alfanuméricos de tablas adicionales asociados a los shapefile. Los archivos dbf, deben incluirse dentro de una carpeta llamada Tablas | a |a |</v>
       </c>
       <c r="T12" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| Modelo Digital de Precipitación | Corresponde a la superficie o Modelo Digital de Precipitación, en escala de grises, donde cada celda o pixel contiene el valor de precipitación media multianual en mm/año. | a | a |a |a |</v>
+        <v>| dBase (.dbf) | Almacenamiento y manejo de datos tabulares. | Este formato estándar aplica cuando no se entrega en el esquema GDB y corresponde a los datos alfanuméricos de tablas adicionales asociados a los shapefile. Los archivos dbf, deben incluirse dentro de una carpeta llamada Tablas | a |a |a |</v>
       </c>
       <c r="U12" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>| Modelo Digital de Precipitación | Corresponde a la superficie o Modelo Digital de Precipitación, en escala de grises, donde cada celda o pixel contiene el valor de precipitación media multianual en mm/año. | a | a | a | a |  |</v>
+        <v>| dBase (.dbf) | Almacenamiento y manejo de datos tabulares. | Este formato estándar aplica cuando no se entrega en el esquema GDB y corresponde a los datos alfanuméricos de tablas adicionales asociados a los shapefile. Los archivos dbf, deben incluirse dentro de una carpeta llamada Tablas | a | a | a |  |</v>
       </c>
       <c r="V12" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| Modelo Digital de Precipitación | Corresponde a la superficie o Modelo Digital de Precipitación, en escala de grises, donde cada celda o pixel contiene el valor de precipitación media multianual en mm/año. | a | a |a |a | | | | | | | |</v>
-      </c>
-    </row>
-    <row r="13" spans="2:22" ht="61.5" x14ac:dyDescent="0.55000000000000004">
+        <v>| dBase (.dbf) | Almacenamiento y manejo de datos tabulares. | Este formato estándar aplica cuando no se entrega en el esquema GDB y corresponde a los datos alfanuméricos de tablas adicionales asociados a los shapefile. Los archivos dbf, deben incluirse dentro de una carpeta llamada Tablas | a |a |a | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="13" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>48</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
       <c r="E13" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
@@ -5901,51 +5776,51 @@
       <c r="O13" s="5"/>
       <c r="P13" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>| Modelo Digital de Temperatura | Corresponde a la superficie o Modelo Digital de Temperatura, en escala de grises, donde cada celda o pixel contiene el valor de temperatura media multianual en °C/año. |</v>
+        <v>| Metadatos |  |</v>
       </c>
       <c r="Q13" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>| Modelo Digital de Temperatura | Corresponde a la superficie o Modelo Digital de Temperatura, en escala de grises, donde cada celda o pixel contiene el valor de temperatura media multianual en °C/año. | a |</v>
+        <v>| Metadatos |  |  |</v>
       </c>
       <c r="R13" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>| Modelo Digital de Temperatura | Corresponde a la superficie o Modelo Digital de Temperatura, en escala de grises, donde cada celda o pixel contiene el valor de temperatura media multianual en °C/año. | a | a |</v>
+        <v>| Metadatos |  |  | a |</v>
       </c>
       <c r="S13" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>| Modelo Digital de Temperatura | Corresponde a la superficie o Modelo Digital de Temperatura, en escala de grises, donde cada celda o pixel contiene el valor de temperatura media multianual en °C/año. | a | a |a |</v>
+        <v>| Metadatos |  |  | a |a |</v>
       </c>
       <c r="T13" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| Modelo Digital de Temperatura | Corresponde a la superficie o Modelo Digital de Temperatura, en escala de grises, donde cada celda o pixel contiene el valor de temperatura media multianual en °C/año. | a | a |a |a |</v>
+        <v>| Metadatos |  |  | a |a |a |</v>
       </c>
       <c r="U13" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>| Modelo Digital de Temperatura | Corresponde a la superficie o Modelo Digital de Temperatura, en escala de grises, donde cada celda o pixel contiene el valor de temperatura media multianual en °C/año. | a | a | a | a |  |</v>
+        <v>| Metadatos |  |  | a | a | a |  |</v>
       </c>
       <c r="V13" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| Modelo Digital de Temperatura | Corresponde a la superficie o Modelo Digital de Temperatura, en escala de grises, donde cada celda o pixel contiene el valor de temperatura media multianual en °C/año. | a | a |a |a | | | | | | | |</v>
-      </c>
-    </row>
-    <row r="14" spans="2:22" ht="61.5" x14ac:dyDescent="0.55000000000000004">
+        <v>| Metadatos |  |  | a |a |a | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="14" spans="2:22" ht="46.15" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="5" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
@@ -5957,51 +5832,47 @@
       <c r="O14" s="5"/>
       <c r="P14" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>| Modelo de Dispersión de PST Diario | Corresponde a la superficie o Modelo Digital de Dispersión de PST diario, en escala de grises, donde cada celda o pixel contiene el valor de concentración de PST. |</v>
+        <v>| Archivos EXCEL | Almacenamiento y manejo de las plantillas de metadatos de cada feature u objeto. |</v>
       </c>
       <c r="Q14" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>| Modelo de Dispersión de PST Diario | Corresponde a la superficie o Modelo Digital de Dispersión de PST diario, en escala de grises, donde cada celda o pixel contiene el valor de concentración de PST. | a |</v>
+        <v>| Archivos EXCEL | Almacenamiento y manejo de las plantillas de metadatos de cada feature u objeto. | Los archivos EXCEL, deben incluirse dentro de una carpeta llamada Metadatos. |</v>
       </c>
       <c r="R14" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>| Modelo de Dispersión de PST Diario | Corresponde a la superficie o Modelo Digital de Dispersión de PST diario, en escala de grises, donde cada celda o pixel contiene el valor de concentración de PST. | a | a |</v>
+        <v>| Archivos EXCEL | Almacenamiento y manejo de las plantillas de metadatos de cada feature u objeto. | Los archivos EXCEL, deben incluirse dentro de una carpeta llamada Metadatos. | a |</v>
       </c>
       <c r="S14" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>| Modelo de Dispersión de PST Diario | Corresponde a la superficie o Modelo Digital de Dispersión de PST diario, en escala de grises, donde cada celda o pixel contiene el valor de concentración de PST. | a | a |a |</v>
+        <v>| Archivos EXCEL | Almacenamiento y manejo de las plantillas de metadatos de cada feature u objeto. | Los archivos EXCEL, deben incluirse dentro de una carpeta llamada Metadatos. | a |a |</v>
       </c>
       <c r="T14" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| Modelo de Dispersión de PST Diario | Corresponde a la superficie o Modelo Digital de Dispersión de PST diario, en escala de grises, donde cada celda o pixel contiene el valor de concentración de PST. | a | a |a |a |</v>
+        <v>| Archivos EXCEL | Almacenamiento y manejo de las plantillas de metadatos de cada feature u objeto. | Los archivos EXCEL, deben incluirse dentro de una carpeta llamada Metadatos. | a |a |a |</v>
       </c>
       <c r="U14" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>| Modelo de Dispersión de PST Diario | Corresponde a la superficie o Modelo Digital de Dispersión de PST diario, en escala de grises, donde cada celda o pixel contiene el valor de concentración de PST. | a | a | a | a |  |</v>
+        <v>| Archivos EXCEL | Almacenamiento y manejo de las plantillas de metadatos de cada feature u objeto. | Los archivos EXCEL, deben incluirse dentro de una carpeta llamada Metadatos. | a | a | a |  |</v>
       </c>
       <c r="V14" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| Modelo de Dispersión de PST Diario | Corresponde a la superficie o Modelo Digital de Dispersión de PST diario, en escala de grises, donde cada celda o pixel contiene el valor de concentración de PST. | a | a |a |a | | | | | | | |</v>
-      </c>
-    </row>
-    <row r="15" spans="2:22" ht="61.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>87</v>
-      </c>
+        <v>| Archivos EXCEL | Almacenamiento y manejo de las plantillas de metadatos de cada feature u objeto. | Los archivos EXCEL, deben incluirse dentro de una carpeta llamada Metadatos. | a |a |a | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="15" spans="2:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
       <c r="D15" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
@@ -6013,51 +5884,47 @@
       <c r="O15" s="5"/>
       <c r="P15" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>| Modelo de Dispersión de PST Anual | Corresponde a la superficie o Modelo Digital de Dispersión de PST anual, en escala de grises, donde cada celda o pixel contiene el valor de concentración de PST. |</v>
+        <v>|  |  |</v>
       </c>
       <c r="Q15" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>| Modelo de Dispersión de PST Anual | Corresponde a la superficie o Modelo Digital de Dispersión de PST anual, en escala de grises, donde cada celda o pixel contiene el valor de concentración de PST. | a |</v>
+        <v>|  |  | a |</v>
       </c>
       <c r="R15" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>| Modelo de Dispersión de PST Anual | Corresponde a la superficie o Modelo Digital de Dispersión de PST anual, en escala de grises, donde cada celda o pixel contiene el valor de concentración de PST. | a | a |</v>
+        <v>|  |  | a | a |</v>
       </c>
       <c r="S15" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>| Modelo de Dispersión de PST Anual | Corresponde a la superficie o Modelo Digital de Dispersión de PST anual, en escala de grises, donde cada celda o pixel contiene el valor de concentración de PST. | a | a |a |</v>
+        <v>|  |  | a | a |a |</v>
       </c>
       <c r="T15" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| Modelo de Dispersión de PST Anual | Corresponde a la superficie o Modelo Digital de Dispersión de PST anual, en escala de grises, donde cada celda o pixel contiene el valor de concentración de PST. | a | a |a |a |</v>
+        <v>|  |  | a | a |a |a |</v>
       </c>
       <c r="U15" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>| Modelo de Dispersión de PST Anual | Corresponde a la superficie o Modelo Digital de Dispersión de PST anual, en escala de grises, donde cada celda o pixel contiene el valor de concentración de PST. | a | a | a | a |  |</v>
+        <v>|  |  | a | a | a | a |  |</v>
       </c>
       <c r="V15" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| Modelo de Dispersión de PST Anual | Corresponde a la superficie o Modelo Digital de Dispersión de PST anual, en escala de grises, donde cada celda o pixel contiene el valor de concentración de PST. | a | a |a |a | | | | | | | |</v>
+        <v>|  |  | a | a |a |a | | | | | | | |</v>
       </c>
     </row>
     <row r="16" spans="2:22" ht="61.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>88</v>
-      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
       <c r="D16" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
@@ -6069,51 +5936,47 @@
       <c r="O16" s="5"/>
       <c r="P16" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>| Modelo de Dispersión de PM10 Diario | Corresponde a la superficie o Modelo Digital de Dispersión de PM10 diario, en escala de grises, donde cada celda o pixel contiene el valor de concentración de PM10. |</v>
+        <v>|  |  |</v>
       </c>
       <c r="Q16" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>| Modelo de Dispersión de PM10 Diario | Corresponde a la superficie o Modelo Digital de Dispersión de PM10 diario, en escala de grises, donde cada celda o pixel contiene el valor de concentración de PM10. | a |</v>
+        <v>|  |  | a |</v>
       </c>
       <c r="R16" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>| Modelo de Dispersión de PM10 Diario | Corresponde a la superficie o Modelo Digital de Dispersión de PM10 diario, en escala de grises, donde cada celda o pixel contiene el valor de concentración de PM10. | a | a |</v>
+        <v>|  |  | a | a |</v>
       </c>
       <c r="S16" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>| Modelo de Dispersión de PM10 Diario | Corresponde a la superficie o Modelo Digital de Dispersión de PM10 diario, en escala de grises, donde cada celda o pixel contiene el valor de concentración de PM10. | a | a |a |</v>
+        <v>|  |  | a | a |a |</v>
       </c>
       <c r="T16" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| Modelo de Dispersión de PM10 Diario | Corresponde a la superficie o Modelo Digital de Dispersión de PM10 diario, en escala de grises, donde cada celda o pixel contiene el valor de concentración de PM10. | a | a |a |a |</v>
+        <v>|  |  | a | a |a |a |</v>
       </c>
       <c r="U16" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>| Modelo de Dispersión de PM10 Diario | Corresponde a la superficie o Modelo Digital de Dispersión de PM10 diario, en escala de grises, donde cada celda o pixel contiene el valor de concentración de PM10. | a | a | a | a |  |</v>
+        <v>|  |  | a | a | a | a |  |</v>
       </c>
       <c r="V16" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| Modelo de Dispersión de PM10 Diario | Corresponde a la superficie o Modelo Digital de Dispersión de PM10 diario, en escala de grises, donde cada celda o pixel contiene el valor de concentración de PM10. | a | a |a |a | | | | | | | |</v>
+        <v>|  |  | a | a |a |a | | | | | | | |</v>
       </c>
     </row>
     <row r="17" spans="2:22" ht="61.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>89</v>
-      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
       <c r="D17" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
@@ -6125,51 +5988,47 @@
       <c r="O17" s="5"/>
       <c r="P17" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>| Modelo de Dispersión de PM10 Anual | Corresponde a la superficie o Modelo Digital de Dispersión de PM10 anual, en escala de grises, donde cada celda o pixel contiene el valor de concentración de PM10. |</v>
+        <v>|  |  |</v>
       </c>
       <c r="Q17" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>| Modelo de Dispersión de PM10 Anual | Corresponde a la superficie o Modelo Digital de Dispersión de PM10 anual, en escala de grises, donde cada celda o pixel contiene el valor de concentración de PM10. | a |</v>
+        <v>|  |  | a |</v>
       </c>
       <c r="R17" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>| Modelo de Dispersión de PM10 Anual | Corresponde a la superficie o Modelo Digital de Dispersión de PM10 anual, en escala de grises, donde cada celda o pixel contiene el valor de concentración de PM10. | a | a |</v>
+        <v>|  |  | a | a |</v>
       </c>
       <c r="S17" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>| Modelo de Dispersión de PM10 Anual | Corresponde a la superficie o Modelo Digital de Dispersión de PM10 anual, en escala de grises, donde cada celda o pixel contiene el valor de concentración de PM10. | a | a |a |</v>
+        <v>|  |  | a | a |a |</v>
       </c>
       <c r="T17" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| Modelo de Dispersión de PM10 Anual | Corresponde a la superficie o Modelo Digital de Dispersión de PM10 anual, en escala de grises, donde cada celda o pixel contiene el valor de concentración de PM10. | a | a |a |a |</v>
+        <v>|  |  | a | a |a |a |</v>
       </c>
       <c r="U17" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>| Modelo de Dispersión de PM10 Anual | Corresponde a la superficie o Modelo Digital de Dispersión de PM10 anual, en escala de grises, donde cada celda o pixel contiene el valor de concentración de PM10. | a | a | a | a |  |</v>
+        <v>|  |  | a | a | a | a |  |</v>
       </c>
       <c r="V17" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| Modelo de Dispersión de PM10 Anual | Corresponde a la superficie o Modelo Digital de Dispersión de PM10 anual, en escala de grises, donde cada celda o pixel contiene el valor de concentración de PM10. | a | a |a |a | | | | | | | |</v>
+        <v>|  |  | a | a |a |a | | | | | | | |</v>
       </c>
     </row>
     <row r="18" spans="2:22" ht="61.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
       <c r="D18" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
@@ -6181,51 +6040,47 @@
       <c r="O18" s="5"/>
       <c r="P18" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>| Modelo de Dispersión de PM2.5 Diario | Corresponde a la superficie o Modelo Digital de Dispersión de PM2.5 diario, en escala de grises, donde cada celda o pixel contiene el valor de concentración de PM2.5. |</v>
+        <v>|  |  |</v>
       </c>
       <c r="Q18" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>| Modelo de Dispersión de PM2.5 Diario | Corresponde a la superficie o Modelo Digital de Dispersión de PM2.5 diario, en escala de grises, donde cada celda o pixel contiene el valor de concentración de PM2.5. | a |</v>
+        <v>|  |  | a |</v>
       </c>
       <c r="R18" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>| Modelo de Dispersión de PM2.5 Diario | Corresponde a la superficie o Modelo Digital de Dispersión de PM2.5 diario, en escala de grises, donde cada celda o pixel contiene el valor de concentración de PM2.5. | a | a |</v>
+        <v>|  |  | a | a |</v>
       </c>
       <c r="S18" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>| Modelo de Dispersión de PM2.5 Diario | Corresponde a la superficie o Modelo Digital de Dispersión de PM2.5 diario, en escala de grises, donde cada celda o pixel contiene el valor de concentración de PM2.5. | a | a |a |</v>
+        <v>|  |  | a | a |a |</v>
       </c>
       <c r="T18" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| Modelo de Dispersión de PM2.5 Diario | Corresponde a la superficie o Modelo Digital de Dispersión de PM2.5 diario, en escala de grises, donde cada celda o pixel contiene el valor de concentración de PM2.5. | a | a |a |a |</v>
+        <v>|  |  | a | a |a |a |</v>
       </c>
       <c r="U18" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>| Modelo de Dispersión de PM2.5 Diario | Corresponde a la superficie o Modelo Digital de Dispersión de PM2.5 diario, en escala de grises, donde cada celda o pixel contiene el valor de concentración de PM2.5. | a | a | a | a |  |</v>
+        <v>|  |  | a | a | a | a |  |</v>
       </c>
       <c r="V18" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| Modelo de Dispersión de PM2.5 Diario | Corresponde a la superficie o Modelo Digital de Dispersión de PM2.5 diario, en escala de grises, donde cada celda o pixel contiene el valor de concentración de PM2.5. | a | a |a |a | | | | | | | |</v>
+        <v>|  |  | a | a |a |a | | | | | | | |</v>
       </c>
     </row>
     <row r="19" spans="2:22" ht="61.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>91</v>
-      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
       <c r="D19" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
@@ -6237,51 +6092,47 @@
       <c r="O19" s="5"/>
       <c r="P19" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>| Modelo de Dispersión de PM2.5 Anual | Corresponde a la superficie o Modelo Digital de Dispersión de PM2.5 anual, en escala de grises, donde cada celda o pixel contiene el valor de concentración de PM2.5. |</v>
+        <v>|  |  |</v>
       </c>
       <c r="Q19" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>| Modelo de Dispersión de PM2.5 Anual | Corresponde a la superficie o Modelo Digital de Dispersión de PM2.5 anual, en escala de grises, donde cada celda o pixel contiene el valor de concentración de PM2.5. | a |</v>
+        <v>|  |  | a |</v>
       </c>
       <c r="R19" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>| Modelo de Dispersión de PM2.5 Anual | Corresponde a la superficie o Modelo Digital de Dispersión de PM2.5 anual, en escala de grises, donde cada celda o pixel contiene el valor de concentración de PM2.5. | a | a |</v>
+        <v>|  |  | a | a |</v>
       </c>
       <c r="S19" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>| Modelo de Dispersión de PM2.5 Anual | Corresponde a la superficie o Modelo Digital de Dispersión de PM2.5 anual, en escala de grises, donde cada celda o pixel contiene el valor de concentración de PM2.5. | a | a |a |</v>
+        <v>|  |  | a | a |a |</v>
       </c>
       <c r="T19" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| Modelo de Dispersión de PM2.5 Anual | Corresponde a la superficie o Modelo Digital de Dispersión de PM2.5 anual, en escala de grises, donde cada celda o pixel contiene el valor de concentración de PM2.5. | a | a |a |a |</v>
+        <v>|  |  | a | a |a |a |</v>
       </c>
       <c r="U19" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>| Modelo de Dispersión de PM2.5 Anual | Corresponde a la superficie o Modelo Digital de Dispersión de PM2.5 anual, en escala de grises, donde cada celda o pixel contiene el valor de concentración de PM2.5. | a | a | a | a |  |</v>
+        <v>|  |  | a | a | a | a |  |</v>
       </c>
       <c r="V19" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| Modelo de Dispersión de PM2.5 Anual | Corresponde a la superficie o Modelo Digital de Dispersión de PM2.5 anual, en escala de grises, donde cada celda o pixel contiene el valor de concentración de PM2.5. | a | a |a |a | | | | | | | |</v>
+        <v>|  |  | a | a |a |a | | | | | | | |</v>
       </c>
     </row>
     <row r="20" spans="2:22" ht="61.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>92</v>
-      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
       <c r="D20" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
@@ -6293,51 +6144,47 @@
       <c r="O20" s="5"/>
       <c r="P20" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>| Modelo de Dispersión de SO2 Anual | Corresponde a la superficie o Modelo Digital de Dispersión de SO2 anual, en escala de grises, donde cada celda o pixel contiene el valor de concentración de SO2. |</v>
+        <v>|  |  |</v>
       </c>
       <c r="Q20" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>| Modelo de Dispersión de SO2 Anual | Corresponde a la superficie o Modelo Digital de Dispersión de SO2 anual, en escala de grises, donde cada celda o pixel contiene el valor de concentración de SO2. | a |</v>
+        <v>|  |  | a |</v>
       </c>
       <c r="R20" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>| Modelo de Dispersión de SO2 Anual | Corresponde a la superficie o Modelo Digital de Dispersión de SO2 anual, en escala de grises, donde cada celda o pixel contiene el valor de concentración de SO2. | a | a |</v>
+        <v>|  |  | a | a |</v>
       </c>
       <c r="S20" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>| Modelo de Dispersión de SO2 Anual | Corresponde a la superficie o Modelo Digital de Dispersión de SO2 anual, en escala de grises, donde cada celda o pixel contiene el valor de concentración de SO2. | a | a |a |</v>
+        <v>|  |  | a | a |a |</v>
       </c>
       <c r="T20" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| Modelo de Dispersión de SO2 Anual | Corresponde a la superficie o Modelo Digital de Dispersión de SO2 anual, en escala de grises, donde cada celda o pixel contiene el valor de concentración de SO2. | a | a |a |a |</v>
+        <v>|  |  | a | a |a |a |</v>
       </c>
       <c r="U20" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>| Modelo de Dispersión de SO2 Anual | Corresponde a la superficie o Modelo Digital de Dispersión de SO2 anual, en escala de grises, donde cada celda o pixel contiene el valor de concentración de SO2. | a | a | a | a |  |</v>
+        <v>|  |  | a | a | a | a |  |</v>
       </c>
       <c r="V20" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| Modelo de Dispersión de SO2 Anual | Corresponde a la superficie o Modelo Digital de Dispersión de SO2 anual, en escala de grises, donde cada celda o pixel contiene el valor de concentración de SO2. | a | a |a |a | | | | | | | |</v>
+        <v>|  |  | a | a |a |a | | | | | | | |</v>
       </c>
     </row>
     <row r="21" spans="2:22" ht="61.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>93</v>
-      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
       <c r="D21" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
@@ -6349,51 +6196,47 @@
       <c r="O21" s="5"/>
       <c r="P21" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>| Modelo de Dispersión de SO2 Diario | Corresponde a la superficie o Modelo Digital de Dispersión de SO2 diario, en escala de grises, donde cada celda o pixel contiene el valor de concentración de SO2. |</v>
+        <v>|  |  |</v>
       </c>
       <c r="Q21" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>| Modelo de Dispersión de SO2 Diario | Corresponde a la superficie o Modelo Digital de Dispersión de SO2 diario, en escala de grises, donde cada celda o pixel contiene el valor de concentración de SO2. | a |</v>
+        <v>|  |  | a |</v>
       </c>
       <c r="R21" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>| Modelo de Dispersión de SO2 Diario | Corresponde a la superficie o Modelo Digital de Dispersión de SO2 diario, en escala de grises, donde cada celda o pixel contiene el valor de concentración de SO2. | a | a |</v>
+        <v>|  |  | a | a |</v>
       </c>
       <c r="S21" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>| Modelo de Dispersión de SO2 Diario | Corresponde a la superficie o Modelo Digital de Dispersión de SO2 diario, en escala de grises, donde cada celda o pixel contiene el valor de concentración de SO2. | a | a |a |</v>
+        <v>|  |  | a | a |a |</v>
       </c>
       <c r="T21" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| Modelo de Dispersión de SO2 Diario | Corresponde a la superficie o Modelo Digital de Dispersión de SO2 diario, en escala de grises, donde cada celda o pixel contiene el valor de concentración de SO2. | a | a |a |a |</v>
+        <v>|  |  | a | a |a |a |</v>
       </c>
       <c r="U21" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>| Modelo de Dispersión de SO2 Diario | Corresponde a la superficie o Modelo Digital de Dispersión de SO2 diario, en escala de grises, donde cada celda o pixel contiene el valor de concentración de SO2. | a | a | a | a |  |</v>
+        <v>|  |  | a | a | a | a |  |</v>
       </c>
       <c r="V21" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| Modelo de Dispersión de SO2 Diario | Corresponde a la superficie o Modelo Digital de Dispersión de SO2 diario, en escala de grises, donde cada celda o pixel contiene el valor de concentración de SO2. | a | a |a |a | | | | | | | |</v>
+        <v>|  |  | a | a |a |a | | | | | | | |</v>
       </c>
     </row>
     <row r="22" spans="2:22" ht="61.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>94</v>
-      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
       <c r="D22" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
@@ -6405,51 +6248,47 @@
       <c r="O22" s="5"/>
       <c r="P22" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>| Modelo de Dispersión de SO2 a 3 horas | Corresponde a la superficie o Modelo Digital de Dispersión de SO2 a tres horas, en escala de grises, donde cada celda o pixel contiene el valor de concentración de SO2. |</v>
+        <v>|  |  |</v>
       </c>
       <c r="Q22" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>| Modelo de Dispersión de SO2 a 3 horas | Corresponde a la superficie o Modelo Digital de Dispersión de SO2 a tres horas, en escala de grises, donde cada celda o pixel contiene el valor de concentración de SO2. | a |</v>
+        <v>|  |  | a |</v>
       </c>
       <c r="R22" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>| Modelo de Dispersión de SO2 a 3 horas | Corresponde a la superficie o Modelo Digital de Dispersión de SO2 a tres horas, en escala de grises, donde cada celda o pixel contiene el valor de concentración de SO2. | a | a |</v>
+        <v>|  |  | a | a |</v>
       </c>
       <c r="S22" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>| Modelo de Dispersión de SO2 a 3 horas | Corresponde a la superficie o Modelo Digital de Dispersión de SO2 a tres horas, en escala de grises, donde cada celda o pixel contiene el valor de concentración de SO2. | a | a |a |</v>
+        <v>|  |  | a | a |a |</v>
       </c>
       <c r="T22" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| Modelo de Dispersión de SO2 a 3 horas | Corresponde a la superficie o Modelo Digital de Dispersión de SO2 a tres horas, en escala de grises, donde cada celda o pixel contiene el valor de concentración de SO2. | a | a |a |a |</v>
+        <v>|  |  | a | a |a |a |</v>
       </c>
       <c r="U22" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>| Modelo de Dispersión de SO2 a 3 horas | Corresponde a la superficie o Modelo Digital de Dispersión de SO2 a tres horas, en escala de grises, donde cada celda o pixel contiene el valor de concentración de SO2. | a | a | a | a |  |</v>
+        <v>|  |  | a | a | a | a |  |</v>
       </c>
       <c r="V22" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| Modelo de Dispersión de SO2 a 3 horas | Corresponde a la superficie o Modelo Digital de Dispersión de SO2 a tres horas, en escala de grises, donde cada celda o pixel contiene el valor de concentración de SO2. | a | a |a |a | | | | | | | |</v>
+        <v>|  |  | a | a |a |a | | | | | | | |</v>
       </c>
     </row>
     <row r="23" spans="2:22" ht="61.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>95</v>
-      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
       <c r="D23" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
@@ -6461,51 +6300,47 @@
       <c r="O23" s="5"/>
       <c r="P23" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>| Modelo de Dispersión de NO2 Anual | Corresponde a la superficie o Modelo Digital de Dispersión de NO2 anual, en escala de grises, donde cada celda o pixel contiene el valor de concentración de NO2. |</v>
+        <v>|  |  |</v>
       </c>
       <c r="Q23" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>| Modelo de Dispersión de NO2 Anual | Corresponde a la superficie o Modelo Digital de Dispersión de NO2 anual, en escala de grises, donde cada celda o pixel contiene el valor de concentración de NO2. | a |</v>
+        <v>|  |  | a |</v>
       </c>
       <c r="R23" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>| Modelo de Dispersión de NO2 Anual | Corresponde a la superficie o Modelo Digital de Dispersión de NO2 anual, en escala de grises, donde cada celda o pixel contiene el valor de concentración de NO2. | a | a |</v>
+        <v>|  |  | a | a |</v>
       </c>
       <c r="S23" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>| Modelo de Dispersión de NO2 Anual | Corresponde a la superficie o Modelo Digital de Dispersión de NO2 anual, en escala de grises, donde cada celda o pixel contiene el valor de concentración de NO2. | a | a |a |</v>
+        <v>|  |  | a | a |a |</v>
       </c>
       <c r="T23" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| Modelo de Dispersión de NO2 Anual | Corresponde a la superficie o Modelo Digital de Dispersión de NO2 anual, en escala de grises, donde cada celda o pixel contiene el valor de concentración de NO2. | a | a |a |a |</v>
+        <v>|  |  | a | a |a |a |</v>
       </c>
       <c r="U23" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>| Modelo de Dispersión de NO2 Anual | Corresponde a la superficie o Modelo Digital de Dispersión de NO2 anual, en escala de grises, donde cada celda o pixel contiene el valor de concentración de NO2. | a | a | a | a |  |</v>
+        <v>|  |  | a | a | a | a |  |</v>
       </c>
       <c r="V23" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| Modelo de Dispersión de NO2 Anual | Corresponde a la superficie o Modelo Digital de Dispersión de NO2 anual, en escala de grises, donde cada celda o pixel contiene el valor de concentración de NO2. | a | a |a |a | | | | | | | |</v>
+        <v>|  |  | a | a |a |a | | | | | | | |</v>
       </c>
     </row>
     <row r="24" spans="2:22" ht="61.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>96</v>
-      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
       <c r="D24" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
@@ -6517,51 +6352,47 @@
       <c r="O24" s="5"/>
       <c r="P24" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>| Modelo de Dispersión de NO2 Diario | Corresponde a la superficie o Modelo Digital de Dispersión de NO2 diario, en escala de grises, donde cada celda o pixel contiene el valor de concentración de NO2. |</v>
+        <v>|  |  |</v>
       </c>
       <c r="Q24" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>| Modelo de Dispersión de NO2 Diario | Corresponde a la superficie o Modelo Digital de Dispersión de NO2 diario, en escala de grises, donde cada celda o pixel contiene el valor de concentración de NO2. | a |</v>
+        <v>|  |  | a |</v>
       </c>
       <c r="R24" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>| Modelo de Dispersión de NO2 Diario | Corresponde a la superficie o Modelo Digital de Dispersión de NO2 diario, en escala de grises, donde cada celda o pixel contiene el valor de concentración de NO2. | a | a |</v>
+        <v>|  |  | a | a |</v>
       </c>
       <c r="S24" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>| Modelo de Dispersión de NO2 Diario | Corresponde a la superficie o Modelo Digital de Dispersión de NO2 diario, en escala de grises, donde cada celda o pixel contiene el valor de concentración de NO2. | a | a |a |</v>
+        <v>|  |  | a | a |a |</v>
       </c>
       <c r="T24" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| Modelo de Dispersión de NO2 Diario | Corresponde a la superficie o Modelo Digital de Dispersión de NO2 diario, en escala de grises, donde cada celda o pixel contiene el valor de concentración de NO2. | a | a |a |a |</v>
+        <v>|  |  | a | a |a |a |</v>
       </c>
       <c r="U24" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>| Modelo de Dispersión de NO2 Diario | Corresponde a la superficie o Modelo Digital de Dispersión de NO2 diario, en escala de grises, donde cada celda o pixel contiene el valor de concentración de NO2. | a | a | a | a |  |</v>
+        <v>|  |  | a | a | a | a |  |</v>
       </c>
       <c r="V24" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| Modelo de Dispersión de NO2 Diario | Corresponde a la superficie o Modelo Digital de Dispersión de NO2 diario, en escala de grises, donde cada celda o pixel contiene el valor de concentración de NO2. | a | a |a |a | | | | | | | |</v>
+        <v>|  |  | a | a |a |a | | | | | | | |</v>
       </c>
     </row>
     <row r="25" spans="2:22" ht="61.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>97</v>
-      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
       <c r="D25" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
@@ -6573,51 +6404,47 @@
       <c r="O25" s="4"/>
       <c r="P25" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>| Modelo de Dispersión de NO2 a 1 hora | Corresponde a la superficie o Modelo Digital de Dispersión de NO2 a 1 hora, en escala de grises, donde cada celda o pixel contiene el valor de concentración de NO2. |</v>
+        <v>|  |  |</v>
       </c>
       <c r="Q25" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>| Modelo de Dispersión de NO2 a 1 hora | Corresponde a la superficie o Modelo Digital de Dispersión de NO2 a 1 hora, en escala de grises, donde cada celda o pixel contiene el valor de concentración de NO2. | a |</v>
+        <v>|  |  | a |</v>
       </c>
       <c r="R25" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>| Modelo de Dispersión de NO2 a 1 hora | Corresponde a la superficie o Modelo Digital de Dispersión de NO2 a 1 hora, en escala de grises, donde cada celda o pixel contiene el valor de concentración de NO2. | a | a |</v>
+        <v>|  |  | a | a |</v>
       </c>
       <c r="S25" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>| Modelo de Dispersión de NO2 a 1 hora | Corresponde a la superficie o Modelo Digital de Dispersión de NO2 a 1 hora, en escala de grises, donde cada celda o pixel contiene el valor de concentración de NO2. | a | a |a |</v>
+        <v>|  |  | a | a |a |</v>
       </c>
       <c r="T25" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| Modelo de Dispersión de NO2 a 1 hora | Corresponde a la superficie o Modelo Digital de Dispersión de NO2 a 1 hora, en escala de grises, donde cada celda o pixel contiene el valor de concentración de NO2. | a | a |a |a |</v>
+        <v>|  |  | a | a |a |a |</v>
       </c>
       <c r="U25" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>| Modelo de Dispersión de NO2 a 1 hora | Corresponde a la superficie o Modelo Digital de Dispersión de NO2 a 1 hora, en escala de grises, donde cada celda o pixel contiene el valor de concentración de NO2. | a | a | a | a |  |</v>
+        <v>|  |  | a | a | a | a |  |</v>
       </c>
       <c r="V25" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| Modelo de Dispersión de NO2 a 1 hora | Corresponde a la superficie o Modelo Digital de Dispersión de NO2 a 1 hora, en escala de grises, donde cada celda o pixel contiene el valor de concentración de NO2. | a | a |a |a | | | | | | | |</v>
+        <v>|  |  | a | a |a |a | | | | | | | |</v>
       </c>
     </row>
     <row r="26" spans="2:22" ht="61.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>98</v>
-      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
       <c r="D26" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
@@ -6629,51 +6456,47 @@
       <c r="O26" s="4"/>
       <c r="P26" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>| Modelo de Dispersión de O3 a 8 horas | Corresponde a la superficie o Modelo Digital de Dispersión de O3 a 8 horas, en escala de grises, donde cada celda o pixel contiene el valor de concentración de O3. |</v>
+        <v>|  |  |</v>
       </c>
       <c r="Q26" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>| Modelo de Dispersión de O3 a 8 horas | Corresponde a la superficie o Modelo Digital de Dispersión de O3 a 8 horas, en escala de grises, donde cada celda o pixel contiene el valor de concentración de O3. | a |</v>
+        <v>|  |  | a |</v>
       </c>
       <c r="R26" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>| Modelo de Dispersión de O3 a 8 horas | Corresponde a la superficie o Modelo Digital de Dispersión de O3 a 8 horas, en escala de grises, donde cada celda o pixel contiene el valor de concentración de O3. | a | a |</v>
+        <v>|  |  | a | a |</v>
       </c>
       <c r="S26" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>| Modelo de Dispersión de O3 a 8 horas | Corresponde a la superficie o Modelo Digital de Dispersión de O3 a 8 horas, en escala de grises, donde cada celda o pixel contiene el valor de concentración de O3. | a | a |a |</v>
+        <v>|  |  | a | a |a |</v>
       </c>
       <c r="T26" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| Modelo de Dispersión de O3 a 8 horas | Corresponde a la superficie o Modelo Digital de Dispersión de O3 a 8 horas, en escala de grises, donde cada celda o pixel contiene el valor de concentración de O3. | a | a |a |a |</v>
+        <v>|  |  | a | a |a |a |</v>
       </c>
       <c r="U26" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>| Modelo de Dispersión de O3 a 8 horas | Corresponde a la superficie o Modelo Digital de Dispersión de O3 a 8 horas, en escala de grises, donde cada celda o pixel contiene el valor de concentración de O3. | a | a | a | a |  |</v>
+        <v>|  |  | a | a | a | a |  |</v>
       </c>
       <c r="V26" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| Modelo de Dispersión de O3 a 8 horas | Corresponde a la superficie o Modelo Digital de Dispersión de O3 a 8 horas, en escala de grises, donde cada celda o pixel contiene el valor de concentración de O3. | a | a |a |a | | | | | | | |</v>
+        <v>|  |  | a | a |a |a | | | | | | | |</v>
       </c>
     </row>
     <row r="27" spans="2:22" ht="61.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>99</v>
-      </c>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
       <c r="D27" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
@@ -6685,51 +6508,47 @@
       <c r="O27" s="4"/>
       <c r="P27" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>| Modelo de Dispersión de O3 a 1 hora | Corresponde a la superficie o Modelo Digital de Dispersión de O3 a 1 hora, en escala de grises, donde cada celda o pixel contiene el valor de concentración de O3. |</v>
+        <v>|  |  |</v>
       </c>
       <c r="Q27" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>| Modelo de Dispersión de O3 a 1 hora | Corresponde a la superficie o Modelo Digital de Dispersión de O3 a 1 hora, en escala de grises, donde cada celda o pixel contiene el valor de concentración de O3. | a |</v>
+        <v>|  |  | a |</v>
       </c>
       <c r="R27" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>| Modelo de Dispersión de O3 a 1 hora | Corresponde a la superficie o Modelo Digital de Dispersión de O3 a 1 hora, en escala de grises, donde cada celda o pixel contiene el valor de concentración de O3. | a | a |</v>
+        <v>|  |  | a | a |</v>
       </c>
       <c r="S27" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>| Modelo de Dispersión de O3 a 1 hora | Corresponde a la superficie o Modelo Digital de Dispersión de O3 a 1 hora, en escala de grises, donde cada celda o pixel contiene el valor de concentración de O3. | a | a |a |</v>
+        <v>|  |  | a | a |a |</v>
       </c>
       <c r="T27" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| Modelo de Dispersión de O3 a 1 hora | Corresponde a la superficie o Modelo Digital de Dispersión de O3 a 1 hora, en escala de grises, donde cada celda o pixel contiene el valor de concentración de O3. | a | a |a |a |</v>
+        <v>|  |  | a | a |a |a |</v>
       </c>
       <c r="U27" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>| Modelo de Dispersión de O3 a 1 hora | Corresponde a la superficie o Modelo Digital de Dispersión de O3 a 1 hora, en escala de grises, donde cada celda o pixel contiene el valor de concentración de O3. | a | a | a | a |  |</v>
+        <v>|  |  | a | a | a | a |  |</v>
       </c>
       <c r="V27" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| Modelo de Dispersión de O3 a 1 hora | Corresponde a la superficie o Modelo Digital de Dispersión de O3 a 1 hora, en escala de grises, donde cada celda o pixel contiene el valor de concentración de O3. | a | a |a |a | | | | | | | |</v>
+        <v>|  |  | a | a |a |a | | | | | | | |</v>
       </c>
     </row>
     <row r="28" spans="2:22" ht="61.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B28" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>100</v>
-      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
       <c r="D28" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
@@ -6741,51 +6560,47 @@
       <c r="O28" s="4"/>
       <c r="P28" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>| Modelo de Dispersión de CO a 8 horas | Corresponde a la superficie o Modelo Digital de Dispersión de CO a 8 horas, en escala de grises, donde cada celda o pixel contiene el valor de concentración de CO. |</v>
+        <v>|  |  |</v>
       </c>
       <c r="Q28" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>| Modelo de Dispersión de CO a 8 horas | Corresponde a la superficie o Modelo Digital de Dispersión de CO a 8 horas, en escala de grises, donde cada celda o pixel contiene el valor de concentración de CO. | a |</v>
+        <v>|  |  | a |</v>
       </c>
       <c r="R28" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>| Modelo de Dispersión de CO a 8 horas | Corresponde a la superficie o Modelo Digital de Dispersión de CO a 8 horas, en escala de grises, donde cada celda o pixel contiene el valor de concentración de CO. | a | a |</v>
+        <v>|  |  | a | a |</v>
       </c>
       <c r="S28" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>| Modelo de Dispersión de CO a 8 horas | Corresponde a la superficie o Modelo Digital de Dispersión de CO a 8 horas, en escala de grises, donde cada celda o pixel contiene el valor de concentración de CO. | a | a |a |</v>
+        <v>|  |  | a | a |a |</v>
       </c>
       <c r="T28" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| Modelo de Dispersión de CO a 8 horas | Corresponde a la superficie o Modelo Digital de Dispersión de CO a 8 horas, en escala de grises, donde cada celda o pixel contiene el valor de concentración de CO. | a | a |a |a |</v>
+        <v>|  |  | a | a |a |a |</v>
       </c>
       <c r="U28" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>| Modelo de Dispersión de CO a 8 horas | Corresponde a la superficie o Modelo Digital de Dispersión de CO a 8 horas, en escala de grises, donde cada celda o pixel contiene el valor de concentración de CO. | a | a | a | a |  |</v>
+        <v>|  |  | a | a | a | a |  |</v>
       </c>
       <c r="V28" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| Modelo de Dispersión de CO a 8 horas | Corresponde a la superficie o Modelo Digital de Dispersión de CO a 8 horas, en escala de grises, donde cada celda o pixel contiene el valor de concentración de CO. | a | a |a |a | | | | | | | |</v>
-      </c>
-    </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="B29" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>101</v>
-      </c>
+        <v>|  |  | a | a |a |a | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="29" spans="2:22" ht="46.15" x14ac:dyDescent="0.55000000000000004">
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
       <c r="D29" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
@@ -6797,39 +6612,35 @@
       <c r="O29" s="4"/>
       <c r="P29" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>| Modelo de Dispersión de CO a 1 hora | Corresponde a la superficie o Modelo Digital de Dispersión de CO a 1 hora, en escala de grises, donde cada celda o pixel contiene el valor de concentración de CO. |</v>
+        <v>|  |  |</v>
       </c>
       <c r="Q29" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>| Modelo de Dispersión de CO a 1 hora | Corresponde a la superficie o Modelo Digital de Dispersión de CO a 1 hora, en escala de grises, donde cada celda o pixel contiene el valor de concentración de CO. | a |</v>
+        <v>|  |  | a |</v>
       </c>
       <c r="R29" s="5"/>
       <c r="S29" s="5"/>
       <c r="T29" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| Modelo de Dispersión de CO a 1 hora | Corresponde a la superficie o Modelo Digital de Dispersión de CO a 1 hora, en escala de grises, donde cada celda o pixel contiene el valor de concentración de CO. | a | a |a |a |</v>
+        <v>|  |  | a | a |a |a |</v>
       </c>
       <c r="U29" s="5"/>
       <c r="V29" s="5"/>
     </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="B30" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>102</v>
-      </c>
+    <row r="30" spans="2:22" ht="30.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
       <c r="D30" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
@@ -6841,39 +6652,35 @@
       <c r="O30" s="4"/>
       <c r="P30" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>| Modelo de Vibraciones | Corresponde a la superficie o Modelo Digital de vibraciones producidas por la actividad de las voladuras en mm/sg. |</v>
+        <v>|  |  |</v>
       </c>
       <c r="Q30" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>| Modelo de Vibraciones | Corresponde a la superficie o Modelo Digital de vibraciones producidas por la actividad de las voladuras en mm/sg. | a |</v>
+        <v>|  |  | a |</v>
       </c>
       <c r="R30" s="5"/>
       <c r="S30" s="5"/>
       <c r="T30" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| Modelo de Vibraciones | Corresponde a la superficie o Modelo Digital de vibraciones producidas por la actividad de las voladuras en mm/sg. | a | a |a |a |</v>
+        <v>|  |  | a | a |a |a |</v>
       </c>
       <c r="U30" s="5"/>
       <c r="V30" s="5"/>
     </row>
-    <row r="31" spans="2:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="B31" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>103</v>
-      </c>
+    <row r="31" spans="2:22" ht="30.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
       <c r="D31" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
@@ -6885,17 +6692,17 @@
       <c r="O31" s="4"/>
       <c r="P31" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>| Modelo de Sobrepresión de Aire | Corresponde a la superficie o Modelo Digital de la sobre presión del aire producidas por la actividad de las voladuras en db/L. |</v>
+        <v>|  |  |</v>
       </c>
       <c r="Q31" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>| Modelo de Sobrepresión de Aire | Corresponde a la superficie o Modelo Digital de la sobre presión del aire producidas por la actividad de las voladuras en db/L. | a |</v>
+        <v>|  |  | a |</v>
       </c>
       <c r="R31" s="5"/>
       <c r="S31" s="5"/>
       <c r="T31" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| Modelo de Sobrepresión de Aire | Corresponde a la superficie o Modelo Digital de la sobre presión del aire producidas por la actividad de las voladuras en db/L. | a | a |a |a |</v>
+        <v>|  |  | a | a |a |a |</v>
       </c>
       <c r="U31" s="5"/>
       <c r="V31" s="5"/>
@@ -7188,7 +6995,7 @@
       <c r="U40" s="5"/>
       <c r="V40" s="5"/>
     </row>
-    <row r="41" spans="2:22" ht="30.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="5"/>
@@ -7252,7 +7059,7 @@
       <c r="U42" s="5"/>
       <c r="V42" s="5"/>
     </row>
-    <row r="43" spans="2:22" ht="30.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
       <c r="D43" s="5"/>
@@ -7284,7 +7091,7 @@
       <c r="U43" s="5"/>
       <c r="V43" s="5"/>
     </row>
-    <row r="44" spans="2:22" ht="30.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
       <c r="D44" s="5"/>
@@ -7316,7 +7123,7 @@
       <c r="U44" s="5"/>
       <c r="V44" s="5"/>
     </row>
-    <row r="45" spans="2:22" ht="30.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
       <c r="D45" s="5"/>
@@ -7357,7 +7164,7 @@
         <v>|  |  |  |  | | | | | | | | | |</v>
       </c>
     </row>
-    <row r="46" spans="2:22" ht="30.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
       <c r="D46" s="5"/>
@@ -7398,7 +7205,7 @@
         <v>|  |  |  |  | | | | | | | | | |</v>
       </c>
     </row>
-    <row r="47" spans="2:22" ht="30.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="5"/>
@@ -7439,7 +7246,7 @@
         <v>|  |  |  |  | | | | | | | | | |</v>
       </c>
     </row>
-    <row r="48" spans="2:22" ht="30.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
       <c r="D48" s="5"/>
@@ -7480,7 +7287,7 @@
         <v>|  |  |  |  | | | | | | | | | |</v>
       </c>
     </row>
-    <row r="49" spans="2:22" ht="30.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
       <c r="D49" s="5"/>
@@ -7521,7 +7328,7 @@
         <v>|  |  |  |  | | | | | | | | | |</v>
       </c>
     </row>
-    <row r="50" spans="2:22" ht="30.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
       <c r="D50" s="5"/>
@@ -7562,7 +7369,7 @@
         <v>|  |  |  |  | | | | | | | | | |</v>
       </c>
     </row>
-    <row r="51" spans="2:22" ht="30.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
       <c r="D51" s="5"/>
@@ -7644,7 +7451,7 @@
         <v>|  |  |  |  | | | | | | | | | |</v>
       </c>
     </row>
-    <row r="53" spans="2:22" ht="30.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
       <c r="D53" s="5"/>
@@ -7685,7 +7492,7 @@
         <v>|  |  |  |  | | | | | | | | | |</v>
       </c>
     </row>
-    <row r="54" spans="2:22" ht="30.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
       <c r="D54" s="5"/>
@@ -7726,7 +7533,7 @@
         <v>|  |  |  |  | | | | | | | | | |</v>
       </c>
     </row>
-    <row r="55" spans="2:22" ht="30.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
       <c r="D55" s="5"/>
@@ -7808,7 +7615,7 @@
         <v>|  |  |  |  | | | | | | | | | |</v>
       </c>
     </row>
-    <row r="57" spans="2:22" ht="30.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
       <c r="D57" s="5"/>
@@ -7849,7 +7656,7 @@
         <v>|  |  |  |  | | | | | | | | | |</v>
       </c>
     </row>
-    <row r="58" spans="2:22" ht="30.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
       <c r="D58" s="5"/>
@@ -7890,7 +7697,7 @@
         <v>|  |  |  |  | | | | | | | | | |</v>
       </c>
     </row>
-    <row r="59" spans="2:22" ht="30.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
       <c r="D59" s="5"/>
@@ -7931,7 +7738,7 @@
         <v>|  |  |  |  | | | | | | | | | |</v>
       </c>
     </row>
-    <row r="60" spans="2:22" ht="30.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
       <c r="D60" s="5"/>
@@ -7972,7 +7779,7 @@
         <v>|  |  |  |  | | | | | | | | | |</v>
       </c>
     </row>
-    <row r="61" spans="2:22" ht="30.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
       <c r="D61" s="5"/>
@@ -8013,7 +7820,7 @@
         <v>|  |  |  |  | | | | | | | | | |</v>
       </c>
     </row>
-    <row r="62" spans="2:22" ht="30.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
       <c r="D62" s="5"/>
@@ -8054,7 +7861,7 @@
         <v>|  |  |  |  | | | | | | | | | |</v>
       </c>
     </row>
-    <row r="63" spans="2:22" ht="30.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
       <c r="D63" s="5"/>
@@ -8177,7 +7984,7 @@
         <v>|  |  |  |  | | | | | | | | | |</v>
       </c>
     </row>
-    <row r="66" spans="2:22" ht="30.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
       <c r="D66" s="5"/>
@@ -8218,7 +8025,7 @@
         <v>|  |  |  |  | | | | | | | | | |</v>
       </c>
     </row>
-    <row r="67" spans="2:22" ht="30.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
       <c r="D67" s="5"/>
@@ -8259,7 +8066,7 @@
         <v>|  |  |  |  | | | | | | | | | |</v>
       </c>
     </row>
-    <row r="68" spans="2:22" ht="30.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
       <c r="D68" s="5"/>
@@ -8300,7 +8107,7 @@
         <v>|  |  |  |  | | | | | | | | | |</v>
       </c>
     </row>
-    <row r="69" spans="2:22" ht="30.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
       <c r="D69" s="5"/>
@@ -8341,7 +8148,7 @@
         <v>|  |  |  |  | | | | | | | | | |</v>
       </c>
     </row>
-    <row r="70" spans="2:22" ht="30.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
       <c r="D70" s="5"/>
